--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -11303,7 +11303,7 @@
     <t>Detect</t>
   </si>
   <si>
-    <t>discover or discern the existence, presence, or fact of an intrusion into information systems. We included Detect because that’s what everyone was doing - looking, not reacting, and we wanted them to get that out of their systems.</t>
+    <t>Discover or discern the existence, presence, or fact of an intrusion into information systems.</t>
   </si>
   <si>
     <t>D1 - Detect</t>
@@ -11315,7 +11315,7 @@
     <t>Deny</t>
   </si>
   <si>
-    <t>prevent disinformation creators from accessing and using critical information, systems, and services.</t>
+    <t xml:space="preserve">Prevent disinformation creators from accessing and using critical information, systems, and services. Deny is for an indefinite time period. </t>
   </si>
   <si>
     <t>D2 - Deny</t>
@@ -11327,7 +11327,7 @@
     <t>Disrupt</t>
   </si>
   <si>
-    <t>break or interrupt the flow of information.</t>
+    <t xml:space="preserve">Completely break or interrupt the flow of information, for a fixed amount of time. (Deny, for a limited time period).  Not allowing any efficacy, for a short amount of time. </t>
   </si>
   <si>
     <t>D3 - Disrupt</t>
@@ -11339,7 +11339,7 @@
     <t>Degrade</t>
   </si>
   <si>
-    <t>reduce the effectiveness or efficiency of adversary command and control or communications systems, and information collection efforts or means.</t>
+    <t xml:space="preserve">Reduce the effectiveness or efficiency of disinformation creators’ command and control or communications systems, and information collection efforts or means, either indefinitely, or for a limited time period. </t>
   </si>
   <si>
     <t>D4 - Degrade</t>
@@ -11351,7 +11351,7 @@
     <t>Deceive</t>
   </si>
   <si>
-    <t>cause a person to believe what is not true. military deception seeks to mislead adversary decision makers by manipulating their perception of reality.</t>
+    <t>Cause a person to believe what is not true. military deception seeks to mislead adversary decision makers by manipulating their perception of reality.</t>
   </si>
   <si>
     <t>D5 - Deceive</t>
@@ -11363,7 +11363,7 @@
     <t>Destroy</t>
   </si>
   <si>
-    <t>damage a system or entity so badly that it cannot perform any function or be restored to a usable condition without being entirely rebuilt.</t>
+    <t xml:space="preserve">Damage a system or entity so badly that it cannot perform any function or be restored to a usable condition without being entirely rebuilt. Destroy is permanent, e.g. you can rebuild a website, but it’s not the same website. </t>
   </si>
   <si>
     <t>D6 - Destroy</t>
@@ -11375,7 +11375,7 @@
     <t>Deter</t>
   </si>
   <si>
-    <t>discourage. We added Deter to the list as a potentially useful category too</t>
+    <t>Discourage.</t>
   </si>
   <si>
     <t>D7 - Deter</t>
@@ -12872,7 +12872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -13563,6 +13563,21 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
@@ -13755,25 +13770,18 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -13786,15 +13794,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -14160,7 +14175,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -14202,22 +14217,19 @@
     <xf numFmtId="49" fontId="16" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -14226,19 +14238,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -14253,13 +14268,13 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -14319,18 +14334,6 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -14340,10 +14343,13 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -14358,7 +14364,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -14370,7 +14376,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -14406,7 +14415,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -16029,17 +16044,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="16.3516" style="165" customWidth="1"/>
-    <col min="3" max="3" width="47" style="165" customWidth="1"/>
+    <col min="3" max="3" width="107.242" style="165" customWidth="1"/>
     <col min="4" max="4" width="14.8516" style="165" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="165" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="165" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="165" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -16055,7 +16069,6 @@
       <c r="D1" t="s" s="166">
         <v>61</v>
       </c>
-      <c r="E1" s="168"/>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="96">
@@ -16071,7 +16084,6 @@
         <f>A2&amp;" - "&amp;B2</f>
         <v>2179</v>
       </c>
-      <c r="E2" s="169"/>
     </row>
     <row r="3" ht="24.65" customHeight="1">
       <c r="A3" t="s" s="96">
@@ -16087,9 +16099,8 @@
         <f>A3&amp;" - "&amp;B3</f>
         <v>2183</v>
       </c>
-      <c r="E3" s="169"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
+    </row>
+    <row r="4" ht="29.9" customHeight="1">
       <c r="A4" t="s" s="96">
         <v>2184</v>
       </c>
@@ -16103,7 +16114,6 @@
         <f>A4&amp;" - "&amp;B4</f>
         <v>2187</v>
       </c>
-      <c r="E4" s="169"/>
     </row>
     <row r="5" ht="35.65" customHeight="1">
       <c r="A5" t="s" s="96">
@@ -16119,7 +16129,6 @@
         <f>A5&amp;" - "&amp;B5</f>
         <v>2191</v>
       </c>
-      <c r="E5" s="169"/>
     </row>
     <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="96">
@@ -16135,7 +16144,6 @@
         <f>A6&amp;" - "&amp;B6</f>
         <v>2195</v>
       </c>
-      <c r="E6" s="169"/>
     </row>
     <row r="7" ht="35.65" customHeight="1">
       <c r="A7" t="s" s="96">
@@ -16151,7 +16159,6 @@
         <f>A7&amp;" - "&amp;B7</f>
         <v>2199</v>
       </c>
-      <c r="E7" s="169"/>
     </row>
     <row r="8" ht="24.65" customHeight="1">
       <c r="A8" t="s" s="96">
@@ -16167,21 +16174,6 @@
         <f>A8&amp;" - "&amp;B8</f>
         <v>2203</v>
       </c>
-      <c r="E8" s="169"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -16203,250 +16195,250 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="172" customWidth="1"/>
-    <col min="2" max="2" width="19.8516" style="172" customWidth="1"/>
-    <col min="3" max="3" width="58.3516" style="172" customWidth="1"/>
-    <col min="4" max="4" width="21.6719" style="172" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="172" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="172" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="168" customWidth="1"/>
+    <col min="2" max="2" width="19.8516" style="168" customWidth="1"/>
+    <col min="3" max="3" width="58.3516" style="168" customWidth="1"/>
+    <col min="4" max="4" width="21.6719" style="168" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="168" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="168" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="173">
+      <c r="A1" t="s" s="169">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="173">
+      <c r="B1" t="s" s="169">
         <v>58</v>
       </c>
-      <c r="C1" t="s" s="174">
+      <c r="C1" t="s" s="170">
         <v>60</v>
       </c>
-      <c r="D1" t="s" s="173">
+      <c r="D1" t="s" s="169">
         <v>61</v>
       </c>
-      <c r="E1" s="168"/>
+      <c r="E1" s="171"/>
     </row>
     <row r="2" ht="24.65" customHeight="1">
-      <c r="A2" t="s" s="175">
+      <c r="A2" t="s" s="172">
         <v>2204</v>
       </c>
-      <c r="B2" t="s" s="176">
+      <c r="B2" t="s" s="173">
         <v>2205</v>
       </c>
-      <c r="C2" t="s" s="176">
+      <c r="C2" t="s" s="173">
         <v>2206</v>
       </c>
-      <c r="D2" t="s" s="176">
+      <c r="D2" t="s" s="173">
         <f>A2&amp;" - "&amp;B2</f>
         <v>2207</v>
       </c>
-      <c r="E2" s="177"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="178">
+      <c r="A3" t="s" s="175">
         <v>2208</v>
       </c>
-      <c r="B3" t="s" s="179">
+      <c r="B3" t="s" s="176">
         <v>2209</v>
       </c>
-      <c r="C3" t="s" s="179">
+      <c r="C3" t="s" s="176">
         <v>2210</v>
       </c>
-      <c r="D3" t="s" s="179">
+      <c r="D3" t="s" s="176">
         <f>A3&amp;" - "&amp;B3</f>
         <v>2211</v>
       </c>
-      <c r="E3" s="177"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="178">
+      <c r="A4" t="s" s="175">
         <v>2212</v>
       </c>
-      <c r="B4" t="s" s="179">
+      <c r="B4" t="s" s="176">
         <v>853</v>
       </c>
-      <c r="C4" t="s" s="179">
+      <c r="C4" t="s" s="176">
         <v>2213</v>
       </c>
-      <c r="D4" t="s" s="179">
+      <c r="D4" t="s" s="176">
         <f>A4&amp;" - "&amp;B4</f>
         <v>2214</v>
       </c>
-      <c r="E4" s="177"/>
+      <c r="E4" s="174"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="178">
+      <c r="A5" t="s" s="175">
         <v>2215</v>
       </c>
-      <c r="B5" t="s" s="179">
+      <c r="B5" t="s" s="176">
         <v>2216</v>
       </c>
-      <c r="C5" t="s" s="179">
+      <c r="C5" t="s" s="176">
         <v>2217</v>
       </c>
-      <c r="D5" t="s" s="179">
+      <c r="D5" t="s" s="176">
         <f>A5&amp;" - "&amp;B5</f>
         <v>2218</v>
       </c>
-      <c r="E5" s="177"/>
+      <c r="E5" s="174"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="178">
+      <c r="A6" t="s" s="175">
         <v>2219</v>
       </c>
-      <c r="B6" t="s" s="179">
+      <c r="B6" t="s" s="176">
         <v>2220</v>
       </c>
-      <c r="C6" t="s" s="179">
+      <c r="C6" t="s" s="176">
         <v>2221</v>
       </c>
-      <c r="D6" t="s" s="179">
+      <c r="D6" t="s" s="176">
         <f>A6&amp;" - "&amp;B6</f>
         <v>2222</v>
       </c>
-      <c r="E6" s="177"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="178">
+      <c r="A7" t="s" s="175">
         <v>2223</v>
       </c>
-      <c r="B7" t="s" s="179">
+      <c r="B7" t="s" s="176">
         <v>2224</v>
       </c>
-      <c r="C7" t="s" s="179">
+      <c r="C7" t="s" s="176">
         <v>2225</v>
       </c>
-      <c r="D7" t="s" s="179">
+      <c r="D7" t="s" s="176">
         <f>A7&amp;" - "&amp;B7</f>
         <v>2226</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="174"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="178">
+      <c r="A8" t="s" s="175">
         <v>2227</v>
       </c>
-      <c r="B8" t="s" s="179">
+      <c r="B8" t="s" s="176">
         <v>463</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" t="s" s="179">
+      <c r="C8" s="177"/>
+      <c r="D8" t="s" s="176">
         <f>A8&amp;" - "&amp;B8</f>
         <v>2228</v>
       </c>
-      <c r="E8" s="177"/>
+      <c r="E8" s="174"/>
     </row>
     <row r="9" ht="24.65" customHeight="1">
-      <c r="A9" t="s" s="178">
+      <c r="A9" t="s" s="175">
         <v>2229</v>
       </c>
-      <c r="B9" t="s" s="179">
+      <c r="B9" t="s" s="176">
         <v>2230</v>
       </c>
-      <c r="C9" t="s" s="179">
+      <c r="C9" t="s" s="176">
         <v>2231</v>
       </c>
-      <c r="D9" t="s" s="179">
+      <c r="D9" t="s" s="176">
         <f>A9&amp;" - "&amp;B9</f>
         <v>2232</v>
       </c>
-      <c r="E9" s="177"/>
+      <c r="E9" s="174"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="178">
+      <c r="A10" t="s" s="175">
         <v>2233</v>
       </c>
-      <c r="B10" t="s" s="179">
+      <c r="B10" t="s" s="176">
         <v>2234</v>
       </c>
-      <c r="C10" t="s" s="179">
+      <c r="C10" t="s" s="176">
         <v>2235</v>
       </c>
-      <c r="D10" t="s" s="179">
+      <c r="D10" t="s" s="176">
         <f>A10&amp;" - "&amp;B10</f>
         <v>2236</v>
       </c>
-      <c r="E10" s="177"/>
+      <c r="E10" s="174"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="178">
+      <c r="A11" t="s" s="175">
         <v>2237</v>
       </c>
-      <c r="B11" t="s" s="179">
+      <c r="B11" t="s" s="176">
         <v>2238</v>
       </c>
-      <c r="C11" t="s" s="179">
+      <c r="C11" t="s" s="176">
         <v>2239</v>
       </c>
-      <c r="D11" t="s" s="179">
+      <c r="D11" t="s" s="176">
         <f>A11&amp;" - "&amp;B11</f>
         <v>2240</v>
       </c>
-      <c r="E11" s="177"/>
+      <c r="E11" s="174"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="178">
+      <c r="A12" t="s" s="175">
         <v>2241</v>
       </c>
-      <c r="B12" t="s" s="179">
+      <c r="B12" t="s" s="176">
         <v>2242</v>
       </c>
-      <c r="C12" t="s" s="179">
+      <c r="C12" t="s" s="176">
         <v>2243</v>
       </c>
-      <c r="D12" t="s" s="179">
+      <c r="D12" t="s" s="176">
         <f>A12&amp;" - "&amp;B12</f>
         <v>2244</v>
       </c>
-      <c r="E12" s="177"/>
+      <c r="E12" s="174"/>
     </row>
     <row r="13" ht="24.65" customHeight="1">
-      <c r="A13" t="s" s="178">
+      <c r="A13" t="s" s="175">
         <v>2245</v>
       </c>
-      <c r="B13" t="s" s="179">
+      <c r="B13" t="s" s="176">
         <v>2246</v>
       </c>
-      <c r="C13" t="s" s="179">
+      <c r="C13" t="s" s="176">
         <v>2247</v>
       </c>
-      <c r="D13" t="s" s="179">
+      <c r="D13" t="s" s="176">
         <f>A13&amp;" - "&amp;B13</f>
         <v>2248</v>
       </c>
-      <c r="E13" s="177"/>
+      <c r="E13" s="174"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="178">
+      <c r="A14" t="s" s="175">
         <v>2249</v>
       </c>
-      <c r="B14" t="s" s="179">
+      <c r="B14" t="s" s="176">
         <v>2250</v>
       </c>
-      <c r="C14" t="s" s="179">
+      <c r="C14" t="s" s="176">
         <v>2251</v>
       </c>
-      <c r="D14" t="s" s="179">
+      <c r="D14" t="s" s="176">
         <f>A14&amp;" - "&amp;B14</f>
         <v>2252</v>
       </c>
-      <c r="E14" s="177"/>
+      <c r="E14" s="174"/>
     </row>
     <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="178">
+      <c r="A15" t="s" s="175">
         <v>2253</v>
       </c>
-      <c r="B15" t="s" s="179">
+      <c r="B15" t="s" s="176">
         <v>2254</v>
       </c>
-      <c r="C15" t="s" s="179">
+      <c r="C15" t="s" s="176">
         <v>2255</v>
       </c>
-      <c r="D15" t="s" s="179">
+      <c r="D15" t="s" s="176">
         <f>A15&amp;" - "&amp;B15</f>
         <v>2256</v>
       </c>
-      <c r="E15" s="181"/>
+      <c r="E15" s="178"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -16468,31 +16460,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.85156" style="182" customWidth="1"/>
-    <col min="2" max="2" width="28" style="182" customWidth="1"/>
-    <col min="3" max="3" width="35" style="182" customWidth="1"/>
-    <col min="4" max="5" width="20.1719" style="182" customWidth="1"/>
-    <col min="6" max="6" width="31.8516" style="182" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="182" customWidth="1"/>
+    <col min="1" max="1" width="6.85156" style="179" customWidth="1"/>
+    <col min="2" max="2" width="28" style="179" customWidth="1"/>
+    <col min="3" max="3" width="35" style="179" customWidth="1"/>
+    <col min="4" max="5" width="20.1719" style="179" customWidth="1"/>
+    <col min="6" max="6" width="31.8516" style="179" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="179" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="183">
+      <c r="A1" t="s" s="180">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="183">
+      <c r="B1" t="s" s="180">
         <v>58</v>
       </c>
-      <c r="C1" t="s" s="183">
+      <c r="C1" t="s" s="180">
         <v>60</v>
       </c>
-      <c r="D1" t="s" s="183">
+      <c r="D1" t="s" s="180">
         <v>2257</v>
       </c>
-      <c r="E1" t="s" s="183">
+      <c r="E1" t="s" s="180">
         <v>2258</v>
       </c>
-      <c r="F1" t="s" s="183">
+      <c r="F1" t="s" s="180">
         <v>61</v>
       </c>
     </row>
@@ -17163,12 +17155,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.85156" style="184" customWidth="1"/>
-    <col min="2" max="2" width="21.1719" style="184" customWidth="1"/>
-    <col min="3" max="3" width="35" style="184" customWidth="1"/>
-    <col min="4" max="4" width="20.1719" style="184" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="184" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="184" customWidth="1"/>
+    <col min="1" max="1" width="6.85156" style="181" customWidth="1"/>
+    <col min="2" max="2" width="21.1719" style="181" customWidth="1"/>
+    <col min="3" max="3" width="35" style="181" customWidth="1"/>
+    <col min="4" max="4" width="20.1719" style="181" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="181" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="181" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -17184,7 +17176,7 @@
       <c r="D1" t="s" s="166">
         <v>61</v>
       </c>
-      <c r="E1" s="168"/>
+      <c r="E1" s="171"/>
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="96">
@@ -17198,7 +17190,7 @@
         <f>A2&amp;" - "&amp;B2</f>
         <v>2366</v>
       </c>
-      <c r="E2" s="169"/>
+      <c r="E2" s="182"/>
     </row>
     <row r="3" ht="14.7" customHeight="1">
       <c r="A3" t="s" s="96">
@@ -17212,7 +17204,7 @@
         <f>A3&amp;" - "&amp;B3</f>
         <v>2367</v>
       </c>
-      <c r="E3" s="169"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" ht="26.7" customHeight="1">
       <c r="A4" t="s" s="96">
@@ -17226,7 +17218,7 @@
         <f>A4&amp;" - "&amp;B4</f>
         <v>2368</v>
       </c>
-      <c r="E4" s="169"/>
+      <c r="E4" s="182"/>
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" t="s" s="96">
@@ -17240,7 +17232,7 @@
         <f>A5&amp;" - "&amp;B5</f>
         <v>2370</v>
       </c>
-      <c r="E5" s="169"/>
+      <c r="E5" s="182"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
       <c r="A6" t="s" s="96">
@@ -17254,7 +17246,7 @@
         <f>A6&amp;" - "&amp;B6</f>
         <v>2372</v>
       </c>
-      <c r="E6" s="169"/>
+      <c r="E6" s="182"/>
     </row>
     <row r="7" ht="26.7" customHeight="1">
       <c r="A7" t="s" s="96">
@@ -17268,7 +17260,7 @@
         <f>A7&amp;" - "&amp;B7</f>
         <v>2373</v>
       </c>
-      <c r="E7" s="169"/>
+      <c r="E7" s="182"/>
     </row>
     <row r="8" ht="26.7" customHeight="1">
       <c r="A8" t="s" s="96">
@@ -17282,7 +17274,7 @@
         <f>A8&amp;" - "&amp;B8</f>
         <v>2374</v>
       </c>
-      <c r="E8" s="169"/>
+      <c r="E8" s="182"/>
     </row>
     <row r="9" ht="26.7" customHeight="1">
       <c r="A9" t="s" s="96">
@@ -17296,7 +17288,7 @@
         <f>A9&amp;" - "&amp;B9</f>
         <v>2375</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="182"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" t="s" s="96">
@@ -17310,7 +17302,7 @@
         <f>A10&amp;" - "&amp;B10</f>
         <v>2376</v>
       </c>
-      <c r="E10" s="169"/>
+      <c r="E10" s="182"/>
     </row>
     <row r="11" ht="14.7" customHeight="1">
       <c r="A11" t="s" s="96">
@@ -17324,7 +17316,7 @@
         <f>A11&amp;" - "&amp;B11</f>
         <v>2377</v>
       </c>
-      <c r="E11" s="185"/>
+      <c r="E11" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -17346,33 +17338,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="186" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="186" customWidth="1"/>
-    <col min="3" max="3" width="26.6719" style="186" customWidth="1"/>
-    <col min="4" max="4" width="20.6719" style="186" customWidth="1"/>
-    <col min="5" max="5" width="29.1719" style="186" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="186" customWidth="1"/>
+    <col min="1" max="1" width="8.35156" style="184" customWidth="1"/>
+    <col min="2" max="2" width="23.3516" style="184" customWidth="1"/>
+    <col min="3" max="3" width="26.6719" style="184" customWidth="1"/>
+    <col min="4" max="4" width="20.6719" style="184" customWidth="1"/>
+    <col min="5" max="5" width="29.1719" style="184" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="184" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
-      <c r="A1" t="s" s="187">
+      <c r="A1" t="s" s="185">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="187">
+      <c r="B1" t="s" s="185">
         <v>58</v>
       </c>
-      <c r="C1" t="s" s="187">
+      <c r="C1" t="s" s="185">
         <v>60</v>
       </c>
-      <c r="D1" t="s" s="187">
+      <c r="D1" t="s" s="185">
         <v>2378</v>
       </c>
-      <c r="E1" t="s" s="187">
+      <c r="E1" t="s" s="185">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="188">
+      <c r="A2" t="s" s="186">
         <v>2379</v>
       </c>
       <c r="B2" t="s" s="56">
@@ -17390,7 +17382,7 @@
       </c>
     </row>
     <row r="3" ht="26.05" customHeight="1">
-      <c r="A3" t="s" s="189">
+      <c r="A3" t="s" s="187">
         <v>2384</v>
       </c>
       <c r="B3" t="s" s="60">
@@ -17408,7 +17400,7 @@
       </c>
     </row>
     <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" t="s" s="189">
+      <c r="A4" t="s" s="187">
         <v>2389</v>
       </c>
       <c r="B4" t="s" s="60">
@@ -17426,7 +17418,7 @@
       </c>
     </row>
     <row r="5" ht="26.05" customHeight="1">
-      <c r="A5" t="s" s="189">
+      <c r="A5" t="s" s="187">
         <v>2393</v>
       </c>
       <c r="B5" t="s" s="60">
@@ -17444,7 +17436,7 @@
       </c>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" t="s" s="189">
+      <c r="A6" t="s" s="187">
         <v>2398</v>
       </c>
       <c r="B6" t="s" s="60">
@@ -17462,7 +17454,7 @@
       </c>
     </row>
     <row r="7" ht="26.05" customHeight="1">
-      <c r="A7" t="s" s="189">
+      <c r="A7" t="s" s="187">
         <v>2402</v>
       </c>
       <c r="B7" t="s" s="60">
@@ -17520,156 +17512,156 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="16.3516" style="190" customWidth="1"/>
-    <col min="12" max="16384" width="16.3516" style="190" customWidth="1"/>
+    <col min="1" max="11" width="16.3516" style="188" customWidth="1"/>
+    <col min="12" max="16384" width="16.3516" style="188" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="173">
+      <c r="A1" t="s" s="169">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="173">
+      <c r="B1" t="s" s="169">
         <v>2405</v>
       </c>
-      <c r="C1" t="s" s="173">
+      <c r="C1" t="s" s="169">
         <v>2406</v>
       </c>
-      <c r="D1" t="s" s="173">
+      <c r="D1" t="s" s="169">
         <v>2407</v>
       </c>
-      <c r="E1" t="s" s="173">
+      <c r="E1" t="s" s="169">
         <v>58</v>
       </c>
-      <c r="F1" t="s" s="174">
+      <c r="F1" t="s" s="170">
         <v>2408</v>
       </c>
-      <c r="G1" t="s" s="173">
+      <c r="G1" t="s" s="169">
         <v>2409</v>
       </c>
-      <c r="H1" t="s" s="173">
+      <c r="H1" t="s" s="169">
         <v>470</v>
       </c>
-      <c r="I1" t="s" s="173">
+      <c r="I1" t="s" s="169">
         <v>2410</v>
       </c>
-      <c r="J1" t="s" s="173">
+      <c r="J1" t="s" s="169">
         <v>60</v>
       </c>
-      <c r="K1" t="s" s="173">
+      <c r="K1" t="s" s="169">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="191">
+      <c r="A2" t="s" s="189">
         <v>2411</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="194"/>
-      <c r="G2" t="s" s="191">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="192"/>
+      <c r="G2" t="s" s="189">
         <v>2412</v>
       </c>
-      <c r="H2" t="s" s="191">
+      <c r="H2" t="s" s="189">
         <v>2413</v>
       </c>
-      <c r="I2" t="s" s="195">
+      <c r="I2" t="s" s="193">
         <v>2414</v>
       </c>
-      <c r="J2" s="192"/>
-      <c r="K2" t="s" s="191">
+      <c r="J2" s="190"/>
+      <c r="K2" t="s" s="189">
         <f>A2</f>
         <v>2415</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="191">
+      <c r="A3" t="s" s="189">
         <v>2416</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="194"/>
-      <c r="G3" t="s" s="191">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="192"/>
+      <c r="G3" t="s" s="189">
         <v>2417</v>
       </c>
-      <c r="H3" t="s" s="191">
+      <c r="H3" t="s" s="189">
         <v>1004</v>
       </c>
-      <c r="I3" t="s" s="195">
+      <c r="I3" t="s" s="193">
         <v>2418</v>
       </c>
-      <c r="J3" s="192"/>
-      <c r="K3" t="s" s="191">
+      <c r="J3" s="190"/>
+      <c r="K3" t="s" s="189">
         <f>A3</f>
         <v>2419</v>
       </c>
     </row>
     <row r="4" ht="200.65" customHeight="1">
-      <c r="A4" t="s" s="191">
+      <c r="A4" t="s" s="189">
         <v>2420</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="192"/>
-      <c r="F4" t="s" s="196">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="190"/>
+      <c r="F4" t="s" s="194">
         <v>2421</v>
       </c>
-      <c r="G4" t="s" s="191">
+      <c r="G4" t="s" s="189">
         <v>2417</v>
       </c>
-      <c r="H4" t="s" s="191">
+      <c r="H4" t="s" s="189">
         <v>1004</v>
       </c>
-      <c r="I4" t="s" s="195">
+      <c r="I4" t="s" s="193">
         <v>2422</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" t="s" s="191">
+      <c r="J4" s="190"/>
+      <c r="K4" t="s" s="189">
         <f>A4</f>
         <v>2423</v>
       </c>
     </row>
     <row r="5" ht="68.65" customHeight="1">
-      <c r="A5" t="s" s="191">
+      <c r="A5" t="s" s="189">
         <v>2424</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="192"/>
-      <c r="F5" t="s" s="196">
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="190"/>
+      <c r="F5" t="s" s="194">
         <v>2425</v>
       </c>
-      <c r="G5" t="s" s="191">
+      <c r="G5" t="s" s="189">
         <v>2426</v>
       </c>
-      <c r="H5" t="s" s="191">
+      <c r="H5" t="s" s="189">
         <v>803</v>
       </c>
-      <c r="I5" t="s" s="195">
+      <c r="I5" t="s" s="193">
         <v>652</v>
       </c>
-      <c r="J5" s="192"/>
-      <c r="K5" t="s" s="191">
+      <c r="J5" s="190"/>
+      <c r="K5" t="s" s="189">
         <f>A5</f>
         <v>2427</v>
       </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="170"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
+      <c r="A6" s="195"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="197"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
@@ -17762,10 +17754,10 @@
       <c r="A1" t="s" s="199">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="173">
+      <c r="B1" t="s" s="169">
         <v>2405</v>
       </c>
-      <c r="C1" t="s" s="173">
+      <c r="C1" t="s" s="169">
         <v>2428</v>
       </c>
       <c r="D1" s="200"/>
@@ -17785,17 +17777,17 @@
       <c r="A2" t="s" s="202">
         <v>2429</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" t="s" s="191">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E2" t="s" s="195">
+      <c r="E2" t="s" s="193">
         <v>2431</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="194"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="192"/>
       <c r="I2" t="s" s="203">
         <f>A2</f>
         <v>2432</v>
@@ -17805,17 +17797,17 @@
       <c r="A3" t="s" s="202">
         <v>2433</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" t="s" s="191">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E3" t="s" s="195">
+      <c r="E3" t="s" s="193">
         <v>2434</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
       <c r="I3" t="s" s="203">
         <f>A3</f>
         <v>2435</v>
@@ -17825,17 +17817,17 @@
       <c r="A4" t="s" s="202">
         <v>2436</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" t="s" s="191">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E4" t="s" s="195">
+      <c r="E4" t="s" s="193">
         <v>5</v>
       </c>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="194"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="192"/>
       <c r="I4" t="s" s="203">
         <f>A4</f>
         <v>2437</v>
@@ -17845,17 +17837,17 @@
       <c r="A5" t="s" s="202">
         <v>2438</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" t="s" s="191">
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E5" t="s" s="195">
+      <c r="E5" t="s" s="193">
         <v>2439</v>
       </c>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="194"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
       <c r="I5" t="s" s="203">
         <f>A5</f>
         <v>2440</v>
@@ -17865,17 +17857,17 @@
       <c r="A6" t="s" s="202">
         <v>2441</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" t="s" s="191">
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E6" t="s" s="195">
+      <c r="E6" t="s" s="193">
         <v>2442</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
       <c r="I6" t="s" s="203">
         <f>A6</f>
         <v>2443</v>
@@ -17885,17 +17877,17 @@
       <c r="A7" t="s" s="202">
         <v>2444</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" t="s" s="191">
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E7" t="s" s="195">
+      <c r="E7" t="s" s="193">
         <v>2445</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
       <c r="I7" t="s" s="203">
         <f>A7</f>
         <v>2446</v>
@@ -17905,17 +17897,17 @@
       <c r="A8" t="s" s="202">
         <v>2447</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" t="s" s="191">
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E8" t="s" s="195">
+      <c r="E8" t="s" s="193">
         <v>2448</v>
       </c>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
       <c r="I8" t="s" s="203">
         <f>A8</f>
         <v>2449</v>
@@ -17925,17 +17917,17 @@
       <c r="A9" t="s" s="202">
         <v>2450</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" t="s" s="191">
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E9" t="s" s="195">
+      <c r="E9" t="s" s="193">
         <v>2451</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" t="s" s="196">
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" t="s" s="194">
         <v>2452</v>
       </c>
       <c r="I9" t="s" s="203">
@@ -17947,17 +17939,17 @@
       <c r="A10" t="s" s="202">
         <v>2454</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" t="s" s="191">
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E10" t="s" s="195">
+      <c r="E10" t="s" s="193">
         <v>2455</v>
       </c>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="192"/>
       <c r="I10" t="s" s="203">
         <f>A10</f>
         <v>2456</v>
@@ -17967,17 +17959,17 @@
       <c r="A11" t="s" s="202">
         <v>2457</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" t="s" s="191">
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E11" t="s" s="195">
+      <c r="E11" t="s" s="193">
         <v>2458</v>
       </c>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" t="s" s="196">
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" t="s" s="194">
         <v>2459</v>
       </c>
       <c r="I11" t="s" s="203">
@@ -17989,17 +17981,17 @@
       <c r="A12" t="s" s="202">
         <v>2461</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" t="s" s="191">
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E12" t="s" s="195">
+      <c r="E12" t="s" s="193">
         <v>2462</v>
       </c>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" t="s" s="196">
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" t="s" s="194">
         <v>2463</v>
       </c>
       <c r="I12" t="s" s="203">
@@ -18011,17 +18003,17 @@
       <c r="A13" t="s" s="202">
         <v>2465</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" t="s" s="191">
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E13" t="s" s="195">
+      <c r="E13" t="s" s="193">
         <v>2466</v>
       </c>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="192"/>
       <c r="I13" t="s" s="203">
         <f>A13</f>
         <v>2467</v>
@@ -18031,17 +18023,17 @@
       <c r="A14" t="s" s="202">
         <v>2468</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" t="s" s="191">
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" t="s" s="189">
         <v>2430</v>
       </c>
-      <c r="E14" t="s" s="195">
+      <c r="E14" t="s" s="193">
         <v>2469</v>
       </c>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="192"/>
       <c r="I14" t="s" s="203">
         <f>A14</f>
         <v>2470</v>
@@ -18051,13 +18043,13 @@
       <c r="A15" t="s" s="202">
         <v>2471</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="192"/>
       <c r="I15" t="s" s="203">
         <f>A15</f>
         <v>2472</v>
@@ -18067,15 +18059,15 @@
       <c r="A16" t="s" s="202">
         <v>2473</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="191"/>
       <c r="E16" t="s" s="120">
         <v>2474</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="192"/>
       <c r="I16" t="s" s="203">
         <f>A16</f>
         <v>2475</v>
@@ -18085,15 +18077,15 @@
       <c r="A17" t="s" s="202">
         <v>2476</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
-      <c r="E17" t="s" s="195">
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" t="s" s="193">
         <v>2477</v>
       </c>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="192"/>
       <c r="I17" t="s" s="203">
         <f>A17</f>
         <v>2478</v>
@@ -18103,17 +18095,17 @@
       <c r="A18" t="s" s="202">
         <v>2479</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" t="s" s="191">
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" t="s" s="189">
         <v>2480</v>
       </c>
-      <c r="E18" t="s" s="195">
+      <c r="E18" t="s" s="193">
         <v>2481</v>
       </c>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="192"/>
       <c r="I18" t="s" s="203">
         <f>A18</f>
         <v>2482</v>
@@ -18123,17 +18115,17 @@
       <c r="A19" t="s" s="202">
         <v>2483</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" t="s" s="191">
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" t="s" s="189">
         <v>2480</v>
       </c>
       <c r="E19" t="s" s="120">
         <v>2484</v>
       </c>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="194"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="192"/>
       <c r="I19" t="s" s="203">
         <f>A19</f>
         <v>2485</v>
@@ -18143,13 +18135,13 @@
       <c r="A20" t="s" s="202">
         <v>2486</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="194"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="192"/>
       <c r="I20" t="s" s="203">
         <f>A20</f>
         <v>2487</v>
@@ -18159,17 +18151,17 @@
       <c r="A21" t="s" s="202">
         <v>2488</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" t="s" s="191">
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" t="s" s="189">
         <v>2489</v>
       </c>
-      <c r="E21" t="s" s="195">
+      <c r="E21" t="s" s="193">
         <v>2490</v>
       </c>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="194"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="192"/>
       <c r="I21" t="s" s="203">
         <f>A21</f>
         <v>2491</v>
@@ -18179,17 +18171,17 @@
       <c r="A22" t="s" s="202">
         <v>2492</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" t="s" s="191">
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" t="s" s="189">
         <v>2489</v>
       </c>
-      <c r="E22" t="s" s="195">
+      <c r="E22" t="s" s="193">
         <v>2493</v>
       </c>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="194"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="192"/>
       <c r="I22" t="s" s="203">
         <f>A22</f>
         <v>2494</v>
@@ -18199,13 +18191,13 @@
       <c r="A23" t="s" s="202">
         <v>2495</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="194"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="192"/>
       <c r="I23" t="s" s="203">
         <f>A23</f>
         <v>2496</v>
@@ -18215,13 +18207,13 @@
       <c r="A24" t="s" s="202">
         <v>2497</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="194"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="192"/>
       <c r="I24" t="s" s="203">
         <f>A24</f>
         <v>2498</v>
@@ -18231,13 +18223,13 @@
       <c r="A25" t="s" s="202">
         <v>2499</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="194"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="192"/>
       <c r="I25" t="s" s="203">
         <f>A25</f>
         <v>2500</v>
@@ -18247,17 +18239,17 @@
       <c r="A26" t="s" s="202">
         <v>2501</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" t="s" s="191">
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" t="s" s="189">
         <v>2502</v>
       </c>
-      <c r="E26" t="s" s="195">
+      <c r="E26" t="s" s="193">
         <v>2503</v>
       </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="194"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="192"/>
       <c r="I26" t="s" s="203">
         <f>A26</f>
         <v>2504</v>
@@ -18267,13 +18259,13 @@
       <c r="A27" t="s" s="202">
         <v>2505</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="194"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="192"/>
       <c r="I27" t="s" s="203">
         <f>A27</f>
         <v>2506</v>
@@ -18283,13 +18275,13 @@
       <c r="A28" t="s" s="202">
         <v>2507</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="192"/>
       <c r="I28" t="s" s="203">
         <f>A28</f>
         <v>2508</v>
@@ -18299,13 +18291,13 @@
       <c r="A29" t="s" s="202">
         <v>2509</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="192"/>
       <c r="I29" t="s" s="203">
         <f>A29</f>
         <v>2510</v>
@@ -18315,13 +18307,13 @@
       <c r="A30" t="s" s="202">
         <v>2511</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="192"/>
       <c r="I30" t="s" s="203">
         <f>A30</f>
         <v>2512</v>
@@ -18331,15 +18323,15 @@
       <c r="A31" t="s" s="202">
         <v>2513</v>
       </c>
-      <c r="B31" s="192"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="193"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="191"/>
       <c r="E31" t="s" s="120">
         <v>2514</v>
       </c>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="194"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="192"/>
       <c r="I31" t="s" s="203">
         <f>A31</f>
         <v>2515</v>
@@ -18349,13 +18341,13 @@
       <c r="A32" t="s" s="202">
         <v>2516</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="194"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="192"/>
       <c r="I32" t="s" s="203">
         <f>A32</f>
         <v>2517</v>
@@ -18365,17 +18357,17 @@
       <c r="A33" t="s" s="202">
         <v>2518</v>
       </c>
-      <c r="B33" s="192"/>
-      <c r="C33" s="192"/>
-      <c r="D33" t="s" s="191">
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" t="s" s="189">
         <v>2519</v>
       </c>
-      <c r="E33" t="s" s="195">
+      <c r="E33" t="s" s="193">
         <v>2520</v>
       </c>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="194"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="192"/>
       <c r="I33" t="s" s="203">
         <f>A33</f>
         <v>2521</v>
@@ -18385,17 +18377,17 @@
       <c r="A34" t="s" s="202">
         <v>2522</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="192"/>
-      <c r="D34" t="s" s="191">
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" t="s" s="189">
         <v>2519</v>
       </c>
-      <c r="E34" t="s" s="195">
+      <c r="E34" t="s" s="193">
         <v>2523</v>
       </c>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="194"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="192"/>
       <c r="I34" t="s" s="203">
         <f>A34</f>
         <v>2524</v>
@@ -18405,17 +18397,17 @@
       <c r="A35" t="s" s="202">
         <v>2525</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="192"/>
-      <c r="D35" t="s" s="191">
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" t="s" s="189">
         <v>2519</v>
       </c>
-      <c r="E35" t="s" s="195">
+      <c r="E35" t="s" s="193">
         <v>2526</v>
       </c>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="194"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="192"/>
       <c r="I35" t="s" s="203">
         <f>A35</f>
         <v>2527</v>
@@ -23688,9 +23680,7 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -23702,7 +23692,7 @@
     <col min="6" max="6" width="29.8516" style="112" customWidth="1"/>
     <col min="7" max="7" width="32" style="112" customWidth="1"/>
     <col min="8" max="13" width="16.3516" style="112" customWidth="1"/>
-    <col min="14" max="14" width="36.4141" style="112" customWidth="1"/>
+    <col min="14" max="14" width="36.5" style="112" customWidth="1"/>
     <col min="15" max="15" width="16.3516" style="112" customWidth="1"/>
     <col min="16" max="16384" width="16.3516" style="112" customWidth="1"/>
   </cols>
@@ -29666,7 +29656,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E148" r:id="rId1" location="" tooltip="" display="https://haveibeenpwned.com"/>
+    <hyperlink ref="E148" r:id="rId1" location="" tooltip="" display="Playbook 1: Create a standard reporting format and method for social platforms for reporting false accounts. &#10;Playbook 2: &#10;- Is the account compromised? &#10;- Is it known to be associated with threat actors &#10;- common/random name &#10;- Names violate terms of service &#10;- Dormant account &#10;- Change of country IP&#10;- Social network growth patterns (number of friends etc) &#10;- Evidence of linguistic artifacts (multiple fingerprints, terms/idiosyncrasies )&#10;- Community vs. narrative vs. individuals &#10;Playbook 3: Report suspected bots. &#10;- Report ToS violations. &#10;-  In all playbooks the platform must force user verification, credential reset and enable MFA. Suspend the account if it cannot be verified.&#10;Playbook 1: Use sites like https://haveibeenpwned.com to detect compromised and at risk user accounts. &#10;Playbook 2: Monitor for unusual account usage (use of VPN, new geographic location, unusual usage hours, etc). &#10;Playbook 3: Detect sudden deviation in user sentiment such as suddenly dropping hashtags linked to extremist content.&#10;Playbook 4: Purchase &quot;likes&quot;, &quot;retweets&quot; and other vehicles which identify a bot and/or hijacked account. Ban the account.&#10;Playbook 5: Detect hijacked account and spam their posts. &quot;OP is a known disinformation bot. http://link.to.proof[.]com&quot;"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="2064">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3959,6 +3959,14 @@
     <t xml:space="preserve">A006 - educator,A021 - media organisation</t>
   </si>
   <si>
+    <t xml:space="preserve">T0039 - Bait legitimate inffluencers
+T0010 - Cultivate ignorant agents
+T0048 - Cow online opinion leaders
+T0045 - Use fake experts
+T0044 - Seed distortions
+T0045 - Use fake experts</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00159</t>
   </si>
   <si>
@@ -3980,13 +3988,25 @@
     <t xml:space="preserve">A001 - data scientist,A016 - influencer</t>
   </si>
   <si>
+    <t xml:space="preserve">T0039 - Bait legitimate inffluencers
+T0010 - Cultivate ignorant agents
+T0048 - Cow online opinion leaders</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00161</t>
   </si>
   <si>
-    <t xml:space="preserve">Coalition Building and Third-Party Inducements:</t>
+    <t xml:space="preserve">Coalition Building with stakeholders and Third-Party Inducements</t>
   </si>
   <si>
     <t xml:space="preserve">Advance coalitions across borders and sectors, spanning public and private, as well as foreign and domestic, divides. Improve mechanisms to collaborate, share information, and develop coordinated approaches with the private sector at home and allies and partners abroad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0022 - Conspiracy narratives
+T0027 - Adapt existing narratives
+T0002 - Facilitate State Propaganda
+T0003 - Leverage existing narratives
+T0004 - Competing narratives</t>
   </si>
   <si>
     <t xml:space="preserve">C00162</t>
@@ -3999,7 +4019,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">collect data/map constellations of Russian“civil society”. Unravel/target the </t>
+      <t xml:space="preserve">Unravel/target the </t>
     </r>
     <r>
       <rPr>
@@ -4016,6 +4036,18 @@
     <t xml:space="preserve">Kremlin’s narrative spin extends through constellations of “civil society” organizations, political parties, churches, and other actors. Moscow leverages think tanks, human rights groups, election observers, Eurasianist integration groups, and orthodox groups. A collection of Russian civil society organizations, such as the Federal Agency for the Commonwealth of Independent States Affairs, Compatriots Living Abroad, and International Humanitarian Cooperation, together receive at least US$100 million per year, in addition to government-organized nongovernmental organizations (NGOs), at least 150 of which are funded by Russian presidential grants totaling US$70 million per year.</t>
   </si>
   <si>
+    <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0022 - Conspiracy narratives
+T0027 - Adapt existing narratives
+T0002 - Facilitate State Propaganda
+T0003 - Leverage existing narratives
+T0004 - Competing narratives
+T0039 - Bait legitimate inffluencers
+T0052 - Tertiary sites amplify news
+T0056 - Dedicated channels disseminnate information pollution
+T0050 - Cheerleading domemstic social media ops</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00164</t>
   </si>
   <si>
@@ -4023,6 +4055,14 @@
   </si>
   <si>
     <t xml:space="preserve">protect the interests of this population and, more importantly, influence the population to support pro-Russia causes and effectively influence the politics of its neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0022 - Conspiracy narratives
+T0027 - Adapt existing narratives
+T0002 - Facilitate State Propaganda
+T0003 - Leverage existing narratives
+T0004 - Competing narratives
+</t>
   </si>
   <si>
     <t xml:space="preserve">C00165</t>
@@ -7078,16 +7118,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -7510,7 +7550,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8125,10 +8165,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8136,10 +8176,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8151,10 +8191,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8166,25 +8206,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8196,10 +8236,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8211,10 +8251,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8226,13 +8266,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8241,13 +8281,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8256,13 +8296,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8271,13 +8311,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8286,13 +8326,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8301,13 +8341,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8316,28 +8356,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8346,28 +8386,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8376,13 +8416,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8391,13 +8431,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8406,13 +8446,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8421,13 +8461,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8436,28 +8476,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8466,13 +8506,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8481,28 +8521,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8511,13 +8551,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8526,13 +8566,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8541,13 +8581,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8556,28 +8596,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8586,13 +8626,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8601,13 +8641,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -8616,13 +8656,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -8631,13 +8671,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -8646,13 +8686,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -8661,13 +8701,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -8676,28 +8716,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -8706,13 +8746,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -8721,13 +8761,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -8736,13 +8776,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -8751,13 +8791,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -8766,13 +8806,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -8781,13 +8821,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -8796,13 +8836,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -8811,13 +8851,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -8826,13 +8866,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -8841,13 +8881,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -8856,13 +8896,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -8871,13 +8911,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -8886,28 +8926,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -8916,28 +8956,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -8946,13 +8986,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -8961,13 +9001,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -8976,13 +9016,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -8991,13 +9031,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9006,10 +9046,10 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>1115</v>
@@ -9021,10 +9061,10 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>1115</v>
@@ -9036,10 +9076,10 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>1115</v>
@@ -9051,10 +9091,10 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>1115</v>
@@ -9066,13 +9106,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9081,13 +9121,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9096,13 +9136,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9111,28 +9151,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9141,13 +9181,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9156,13 +9196,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9171,28 +9211,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9201,13 +9241,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9216,13 +9256,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9231,13 +9271,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9246,13 +9286,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9261,43 +9301,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9306,13 +9346,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9321,13 +9361,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9336,13 +9376,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9351,13 +9391,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9366,13 +9406,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9381,28 +9421,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9411,13 +9451,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9426,13 +9466,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9441,13 +9481,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9456,13 +9496,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9471,13 +9511,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9486,13 +9526,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9501,13 +9541,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9516,13 +9556,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9531,13 +9571,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9546,43 +9586,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9591,13 +9631,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9606,13 +9646,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -9621,13 +9661,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -9636,13 +9676,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -9651,13 +9691,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -9666,13 +9706,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -9681,13 +9721,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1739</v>
+        <v>1744</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -9696,13 +9736,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -9711,13 +9751,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -9726,13 +9766,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -9741,13 +9781,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -9756,13 +9796,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -9771,28 +9811,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -9801,13 +9841,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -9816,13 +9856,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -9831,28 +9871,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -9861,13 +9901,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -9876,28 +9916,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -9906,13 +9946,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -9921,13 +9961,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -9936,28 +9976,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -9966,13 +10006,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -9981,13 +10021,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -9996,28 +10036,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10026,28 +10066,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10056,13 +10096,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10071,13 +10111,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10086,13 +10126,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10101,28 +10141,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10131,13 +10171,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10146,13 +10186,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10161,13 +10201,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10176,13 +10216,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10191,13 +10231,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10206,28 +10246,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10236,13 +10276,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10251,13 +10291,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10266,13 +10306,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10281,13 +10321,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1793</v>
+        <v>1798</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10296,28 +10336,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10326,13 +10366,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10341,13 +10381,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1799</v>
+        <v>1804</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10356,16 +10396,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10423,13 +10463,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10439,13 +10479,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10455,13 +10495,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10471,13 +10511,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10487,13 +10527,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10503,13 +10543,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10519,13 +10559,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10595,13 +10635,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="D2" s="74" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10611,13 +10651,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="D3" s="74" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10627,13 +10667,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="D4" s="74" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10643,13 +10683,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="D5" s="74" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10659,13 +10699,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="73" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="D6" s="74" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10675,13 +10715,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="73" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="D7" s="74" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10691,7 +10731,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="73" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>400</v>
@@ -10705,13 +10745,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="73" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>1842</v>
+        <v>1847</v>
       </c>
       <c r="D9" s="74" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -10721,13 +10761,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="73" t="s">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="D10" s="74" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -10737,13 +10777,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="73" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="D11" s="74" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -10753,13 +10793,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="73" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>1850</v>
+        <v>1855</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>1851</v>
+        <v>1856</v>
       </c>
       <c r="D12" s="74" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -10769,13 +10809,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="73" t="s">
-        <v>1852</v>
+        <v>1857</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>1853</v>
+        <v>1858</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="D13" s="74" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -10785,13 +10825,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="73" t="s">
-        <v>1855</v>
+        <v>1860</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="D14" s="74" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -10801,13 +10841,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="73" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="D15" s="74" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -10858,10 +10898,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>61</v>
@@ -10869,19 +10909,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10890,19 +10930,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1868</v>
+        <v>1873</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10911,19 +10951,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10932,17 +10972,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10951,17 +10991,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1877</v>
+        <v>1882</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10970,17 +11010,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10989,19 +11029,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>1881</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>1876</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11010,17 +11050,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11029,17 +11069,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11048,17 +11088,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11067,17 +11107,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1890</v>
+        <v>1895</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11086,19 +11126,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1893</v>
+        <v>1898</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11107,17 +11147,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11126,17 +11166,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11145,17 +11185,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11164,17 +11204,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11183,19 +11223,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11204,19 +11244,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11225,17 +11265,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11244,17 +11284,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11263,17 +11303,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11282,17 +11322,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11301,17 +11341,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11320,17 +11360,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11339,19 +11379,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="C26" s="24" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>1928</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>1923</v>
-      </c>
       <c r="E26" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11360,17 +11400,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11379,17 +11419,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1932</v>
+        <v>1937</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11398,17 +11438,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11417,17 +11457,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11436,17 +11476,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1938</v>
+        <v>1943</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11455,19 +11495,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>1940</v>
+        <v>1945</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1941</v>
+        <v>1946</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11476,17 +11516,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1943</v>
+        <v>1948</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11495,19 +11535,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1946</v>
+        <v>1951</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1947</v>
+        <v>1952</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11562,10 +11602,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1948</v>
+        <v>1953</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11576,10 +11616,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11590,10 +11630,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11604,10 +11644,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1949</v>
+        <v>1954</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -11618,10 +11658,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1877</v>
+        <v>1882</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -11632,10 +11672,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -11646,10 +11686,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -11660,10 +11700,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -11674,10 +11714,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -11688,10 +11728,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -11743,7 +11783,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1951</v>
+        <v>1956</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>61</v>
@@ -11751,16 +11791,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11769,16 +11809,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11787,16 +11827,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11805,16 +11845,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11823,16 +11863,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11841,16 +11881,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11910,28 +11950,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="H1" s="71" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>1979</v>
+        <v>1984</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>60</v>
@@ -11942,7 +11982,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -11950,13 +11990,13 @@
       <c r="E2" s="76"/>
       <c r="F2" s="75"/>
       <c r="G2" s="73" t="s">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="J2" s="76"/>
       <c r="K2" s="73" t="str">
@@ -11966,7 +12006,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -11974,13 +12014,13 @@
       <c r="E3" s="76"/>
       <c r="F3" s="75"/>
       <c r="G3" s="73" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="J3" s="76"/>
       <c r="K3" s="73" t="str">
@@ -11990,23 +12030,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="76"/>
       <c r="F4" s="74" t="s">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="73" t="str">
@@ -12016,17 +12056,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="77"/>
       <c r="E5" s="76"/>
       <c r="F5" s="74" t="s">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="H5" s="73" t="s">
         <v>661</v>
@@ -12148,10 +12188,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="D1" s="80"/>
       <c r="E1" s="79" t="s">
@@ -12168,15 +12208,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="82" t="s">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -12188,15 +12228,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="82" t="s">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
@@ -12208,12 +12248,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="78" t="s">
         <v>5</v>
@@ -12228,15 +12268,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -12248,15 +12288,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -12268,15 +12308,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -12288,15 +12328,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -12308,20 +12348,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="H9" s="74" t="s">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="I9" s="82" t="str">
         <f aca="false">A9</f>
@@ -12330,15 +12370,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="82" t="s">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
@@ -12350,20 +12390,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="82" t="s">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
       <c r="D11" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="H11" s="74" t="s">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="I11" s="82" t="str">
         <f aca="false">A11</f>
@@ -12372,20 +12412,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
       <c r="D12" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="74" t="s">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="I12" s="82" t="str">
         <f aca="false">A12</f>
@@ -12394,15 +12434,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
       <c r="D13" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -12414,15 +12454,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
       <c r="D14" s="73" t="s">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -12434,7 +12474,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
@@ -12450,13 +12490,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="82" t="s">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="77"/>
       <c r="E16" s="57" t="s">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -12468,13 +12508,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="82" t="s">
-        <v>2026</v>
+        <v>2031</v>
       </c>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="78" t="s">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -12486,15 +12526,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="82" t="s">
-        <v>2028</v>
+        <v>2033</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="73" t="s">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
@@ -12506,15 +12546,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>2031</v>
+        <v>2036</v>
       </c>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="73" t="s">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
@@ -12526,7 +12566,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="82" t="s">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -12542,15 +12582,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="73" t="s">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
@@ -12562,15 +12602,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="73" t="s">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
@@ -12582,7 +12622,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="82" t="s">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
@@ -12598,7 +12638,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
@@ -12614,7 +12654,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -12630,15 +12670,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>2042</v>
+        <v>2047</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
       <c r="D26" s="73" t="s">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -12650,7 +12690,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -12666,7 +12706,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -12682,7 +12722,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
@@ -12698,7 +12738,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -12714,13 +12754,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>2049</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="77"/>
       <c r="E31" s="57" t="s">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
@@ -12732,7 +12772,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="82" t="s">
-        <v>2051</v>
+        <v>2056</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -12748,15 +12788,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>2052</v>
+        <v>2057</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="73" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>2054</v>
+        <v>2059</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -12768,15 +12808,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="73" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>2056</v>
+        <v>2061</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
@@ -12788,15 +12828,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>2057</v>
+        <v>2062</v>
       </c>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
       <c r="D35" s="73" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -18813,8 +18853,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B122" activeCellId="0" sqref="B122"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K116" activeCellId="0" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22992,13 +23032,15 @@
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="56" t="s">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="L116" s="56" t="s">
         <v>721</v>
       </c>
       <c r="M116" s="20"/>
-      <c r="N116" s="58"/>
+      <c r="N116" s="65" t="s">
+        <v>1127</v>
+      </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
         <v>C00158 - Use training to build the resilience of at-risk populations.</v>
@@ -23006,16 +23048,16 @@
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23042,20 +23084,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23072,7 +23114,9 @@
         <v>713</v>
       </c>
       <c r="M118" s="20"/>
-      <c r="N118" s="58"/>
+      <c r="N118" s="65" t="s">
+        <v>1135</v>
+      </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
         <v>C00160 - find and train influencers</v>
@@ -23080,16 +23124,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23108,24 +23152,26 @@
         <v>786</v>
       </c>
       <c r="M119" s="20"/>
-      <c r="N119" s="58"/>
+      <c r="N119" s="65" t="s">
+        <v>1139</v>
+      </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
-        <v>C00161 - Coalition Building and Third-Party Inducements:</v>
+        <v>C00161 - Coalition Building with stakeholders and Third-Party Inducements</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23144,24 +23190,26 @@
         <v>668</v>
       </c>
       <c r="M120" s="20"/>
-      <c r="N120" s="58"/>
+      <c r="N120" s="65" t="s">
+        <v>1143</v>
+      </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
-        <v>C00162 - collect data/map constellations of Russian“civil society”. Unravel/target the Potemkin villages</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>C00162 - Unravel/target the Potemkin villages</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23180,7 +23228,9 @@
         <v>668</v>
       </c>
       <c r="M121" s="20"/>
-      <c r="N121" s="58"/>
+      <c r="N121" s="65" t="s">
+        <v>1147</v>
+      </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
         <v>C00164 - compatriot policy</v>
@@ -23188,16 +23238,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23207,7 +23257,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23217,7 +23267,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23226,16 +23276,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23262,16 +23312,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23291,7 +23341,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="65" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23300,16 +23350,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23336,16 +23386,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23357,7 +23407,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23374,16 +23424,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23395,7 +23445,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23405,7 +23455,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23414,19 +23464,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23436,7 +23486,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="64" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23447,7 +23497,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23456,16 +23506,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23485,7 +23535,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23494,16 +23544,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23523,7 +23573,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23532,16 +23582,16 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
@@ -23563,7 +23613,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23572,10 +23622,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -23589,7 +23639,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -23599,7 +23649,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -23608,20 +23658,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -23639,7 +23689,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -23648,16 +23698,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -23673,11 +23723,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -23686,16 +23736,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -23717,7 +23767,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -23726,22 +23776,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -23766,16 +23816,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -23802,16 +23852,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -23831,7 +23881,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -23840,20 +23890,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -23871,7 +23921,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -23880,28 +23930,28 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
@@ -23915,7 +23965,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -23924,20 +23974,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -23945,7 +23995,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -23955,7 +24005,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -23964,16 +24014,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -23983,7 +24033,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -23993,7 +24043,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24002,10 +24052,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24013,7 +24063,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24031,7 +24081,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24040,16 +24090,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24071,7 +24121,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24080,20 +24130,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24111,7 +24161,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24120,20 +24170,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24141,7 +24191,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24158,10 +24208,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24185,7 +24235,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24194,20 +24244,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24225,7 +24275,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24234,16 +24284,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24263,7 +24313,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24272,10 +24322,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24299,7 +24349,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24308,16 +24358,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24337,7 +24387,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24346,10 +24396,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24373,7 +24423,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24382,19 +24432,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24411,7 +24461,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24420,10 +24470,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24433,7 +24483,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24452,22 +24502,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24486,10 +24536,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24516,10 +24566,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -24607,31 +24657,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -24639,32 +24689,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -24677,29 +24727,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -24709,32 +24759,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -24747,29 +24797,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -24779,32 +24829,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -24814,32 +24864,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -24849,32 +24899,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -24884,32 +24934,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -24919,34 +24969,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -24956,34 +25006,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -24993,32 +25043,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25028,32 +25078,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25063,32 +25113,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25098,32 +25148,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25133,32 +25183,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25168,30 +25218,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25201,35 +25251,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25238,10 +25288,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25251,20 +25301,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25273,37 +25323,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25312,33 +25362,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25347,33 +25397,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25385,32 +25435,32 @@
         <v>1115</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25419,35 +25469,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25456,33 +25506,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25491,35 +25541,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25528,33 +25578,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25563,33 +25613,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -25598,33 +25648,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -25633,37 +25683,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -25672,33 +25722,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -25707,33 +25757,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -25742,35 +25792,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -25779,37 +25829,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -25818,35 +25868,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -25855,35 +25905,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -25892,33 +25942,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -25927,33 +25977,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -25962,33 +26012,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -25997,35 +26047,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26034,33 +26084,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26069,33 +26119,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26104,37 +26154,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26143,35 +26193,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26180,33 +26230,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26215,34 +26265,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26252,32 +26302,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="I47" s="24" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J47" s="24" t="s">
         <v>1497</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>1492</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26287,32 +26337,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26322,30 +26372,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26355,32 +26405,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26390,32 +26440,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26425,34 +26475,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26462,32 +26512,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26497,34 +26547,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26534,32 +26584,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26569,30 +26619,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -26602,34 +26652,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -26639,30 +26689,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -26672,30 +26722,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -26705,32 +26755,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -26740,32 +26790,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -26775,30 +26825,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -26808,32 +26858,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -26843,32 +26893,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="2067">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3926,6 +3926,11 @@
     <t xml:space="preserve">I00022</t>
   </si>
   <si>
+    <t xml:space="preserve">T0039 - Bait legitimate inffluencers
+T0048 - Cow online opinion leaders
+T0045 - Use fake experts</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00155</t>
   </si>
   <si>
@@ -3935,10 +3940,14 @@
     <t xml:space="preserve">A025 - funding site admin</t>
   </si>
   <si>
+    <t xml:space="preserve">T0014 - Create funding campaign
+T0017 – Promote online funding</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00156</t>
   </si>
   <si>
-    <t xml:space="preserve">Better tell the U.S., NATO, and EU story.</t>
+    <t xml:space="preserve">Better tell your country or organization story</t>
   </si>
   <si>
     <t xml:space="preserve">Civil engagement activities conducted on the part of EFP forces. In Latvia, for example, U.S. soldiers have reportedly conducted numerous civil engagements with the local populations. In one example, soldiers cut firewood for local Russian-speaking Latvians. Locals were reportedly overheard saying, “A Russian soldier wouldn’t do that.” NATO should likewise provide support and training, where needed, to local public affairs and other communication personnel. Local government and military public affairs personnel can play their part in creating and disseminating entertaining and sharable content that supports the EFP mission. </t>
@@ -3947,10 +3956,18 @@
     <t xml:space="preserve">A018 - government,A019 - military</t>
   </si>
   <si>
+    <t xml:space="preserve">T0022 - Conspiracy narratives
+T0027 - Adapt existing narratives
+T0002 - Facilitate State Propaganda
+T0003 - Leverage existing narratives
+T0004 - Competing narratives
+T0010 - Cultivate ignorant agents</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00158</t>
   </si>
   <si>
-    <t xml:space="preserve">Use training to build the resilience of at-risk populations.</t>
+    <t xml:space="preserve">Use training to build the resilience of at-risk populations</t>
   </si>
   <si>
     <t xml:space="preserve">NGO Baltic Centre for Media Excellence, with some international funding, provides training to journalists in the Baltics and conducts media literacy training in the region. In addition to helping journalists avoid becoming “unwitting multipliers of misleading information,” the organization works with school teachers in the region to help them “decode media and incorporate media research into teaching.” concepts of media literacy to a mass audience that authorities launch a public information campaign that teaches the program will take time to develop and establish impact, recommends curriculum-based training</t>
@@ -8165,10 +8182,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8176,10 +8193,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8191,10 +8208,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8206,25 +8223,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8236,10 +8253,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8251,10 +8268,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8266,13 +8283,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8281,13 +8298,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8296,13 +8313,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8311,13 +8328,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8326,13 +8343,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8341,13 +8358,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8356,28 +8373,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8386,28 +8403,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8416,13 +8433,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8431,13 +8448,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8446,13 +8463,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8461,13 +8478,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8476,28 +8493,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8506,13 +8523,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8521,28 +8538,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8551,13 +8568,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8566,13 +8583,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8581,13 +8598,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8596,28 +8613,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8626,13 +8643,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8641,13 +8658,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -8656,13 +8673,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -8671,13 +8688,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -8686,13 +8703,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -8701,13 +8718,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -8716,28 +8733,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -8746,13 +8763,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -8761,13 +8778,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -8776,13 +8793,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -8791,13 +8808,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -8806,13 +8823,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -8821,13 +8838,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -8836,13 +8853,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -8851,13 +8868,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -8866,13 +8883,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -8881,13 +8898,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -8896,13 +8913,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -8911,13 +8928,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -8926,28 +8943,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -8956,28 +8973,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -8986,13 +9003,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -9001,13 +9018,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -9016,13 +9033,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -9031,13 +9048,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9046,10 +9063,10 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>1115</v>
@@ -9061,10 +9078,10 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>1115</v>
@@ -9076,10 +9093,10 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>1115</v>
@@ -9091,10 +9108,10 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>1115</v>
@@ -9106,13 +9123,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9121,13 +9138,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9136,13 +9153,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9151,28 +9168,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9181,13 +9198,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9196,13 +9213,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9211,28 +9228,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9241,13 +9258,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9256,13 +9273,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9271,13 +9288,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9286,13 +9303,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9301,43 +9318,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9346,13 +9363,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9361,13 +9378,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9376,13 +9393,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9391,13 +9408,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9406,13 +9423,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9421,28 +9438,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9451,13 +9468,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9466,13 +9483,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9481,13 +9498,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9496,13 +9513,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9511,13 +9528,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9526,13 +9543,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9541,13 +9558,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9556,13 +9573,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9571,13 +9588,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9586,43 +9603,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9631,13 +9648,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9646,13 +9663,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -9661,13 +9678,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -9676,13 +9693,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -9691,13 +9708,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -9706,13 +9723,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -9721,13 +9738,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -9736,13 +9753,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -9751,13 +9768,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -9766,13 +9783,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -9781,13 +9798,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -9796,13 +9813,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -9811,28 +9828,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -9841,13 +9858,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -9856,13 +9873,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -9871,28 +9888,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -9901,13 +9918,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -9916,28 +9933,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -9946,13 +9963,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -9961,13 +9978,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -9976,28 +9993,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -10006,13 +10023,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -10021,13 +10038,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -10036,28 +10053,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10066,28 +10083,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10096,13 +10113,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10111,13 +10128,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10126,13 +10143,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10141,28 +10158,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10171,13 +10188,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10186,13 +10203,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10201,13 +10218,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10216,13 +10233,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10231,13 +10248,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10246,28 +10263,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10276,13 +10293,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10291,13 +10308,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10306,13 +10323,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10321,13 +10338,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10336,28 +10353,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10366,13 +10383,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10381,13 +10398,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10396,16 +10413,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10463,13 +10480,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10479,13 +10496,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10495,13 +10512,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10511,13 +10528,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10527,13 +10544,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10543,13 +10560,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10559,13 +10576,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10635,13 +10652,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="D2" s="74" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10651,13 +10668,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="D3" s="74" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10667,13 +10684,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D4" s="74" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10683,13 +10700,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="D5" s="74" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10699,13 +10716,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="73" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D6" s="74" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10715,13 +10732,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="73" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D7" s="74" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10731,7 +10748,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="73" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>400</v>
@@ -10745,13 +10762,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="73" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="D9" s="74" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -10761,13 +10778,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="73" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="D10" s="74" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -10777,13 +10794,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="73" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="74" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -10793,13 +10810,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="73" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="D12" s="74" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -10809,13 +10826,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="73" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="D13" s="74" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -10825,13 +10842,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="73" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D14" s="74" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -10841,13 +10858,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="73" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D15" s="74" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -10898,10 +10915,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>61</v>
@@ -10909,19 +10926,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10930,19 +10947,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10951,19 +10968,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10972,17 +10989,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10991,17 +11008,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11010,17 +11027,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11029,19 +11046,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11050,17 +11067,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11069,17 +11086,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11088,17 +11105,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11107,17 +11124,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11126,19 +11143,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11147,17 +11164,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11166,17 +11183,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11185,17 +11202,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11204,17 +11221,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11223,19 +11240,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11244,19 +11261,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1915</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>1912</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11265,17 +11282,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11284,17 +11301,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11303,17 +11320,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11322,17 +11339,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11341,17 +11358,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11360,17 +11377,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11379,19 +11396,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>1931</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>1928</v>
-      </c>
       <c r="E26" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11400,17 +11417,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11419,17 +11436,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11438,17 +11455,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11457,17 +11474,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11476,17 +11493,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11495,19 +11512,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="C32" s="24" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>1947</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>1944</v>
-      </c>
       <c r="E32" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11516,17 +11533,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11535,19 +11552,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11602,10 +11619,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11616,10 +11633,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11630,10 +11647,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11644,10 +11661,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -11658,10 +11675,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -11672,10 +11689,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -11686,10 +11703,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -11700,10 +11717,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -11714,10 +11731,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -11728,10 +11745,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -11783,7 +11800,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>61</v>
@@ -11791,16 +11808,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11809,16 +11826,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11827,16 +11844,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>1967</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>1964</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11845,16 +11862,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11863,16 +11880,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11881,16 +11898,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11950,28 +11967,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="H1" s="71" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>60</v>
@@ -11982,7 +11999,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -11990,13 +12007,13 @@
       <c r="E2" s="76"/>
       <c r="F2" s="75"/>
       <c r="G2" s="73" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="J2" s="76"/>
       <c r="K2" s="73" t="str">
@@ -12006,7 +12023,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -12014,13 +12031,13 @@
       <c r="E3" s="76"/>
       <c r="F3" s="75"/>
       <c r="G3" s="73" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="J3" s="76"/>
       <c r="K3" s="73" t="str">
@@ -12030,23 +12047,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="76"/>
       <c r="F4" s="74" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G4" s="73" t="s">
         <v>1993</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>1990</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="73" t="str">
@@ -12056,17 +12073,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="77"/>
       <c r="E5" s="76"/>
       <c r="F5" s="74" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="73" t="s">
         <v>661</v>
@@ -12188,10 +12205,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D1" s="80"/>
       <c r="E1" s="79" t="s">
@@ -12208,15 +12225,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="82" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -12228,15 +12245,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="82" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
@@ -12248,12 +12265,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E4" s="78" t="s">
         <v>5</v>
@@ -12268,15 +12285,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -12288,15 +12305,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -12308,15 +12325,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -12328,15 +12345,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -12348,20 +12365,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="H9" s="74" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I9" s="82" t="str">
         <f aca="false">A9</f>
@@ -12370,15 +12387,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="82" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
@@ -12390,20 +12407,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="82" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
       <c r="D11" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="H11" s="74" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I11" s="82" t="str">
         <f aca="false">A11</f>
@@ -12412,20 +12429,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
       <c r="D12" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="74" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="I12" s="82" t="str">
         <f aca="false">A12</f>
@@ -12434,15 +12451,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
       <c r="D13" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -12454,15 +12471,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
       <c r="D14" s="73" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -12474,7 +12491,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
@@ -12490,13 +12507,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="82" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="77"/>
       <c r="E16" s="57" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -12508,13 +12525,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="82" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="78" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -12526,15 +12543,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="82" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="73" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
@@ -12546,15 +12563,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="73" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
@@ -12566,7 +12583,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="82" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -12582,15 +12599,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="73" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
@@ -12602,15 +12619,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="73" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
@@ -12622,7 +12639,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="82" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
@@ -12638,7 +12655,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
@@ -12654,7 +12671,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -12670,15 +12687,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
       <c r="D26" s="73" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -12690,7 +12707,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -12706,7 +12723,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -12722,7 +12739,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
@@ -12738,7 +12755,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -12754,13 +12771,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="77"/>
       <c r="E31" s="57" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
@@ -12772,7 +12789,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="82" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -12788,15 +12805,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="73" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -12808,15 +12825,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="73" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
@@ -12828,15 +12845,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
       <c r="D35" s="73" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -18853,8 +18870,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K116" activeCellId="0" sqref="K116"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N112" activeCellId="0" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22926,7 +22943,9 @@
         <v>713</v>
       </c>
       <c r="M113" s="20"/>
-      <c r="N113" s="58"/>
+      <c r="N113" s="65" t="s">
+        <v>1116</v>
+      </c>
       <c r="O113" s="24" t="str">
         <f aca="false">A113&amp;" - "&amp;B113</f>
         <v>C00154 - Ask media not to report false information</v>
@@ -22934,10 +22953,10 @@
     </row>
     <row r="114" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>753</v>
@@ -22945,7 +22964,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="24" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
@@ -22962,7 +22981,9 @@
         <v>713</v>
       </c>
       <c r="M114" s="20"/>
-      <c r="N114" s="58"/>
+      <c r="N114" s="58" t="s">
+        <v>1120</v>
+      </c>
       <c r="O114" s="24" t="str">
         <f aca="false">A114&amp;" - "&amp;B114</f>
         <v>C00155 - Ban incident actors from funding sites</v>
@@ -22970,20 +22991,20 @@
     </row>
     <row r="115" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="24" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
@@ -22994,34 +23015,36 @@
       </c>
       <c r="J115" s="20"/>
       <c r="K115" s="56" t="s">
-        <v>574</v>
+        <v>438</v>
       </c>
       <c r="L115" s="56" t="s">
         <v>668</v>
       </c>
       <c r="M115" s="20"/>
-      <c r="N115" s="58"/>
+      <c r="N115" s="65" t="s">
+        <v>1125</v>
+      </c>
       <c r="O115" s="24" t="str">
         <f aca="false">A115&amp;" - "&amp;B115</f>
-        <v>C00156 - Better tell the U.S., NATO, and EU story.</v>
+        <v>C00156 - Better tell your country or organization story</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="24" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
@@ -23039,25 +23062,25 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="65" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
-        <v>C00158 - Use training to build the resilience of at-risk populations.</v>
+        <v>C00158 - Use training to build the resilience of at-risk populations</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23084,20 +23107,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23115,7 +23138,7 @@
       </c>
       <c r="M118" s="20"/>
       <c r="N118" s="65" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
@@ -23124,16 +23147,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23153,7 +23176,7 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="65" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
@@ -23162,16 +23185,16 @@
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23191,7 +23214,7 @@
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="65" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
@@ -23200,16 +23223,16 @@
     </row>
     <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23229,7 +23252,7 @@
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="65" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
@@ -23238,16 +23261,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23257,7 +23280,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23267,7 +23290,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23276,16 +23299,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23312,16 +23335,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23341,7 +23364,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="65" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23350,16 +23373,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23386,16 +23409,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23407,7 +23430,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23424,16 +23447,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23445,7 +23468,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23455,7 +23478,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23464,19 +23487,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23486,7 +23509,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="64" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23497,7 +23520,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23506,16 +23529,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23535,7 +23558,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23544,16 +23567,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23573,7 +23596,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23582,16 +23605,16 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
@@ -23613,7 +23636,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23622,10 +23645,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -23639,7 +23662,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -23649,7 +23672,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -23658,20 +23681,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -23689,7 +23712,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -23698,16 +23721,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -23723,11 +23746,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -23736,16 +23759,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -23767,7 +23790,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -23776,22 +23799,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -23816,16 +23839,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -23852,16 +23875,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -23881,7 +23904,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -23890,20 +23913,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -23921,7 +23944,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -23930,28 +23953,28 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
@@ -23965,7 +23988,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -23974,20 +23997,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -23995,7 +24018,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -24005,7 +24028,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -24014,16 +24037,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -24033,7 +24056,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -24043,7 +24066,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24052,10 +24075,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24063,7 +24086,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24081,7 +24104,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24090,16 +24113,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24121,7 +24144,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24130,20 +24153,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24161,7 +24184,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24170,20 +24193,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24191,7 +24214,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24208,10 +24231,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24235,7 +24258,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24244,20 +24267,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24275,7 +24298,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24284,16 +24307,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24313,7 +24336,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24322,10 +24345,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24349,7 +24372,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24358,16 +24381,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24387,7 +24410,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24396,10 +24419,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24423,7 +24446,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24432,19 +24455,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24461,7 +24484,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24470,10 +24493,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24483,7 +24506,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24502,22 +24525,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24536,10 +24559,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24566,10 +24589,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -24657,31 +24680,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -24689,32 +24712,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -24727,29 +24750,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -24759,32 +24782,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -24797,29 +24820,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -24829,32 +24852,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -24864,32 +24887,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -24899,32 +24922,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -24934,32 +24957,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -24969,34 +24992,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -25006,34 +25029,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -25043,32 +25066,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H12" s="45" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>1357</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>1354</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25078,32 +25101,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25113,32 +25136,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25148,32 +25171,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25183,32 +25206,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25218,30 +25241,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25251,35 +25274,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25288,10 +25311,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25301,20 +25324,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>1386</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>1383</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25323,37 +25346,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25362,33 +25385,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25397,33 +25420,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25435,32 +25458,32 @@
         <v>1115</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25469,35 +25492,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25506,33 +25529,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25541,35 +25564,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25578,33 +25601,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25613,33 +25636,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -25648,33 +25671,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -25683,37 +25706,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -25722,33 +25745,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -25757,33 +25780,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -25792,35 +25815,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -25829,37 +25852,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -25868,35 +25891,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -25905,35 +25928,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -25942,33 +25965,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -25977,33 +26000,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -26012,33 +26035,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -26047,35 +26070,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26084,33 +26107,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26119,33 +26142,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26154,37 +26177,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26193,35 +26216,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H44" s="45" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K44" s="24" t="s">
         <v>1486</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>1483</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26230,33 +26253,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26265,34 +26288,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26302,32 +26325,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G47" s="24" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J47" s="24" t="s">
         <v>1500</v>
-      </c>
-      <c r="H47" s="45" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>1502</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>1497</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26337,32 +26360,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26372,30 +26395,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26405,32 +26428,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26440,32 +26463,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26475,34 +26498,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26512,32 +26535,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26547,34 +26570,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26584,32 +26607,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26619,30 +26642,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -26652,34 +26675,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -26689,30 +26712,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -26722,30 +26745,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -26755,32 +26778,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -26790,32 +26813,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H61" s="45" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I61" s="24" t="s">
         <v>1560</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>1557</v>
-      </c>
       <c r="J61" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -26825,30 +26848,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -26858,32 +26881,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -26893,32 +26916,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="2067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="2068">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3893,7 +3893,9 @@
   </si>
   <si>
     <t xml:space="preserve">TA12 - Measure Effectiveness
-T0020 - Trial content</t>
+T0020 - Trial content
+T0046 - Search Engine Optimization
+T0057 - Organise  remote rallies and events</t>
   </si>
   <si>
     <t xml:space="preserve">C00151</t>
@@ -3905,6 +3907,14 @@
     <t xml:space="preserve">Use leadership in the arts, entertainment, and media to highlight and build on fundamental tenets of democracy.</t>
   </si>
   <si>
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0003 - Leverage existing narratives
+T0010 - Cultivate ignorant agents
+T0022 - Conspiracy narratives
+T0027 - Adapt existing narratives
+T0025 - Leak altered documents</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00153</t>
   </si>
   <si>
@@ -3915,6 +3925,23 @@
   </si>
   <si>
     <t xml:space="preserve">A027 - information security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0008 - Create fake or imposter news sites
+T0007 - Create fake Social Media Profiles / Pages / Groups
+T0011 - Hijack legitimate account
+T0013 - Create fake websites
+T0014 - Create funding campaign
+T0017 - Promote online funding
+T0018 - Paid targeted ads
+T0056 - Dedicated channels disseminate information pollution
+T0049 - Flooding 
+T0052 - Tertiary sites amplify news
+T0054 - Twitter bots amplify
+T0053 - Twitter trolls amplify and manipulate
+T0058 - Legacy web content
+T0057 - Organise remote rallies and events
+T0061 - Sell merchandising</t>
   </si>
   <si>
     <t xml:space="preserve">C00154</t>
@@ -4315,14 +4342,6 @@
   </si>
   <si>
     <t xml:space="preserve">U.S. government should also open engagement with civil society as an independent check on government action and messaging. It should seek to coordinate and synchronize narrative themes with allies and partners while calibrating action in cases where elements in these countries may have been co-opted by U.S. competitors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
-T0003 - Leverage existing narratives
-T0010 - Cultivate ignorant agents
-T0022 - Conspiracy narratives
-T0027 - Adapt existing narratives
-T0025 - Leak altered documents</t>
   </si>
   <si>
     <t xml:space="preserve">C00193</t>
@@ -8182,10 +8201,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8193,10 +8212,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8208,10 +8227,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8223,25 +8242,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8253,10 +8272,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8268,10 +8287,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8283,13 +8302,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8298,13 +8317,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8313,13 +8332,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8328,13 +8347,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8343,13 +8362,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8358,13 +8377,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8373,28 +8392,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8403,28 +8422,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8433,13 +8452,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8448,13 +8467,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8463,13 +8482,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8478,13 +8497,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8493,28 +8512,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8523,13 +8542,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8538,28 +8557,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8568,13 +8587,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8583,13 +8602,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8598,13 +8617,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8613,28 +8632,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8643,13 +8662,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8658,13 +8677,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -8673,13 +8692,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -8688,13 +8707,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -8703,13 +8722,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -8718,13 +8737,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -8733,28 +8752,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -8763,13 +8782,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -8778,13 +8797,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -8793,13 +8812,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -8808,13 +8827,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -8823,13 +8842,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -8838,13 +8857,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -8853,13 +8872,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -8868,13 +8887,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -8883,13 +8902,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -8898,13 +8917,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -8913,13 +8932,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -8928,13 +8947,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -8943,28 +8962,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -8973,28 +8992,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -9003,13 +9022,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -9018,13 +9037,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -9033,13 +9052,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -9048,13 +9067,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9063,13 +9082,13 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>184</v>
@@ -9078,13 +9097,13 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>271</v>
@@ -9093,13 +9112,13 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>268</v>
@@ -9108,13 +9127,13 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>130</v>
@@ -9123,13 +9142,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9138,13 +9157,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9153,13 +9172,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9168,28 +9187,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9198,13 +9217,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9213,13 +9232,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9228,28 +9247,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9258,13 +9277,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9273,13 +9292,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9288,13 +9307,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9303,13 +9322,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9318,43 +9337,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9363,13 +9382,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9378,13 +9397,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9393,13 +9412,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9408,13 +9427,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9423,13 +9442,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9438,28 +9457,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9468,13 +9487,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9483,13 +9502,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9498,13 +9517,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9513,13 +9532,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9528,13 +9547,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9543,13 +9562,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9558,13 +9577,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9573,13 +9592,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9588,13 +9607,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9603,43 +9622,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9648,13 +9667,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9663,13 +9682,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -9678,13 +9697,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -9693,13 +9712,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -9708,13 +9727,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -9723,13 +9742,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -9738,13 +9757,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -9753,13 +9772,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -9768,13 +9787,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -9783,13 +9802,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -9798,13 +9817,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -9813,13 +9832,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -9828,28 +9847,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -9858,13 +9877,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -9873,13 +9892,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -9888,28 +9907,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -9918,13 +9937,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -9933,28 +9952,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -9963,13 +9982,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -9978,13 +9997,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -9993,28 +10012,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -10023,13 +10042,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -10038,13 +10057,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -10053,28 +10072,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10083,28 +10102,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10113,13 +10132,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10128,13 +10147,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10143,13 +10162,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10158,28 +10177,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10188,13 +10207,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10203,13 +10222,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10218,13 +10237,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10233,13 +10252,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10248,13 +10267,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10263,28 +10282,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10293,13 +10312,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10308,13 +10327,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10323,13 +10342,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10338,13 +10357,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10353,28 +10372,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10383,13 +10402,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10398,13 +10417,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10413,16 +10432,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10480,13 +10499,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10496,13 +10515,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10512,13 +10531,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10528,13 +10547,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10544,13 +10563,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10560,13 +10579,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10576,13 +10595,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10652,13 +10671,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D2" s="74" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10668,13 +10687,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D3" s="74" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10684,13 +10703,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D4" s="74" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10700,13 +10719,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D5" s="74" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10716,13 +10735,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="73" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D6" s="74" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10732,13 +10751,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="73" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D7" s="74" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10748,7 +10767,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="73" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>400</v>
@@ -10762,13 +10781,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="73" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D9" s="74" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -10778,13 +10797,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="73" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D10" s="74" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -10794,13 +10813,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="73" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D11" s="74" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -10810,13 +10829,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="73" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D12" s="74" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -10826,13 +10845,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="73" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D13" s="74" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -10842,13 +10861,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="73" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D14" s="74" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -10858,13 +10877,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="73" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D15" s="74" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -10915,10 +10934,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>61</v>
@@ -10926,19 +10945,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10947,19 +10966,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10968,19 +10987,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10989,17 +11008,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11008,17 +11027,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11027,17 +11046,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11046,19 +11065,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11067,17 +11086,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11086,17 +11105,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11105,17 +11124,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11124,17 +11143,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11143,19 +11162,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11164,17 +11183,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11183,17 +11202,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11202,17 +11221,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11221,17 +11240,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11240,19 +11259,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11261,19 +11280,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1916</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1915</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11282,17 +11301,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11301,17 +11320,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11320,17 +11339,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11339,17 +11358,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11358,17 +11377,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11377,17 +11396,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11396,19 +11415,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11417,17 +11436,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11436,17 +11455,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11455,17 +11474,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11474,17 +11493,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11493,17 +11512,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11512,19 +11531,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>1948</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1947</v>
-      </c>
       <c r="E32" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11533,17 +11552,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11552,19 +11571,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11619,10 +11638,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11633,10 +11652,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11647,10 +11666,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11661,10 +11680,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -11675,10 +11694,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -11689,10 +11708,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -11703,10 +11722,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -11717,10 +11736,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -11731,10 +11750,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -11745,10 +11764,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -11800,7 +11819,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>61</v>
@@ -11808,16 +11827,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11826,16 +11845,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11844,16 +11863,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>1968</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>1967</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11862,16 +11881,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11880,16 +11899,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11898,16 +11917,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11967,28 +11986,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H1" s="71" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>60</v>
@@ -11999,7 +12018,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="73" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -12007,13 +12026,13 @@
       <c r="E2" s="76"/>
       <c r="F2" s="75"/>
       <c r="G2" s="73" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="J2" s="76"/>
       <c r="K2" s="73" t="str">
@@ -12023,7 +12042,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -12031,13 +12050,13 @@
       <c r="E3" s="76"/>
       <c r="F3" s="75"/>
       <c r="G3" s="73" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="J3" s="76"/>
       <c r="K3" s="73" t="str">
@@ -12047,23 +12066,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="73" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="76"/>
       <c r="F4" s="74" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="73" t="str">
@@ -12073,17 +12092,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="73" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="77"/>
       <c r="E5" s="76"/>
       <c r="F5" s="74" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="H5" s="73" t="s">
         <v>661</v>
@@ -12205,10 +12224,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D1" s="80"/>
       <c r="E1" s="79" t="s">
@@ -12225,15 +12244,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="82" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -12245,15 +12264,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="82" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
@@ -12265,12 +12284,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E4" s="78" t="s">
         <v>5</v>
@@ -12285,15 +12304,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -12305,15 +12324,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -12325,15 +12344,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -12345,15 +12364,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -12365,20 +12384,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="H9" s="74" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I9" s="82" t="str">
         <f aca="false">A9</f>
@@ -12387,15 +12406,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="82" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
@@ -12407,20 +12426,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="82" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
       <c r="D11" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="H11" s="74" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="I11" s="82" t="str">
         <f aca="false">A11</f>
@@ -12429,20 +12448,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
       <c r="D12" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="74" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I12" s="82" t="str">
         <f aca="false">A12</f>
@@ -12451,15 +12470,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
       <c r="D13" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -12471,15 +12490,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
       <c r="D14" s="73" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -12491,7 +12510,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
@@ -12507,13 +12526,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="82" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="77"/>
       <c r="E16" s="57" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -12525,13 +12544,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="82" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="78" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
@@ -12543,15 +12562,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="82" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="73" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
@@ -12563,15 +12582,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="73" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
@@ -12583,7 +12602,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="82" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -12599,15 +12618,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="73" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
@@ -12619,15 +12638,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="73" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
@@ -12639,7 +12658,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="82" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
@@ -12655,7 +12674,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
@@ -12671,7 +12690,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -12687,15 +12706,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
       <c r="D26" s="73" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -12707,7 +12726,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -12723,7 +12742,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -12739,7 +12758,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
@@ -12755,7 +12774,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -12771,13 +12790,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="77"/>
       <c r="E31" s="57" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
@@ -12789,7 +12808,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="82" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -12805,15 +12824,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="73" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -12825,15 +12844,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="73" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
@@ -12845,15 +12864,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
       <c r="D35" s="73" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -18870,8 +18889,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N112" activeCellId="0" sqref="N112"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N110" activeCellId="0" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22863,34 +22882,36 @@
       </c>
       <c r="J111" s="20"/>
       <c r="K111" s="56" t="s">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="L111" s="56" t="s">
         <v>668</v>
       </c>
       <c r="M111" s="20"/>
-      <c r="N111" s="58"/>
+      <c r="N111" s="58" t="s">
+        <v>1109</v>
+      </c>
       <c r="O111" s="24" t="str">
         <f aca="false">A111&amp;" - "&amp;B111</f>
         <v>C00151 - “fight in the light”</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="215.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="24" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24" t="s">
@@ -22907,7 +22928,9 @@
         <v>668</v>
       </c>
       <c r="M112" s="20"/>
-      <c r="N112" s="58"/>
+      <c r="N112" s="65" t="s">
+        <v>1114</v>
+      </c>
       <c r="O112" s="24" t="str">
         <f aca="false">A112&amp;" - "&amp;B112</f>
         <v>C00153 - Take pre-emptive action against actors' infrastructure</v>
@@ -22915,10 +22938,10 @@
     </row>
     <row r="113" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>753</v>
@@ -22934,7 +22957,7 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K113" s="56" t="s">
         <v>558</v>
@@ -22944,7 +22967,7 @@
       </c>
       <c r="M113" s="20"/>
       <c r="N113" s="65" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="O113" s="24" t="str">
         <f aca="false">A113&amp;" - "&amp;B113</f>
@@ -22953,10 +22976,10 @@
     </row>
     <row r="114" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>753</v>
@@ -22964,7 +22987,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="24" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
@@ -22982,7 +23005,7 @@
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="58" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="O114" s="24" t="str">
         <f aca="false">A114&amp;" - "&amp;B114</f>
@@ -22991,20 +23014,20 @@
     </row>
     <row r="115" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="24" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
@@ -23022,7 +23045,7 @@
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="65" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="O115" s="24" t="str">
         <f aca="false">A115&amp;" - "&amp;B115</f>
@@ -23031,20 +23054,20 @@
     </row>
     <row r="116" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="24" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
@@ -23062,7 +23085,7 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="65" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
@@ -23071,16 +23094,16 @@
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23107,20 +23130,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23138,7 +23161,7 @@
       </c>
       <c r="M118" s="20"/>
       <c r="N118" s="65" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
@@ -23147,16 +23170,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23176,7 +23199,7 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="65" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
@@ -23185,16 +23208,16 @@
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23214,7 +23237,7 @@
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="65" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
@@ -23223,16 +23246,16 @@
     </row>
     <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23252,7 +23275,7 @@
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="65" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
@@ -23261,16 +23284,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23280,7 +23303,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23290,7 +23313,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23299,16 +23322,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23335,16 +23358,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23364,7 +23387,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="65" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23373,16 +23396,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23409,16 +23432,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23430,7 +23453,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23447,16 +23470,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23468,7 +23491,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23478,7 +23501,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23487,19 +23510,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23509,7 +23532,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="64" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23520,7 +23543,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23529,16 +23552,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23558,7 +23581,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23567,16 +23590,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23596,7 +23619,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23605,20 +23628,20 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
@@ -23636,7 +23659,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23645,10 +23668,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -23662,7 +23685,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -23672,7 +23695,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -23681,20 +23704,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -23712,7 +23735,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -23721,16 +23744,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -23746,11 +23769,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -23759,16 +23782,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -23790,7 +23813,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1210</v>
+        <v>1109</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -23799,22 +23822,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -23839,16 +23862,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -23875,16 +23898,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -23904,7 +23927,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -23913,20 +23936,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -23944,7 +23967,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -23953,32 +23976,32 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K140" s="56" t="s">
         <v>441</v>
@@ -23988,7 +24011,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -23997,20 +24020,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -24018,7 +24041,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -24028,7 +24051,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -24037,16 +24060,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -24056,7 +24079,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -24066,7 +24089,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24075,10 +24098,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24086,7 +24109,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24094,7 +24117,7 @@
       </c>
       <c r="I143" s="20"/>
       <c r="J143" s="24" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K143" s="56" t="s">
         <v>477</v>
@@ -24104,7 +24127,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24113,16 +24136,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24144,7 +24167,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24153,20 +24176,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24184,7 +24207,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24193,20 +24216,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24214,7 +24237,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24231,10 +24254,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24258,7 +24281,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24267,20 +24290,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24298,7 +24321,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24307,16 +24330,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24336,7 +24359,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24345,10 +24368,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24372,7 +24395,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24381,16 +24404,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24410,7 +24433,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24419,10 +24442,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24446,7 +24469,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24455,19 +24478,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24484,7 +24507,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24493,10 +24516,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24506,7 +24529,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24525,22 +24548,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24559,10 +24582,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24589,10 +24612,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -24680,31 +24703,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -24712,32 +24735,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -24750,29 +24773,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -24782,32 +24805,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -24820,29 +24843,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -24852,32 +24875,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -24887,32 +24910,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -24922,32 +24945,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -24957,32 +24980,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -24992,34 +25015,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -25029,34 +25052,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -25066,32 +25089,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25101,32 +25124,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25136,32 +25159,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25171,32 +25194,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25206,32 +25229,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25241,30 +25264,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25274,35 +25297,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25311,10 +25334,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25324,20 +25347,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25346,37 +25369,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25385,33 +25408,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25420,33 +25443,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25455,35 +25478,35 @@
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25492,35 +25515,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25529,33 +25552,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25564,35 +25587,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25601,33 +25624,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25636,33 +25659,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -25671,33 +25694,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -25706,37 +25729,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -25745,33 +25768,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -25780,33 +25803,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -25815,35 +25838,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -25852,37 +25875,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -25891,35 +25914,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -25928,35 +25951,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -25965,33 +25988,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -26000,33 +26023,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -26035,33 +26058,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -26070,35 +26093,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26107,33 +26130,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26142,33 +26165,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26177,37 +26200,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26216,35 +26239,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26253,33 +26276,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26288,34 +26311,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26325,32 +26348,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26360,32 +26383,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26395,30 +26418,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26428,32 +26451,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26463,32 +26486,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26498,34 +26521,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26535,32 +26558,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26570,34 +26593,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26607,32 +26630,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26642,30 +26665,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -26675,34 +26698,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -26712,30 +26735,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -26745,30 +26768,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -26778,32 +26801,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -26813,32 +26836,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -26848,30 +26871,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -26881,32 +26904,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -26916,32 +26939,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="2070">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3780,6 +3780,10 @@
   </si>
   <si>
     <t xml:space="preserve">Spam domestic actors with lawsuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0060 - Continue to amplify
+T0056 - Dedicated channels disseminate information pollution</t>
   </si>
   <si>
     <t xml:space="preserve">C00139</t>
@@ -8213,10 +8217,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8224,10 +8228,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8239,10 +8243,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8254,25 +8258,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8284,10 +8288,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8299,10 +8303,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8314,13 +8318,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8329,13 +8333,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8344,13 +8348,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8359,13 +8363,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8374,13 +8378,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8389,13 +8393,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8404,28 +8408,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8434,28 +8438,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8464,13 +8468,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8479,13 +8483,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8494,13 +8498,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8509,13 +8513,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8524,28 +8528,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8554,13 +8558,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8569,28 +8573,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8599,13 +8603,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8614,13 +8618,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8629,13 +8633,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8644,28 +8648,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8674,13 +8678,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8689,13 +8693,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -8704,13 +8708,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -8719,13 +8723,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -8734,13 +8738,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -8749,13 +8753,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -8764,28 +8768,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -8794,13 +8798,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -8809,13 +8813,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -8824,13 +8828,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -8839,13 +8843,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -8854,13 +8858,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -8869,13 +8873,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -8884,13 +8888,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -8899,13 +8903,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -8914,13 +8918,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -8929,13 +8933,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -8944,13 +8948,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -8959,13 +8963,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -8974,28 +8978,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -9004,28 +9008,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -9034,13 +9038,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -9049,13 +9053,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -9064,13 +9068,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -9079,13 +9083,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9094,13 +9098,13 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>184</v>
@@ -9109,13 +9113,13 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>271</v>
@@ -9124,13 +9128,13 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>268</v>
@@ -9139,13 +9143,13 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>130</v>
@@ -9154,13 +9158,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9169,13 +9173,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9184,13 +9188,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9199,28 +9203,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9229,13 +9233,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9244,13 +9248,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9259,28 +9263,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9289,13 +9293,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9304,13 +9308,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9319,13 +9323,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9334,13 +9338,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9349,43 +9353,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9394,13 +9398,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9409,13 +9413,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9424,13 +9428,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9439,13 +9443,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9454,13 +9458,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9469,28 +9473,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9499,13 +9503,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9514,13 +9518,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9529,13 +9533,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9544,13 +9548,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9559,13 +9563,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9574,13 +9578,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9589,13 +9593,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9604,13 +9608,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9619,13 +9623,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9634,43 +9638,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9679,13 +9683,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9694,13 +9698,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -9709,13 +9713,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -9724,13 +9728,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -9739,13 +9743,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -9754,13 +9758,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -9769,13 +9773,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -9784,13 +9788,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -9799,13 +9803,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -9814,13 +9818,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -9829,13 +9833,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -9844,13 +9848,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -9859,28 +9863,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -9889,13 +9893,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -9904,13 +9908,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -9919,28 +9923,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -9949,13 +9953,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -9964,28 +9968,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -9994,13 +9998,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -10009,13 +10013,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -10024,28 +10028,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -10054,13 +10058,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -10069,13 +10073,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -10084,28 +10088,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10114,28 +10118,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10144,13 +10148,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10159,13 +10163,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10174,13 +10178,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10189,28 +10193,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10219,13 +10223,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10234,13 +10238,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10249,13 +10253,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10264,13 +10268,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10279,13 +10283,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10294,28 +10298,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10324,13 +10328,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10339,13 +10343,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10354,13 +10358,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10369,13 +10373,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10384,28 +10388,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10414,13 +10418,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10429,13 +10433,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10444,16 +10448,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10511,13 +10515,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10527,13 +10531,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10543,13 +10547,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10559,13 +10563,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10575,13 +10579,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10591,13 +10595,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10607,13 +10611,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10683,13 +10687,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D2" s="75" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10699,13 +10703,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D3" s="75" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10715,13 +10719,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D4" s="75" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10731,13 +10735,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D5" s="75" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10747,13 +10751,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D6" s="75" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10763,13 +10767,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D7" s="75" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10779,7 +10783,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>400</v>
@@ -10793,13 +10797,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D9" s="75" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -10809,13 +10813,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D10" s="75" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -10825,13 +10829,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="D11" s="75" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -10841,13 +10845,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D12" s="75" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -10857,13 +10861,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D13" s="75" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -10873,13 +10877,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D14" s="75" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -10889,13 +10893,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D15" s="75" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -10946,10 +10950,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>61</v>
@@ -10957,19 +10961,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10978,19 +10982,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10999,19 +11003,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11020,17 +11024,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11039,17 +11043,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11058,17 +11062,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11077,19 +11081,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11098,17 +11102,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11117,17 +11121,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11136,17 +11140,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11155,17 +11159,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11174,19 +11178,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11195,17 +11199,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11214,17 +11218,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11233,17 +11237,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11252,17 +11256,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11271,19 +11275,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11292,19 +11296,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1918</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1917</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11313,17 +11317,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11332,17 +11336,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11351,17 +11355,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11370,17 +11374,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11389,17 +11393,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11408,17 +11412,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11427,19 +11431,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11448,17 +11452,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11467,17 +11471,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11486,17 +11490,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11505,17 +11509,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11524,17 +11528,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11543,19 +11547,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>1950</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1949</v>
-      </c>
       <c r="E32" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11564,17 +11568,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11583,19 +11587,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11650,10 +11654,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11664,10 +11668,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11678,10 +11682,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11692,10 +11696,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -11706,10 +11710,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -11720,10 +11724,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -11734,10 +11738,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -11748,10 +11752,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -11762,10 +11766,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -11776,10 +11780,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -11831,7 +11835,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>61</v>
@@ -11839,16 +11843,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11857,16 +11861,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11875,16 +11879,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>1970</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>1969</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11893,16 +11897,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11911,16 +11915,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11929,16 +11933,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11998,28 +12002,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H1" s="72" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>60</v>
@@ -12030,7 +12034,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12038,13 +12042,13 @@
       <c r="E2" s="77"/>
       <c r="F2" s="76"/>
       <c r="G2" s="74" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="J2" s="77"/>
       <c r="K2" s="74" t="str">
@@ -12054,7 +12058,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -12062,13 +12066,13 @@
       <c r="E3" s="77"/>
       <c r="F3" s="76"/>
       <c r="G3" s="74" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H3" s="74" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="J3" s="77"/>
       <c r="K3" s="74" t="str">
@@ -12078,23 +12082,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="77"/>
       <c r="F4" s="75" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="74" t="str">
@@ -12104,17 +12108,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
       <c r="D5" s="78"/>
       <c r="E5" s="77"/>
       <c r="F5" s="75" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="H5" s="74" t="s">
         <v>661</v>
@@ -12236,10 +12240,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D1" s="81"/>
       <c r="E1" s="80" t="s">
@@ -12256,15 +12260,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="83" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
@@ -12276,15 +12280,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="83" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
@@ -12296,12 +12300,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="83" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>5</v>
@@ -12316,15 +12320,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="83" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
       <c r="D5" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
@@ -12336,15 +12340,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="83" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
@@ -12356,15 +12360,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="83" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B7" s="77"/>
       <c r="C7" s="77"/>
       <c r="D7" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
@@ -12376,15 +12380,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="77"/>
       <c r="D8" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
@@ -12396,20 +12400,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="83" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="75" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I9" s="83" t="str">
         <f aca="false">A9</f>
@@ -12418,15 +12422,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="83" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
       <c r="D10" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
@@ -12438,20 +12442,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="83" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="75" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I11" s="83" t="str">
         <f aca="false">A11</f>
@@ -12460,20 +12464,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="83" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="75" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="I12" s="83" t="str">
         <f aca="false">A12</f>
@@ -12482,15 +12486,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="83" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B13" s="77"/>
       <c r="C13" s="77"/>
       <c r="D13" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
@@ -12502,15 +12506,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="83" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="74" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
@@ -12522,7 +12526,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="83" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
@@ -12538,13 +12542,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="83" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
       <c r="D16" s="78"/>
       <c r="E16" s="57" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
@@ -12556,13 +12560,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="83" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
       <c r="D17" s="78"/>
       <c r="E17" s="79" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -12574,15 +12578,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="83" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="74" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E18" s="79" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
@@ -12594,15 +12598,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="83" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
       <c r="D19" s="74" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
@@ -12614,7 +12618,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="83" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -12630,15 +12634,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="83" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="74" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
@@ -12650,15 +12654,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="83" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="77"/>
       <c r="D22" s="74" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
@@ -12670,7 +12674,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="83" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="77"/>
@@ -12686,7 +12690,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="83" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
@@ -12702,7 +12706,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="83" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B25" s="77"/>
       <c r="C25" s="77"/>
@@ -12718,15 +12722,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="83" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
       <c r="D26" s="74" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="E26" s="79" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
@@ -12738,7 +12742,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="83" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
@@ -12754,7 +12758,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="83" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
@@ -12770,7 +12774,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="83" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -12786,7 +12790,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="83" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -12802,13 +12806,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="83" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="77"/>
       <c r="D31" s="78"/>
       <c r="E31" s="57" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F31" s="78"/>
       <c r="G31" s="78"/>
@@ -12820,7 +12824,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="83" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="77"/>
@@ -12836,15 +12840,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="83" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="74" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="78"/>
@@ -12856,15 +12860,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="83" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="74" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F34" s="78"/>
       <c r="G34" s="78"/>
@@ -12876,15 +12880,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="83" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
       <c r="D35" s="74" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E35" s="79" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F35" s="78"/>
       <c r="G35" s="78"/>
@@ -18901,8 +18905,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N104" activeCellId="0" sqref="N104"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N100" activeCellId="0" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22534,7 +22538,9 @@
         <v>668</v>
       </c>
       <c r="M101" s="20"/>
-      <c r="N101" s="55"/>
+      <c r="N101" s="56" t="s">
+        <v>1073</v>
+      </c>
       <c r="O101" s="24" t="str">
         <f aca="false">A101&amp;" - "&amp;B101</f>
         <v>C00138 - Spam domestic actors with lawsuits</v>
@@ -22542,10 +22548,10 @@
     </row>
     <row r="102" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>706</v>
@@ -22574,19 +22580,19 @@
     </row>
     <row r="103" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
@@ -22603,7 +22609,7 @@
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="56" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="O103" s="24" t="str">
         <f aca="false">A103&amp;" - "&amp;B103</f>
@@ -22612,16 +22618,16 @@
     </row>
     <row r="104" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="24" t="s">
@@ -22643,7 +22649,7 @@
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="56" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O104" s="24" t="str">
         <f aca="false">A104&amp;" - "&amp;B104</f>
@@ -22652,20 +22658,20 @@
     </row>
     <row r="105" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="24" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="24" t="s">
@@ -22681,7 +22687,7 @@
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="58" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="O105" s="24" t="str">
         <f aca="false">A105&amp;" - "&amp;B105</f>
@@ -22690,16 +22696,16 @@
     </row>
     <row r="106" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -22717,7 +22723,7 @@
       </c>
       <c r="M106" s="20"/>
       <c r="N106" s="52" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="O106" s="24" t="str">
         <f aca="false">A106&amp;" - "&amp;B106</f>
@@ -22726,10 +22732,10 @@
     </row>
     <row r="107" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>836</v>
@@ -22751,7 +22757,7 @@
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="63" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O107" s="24" t="str">
         <f aca="false">A107&amp;" - "&amp;B107</f>
@@ -22760,10 +22766,10 @@
     </row>
     <row r="108" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>706</v>
@@ -22789,7 +22795,7 @@
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="52" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O108" s="24" t="str">
         <f aca="false">A108&amp;" - "&amp;B108</f>
@@ -22798,19 +22804,19 @@
     </row>
     <row r="109" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>755</v>
@@ -22831,7 +22837,7 @@
       </c>
       <c r="M109" s="20"/>
       <c r="N109" s="58" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O109" s="24" t="str">
         <f aca="false">A109&amp;" - "&amp;B109</f>
@@ -22840,17 +22846,17 @@
     </row>
     <row r="110" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="24" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
@@ -22867,7 +22873,7 @@
       </c>
       <c r="M110" s="20"/>
       <c r="N110" s="56" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O110" s="24" t="str">
         <f aca="false">A110&amp;" - "&amp;B110</f>
@@ -22876,16 +22882,16 @@
     </row>
     <row r="111" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -22905,7 +22911,7 @@
       </c>
       <c r="M111" s="20"/>
       <c r="N111" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O111" s="24" t="str">
         <f aca="false">A111&amp;" - "&amp;B111</f>
@@ -22914,20 +22920,20 @@
     </row>
     <row r="112" customFormat="false" ht="215.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="24" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24" t="s">
@@ -22945,7 +22951,7 @@
       </c>
       <c r="M112" s="20"/>
       <c r="N112" s="66" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O112" s="24" t="str">
         <f aca="false">A112&amp;" - "&amp;B112</f>
@@ -22954,10 +22960,10 @@
     </row>
     <row r="113" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>753</v>
@@ -22973,7 +22979,7 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K113" s="56" t="s">
         <v>558</v>
@@ -22983,7 +22989,7 @@
       </c>
       <c r="M113" s="20"/>
       <c r="N113" s="66" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="O113" s="24" t="str">
         <f aca="false">A113&amp;" - "&amp;B113</f>
@@ -22992,10 +22998,10 @@
     </row>
     <row r="114" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>753</v>
@@ -23003,7 +23009,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="24" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
@@ -23021,7 +23027,7 @@
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="58" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O114" s="24" t="str">
         <f aca="false">A114&amp;" - "&amp;B114</f>
@@ -23030,20 +23036,20 @@
     </row>
     <row r="115" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="24" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
@@ -23061,7 +23067,7 @@
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="66" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="O115" s="24" t="str">
         <f aca="false">A115&amp;" - "&amp;B115</f>
@@ -23070,20 +23076,20 @@
     </row>
     <row r="116" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="24" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
@@ -23101,7 +23107,7 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="66" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
@@ -23110,16 +23116,16 @@
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23146,20 +23152,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23177,7 +23183,7 @@
       </c>
       <c r="M118" s="20"/>
       <c r="N118" s="66" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
@@ -23186,16 +23192,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23215,7 +23221,7 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="66" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
@@ -23224,16 +23230,16 @@
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23253,7 +23259,7 @@
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="66" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
@@ -23262,16 +23268,16 @@
     </row>
     <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23291,7 +23297,7 @@
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="66" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
@@ -23300,16 +23306,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23319,7 +23325,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23329,7 +23335,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23338,16 +23344,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23374,16 +23380,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23403,7 +23409,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="66" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23412,16 +23418,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23448,16 +23454,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23469,7 +23475,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23486,16 +23492,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23507,7 +23513,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23517,7 +23523,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23526,19 +23532,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23548,7 +23554,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="65" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23559,7 +23565,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23568,16 +23574,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23597,7 +23603,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23606,16 +23612,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23635,7 +23641,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23644,20 +23650,20 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
@@ -23675,7 +23681,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23684,10 +23690,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -23701,7 +23707,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -23711,7 +23717,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -23720,20 +23726,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -23751,7 +23757,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -23760,16 +23766,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -23785,11 +23791,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -23798,16 +23804,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -23829,7 +23835,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -23838,22 +23844,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -23878,16 +23884,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -23914,16 +23920,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -23943,7 +23949,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -23952,20 +23958,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -23983,7 +23989,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -23992,32 +23998,32 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K140" s="56" t="s">
         <v>441</v>
@@ -24027,7 +24033,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -24036,20 +24042,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -24057,7 +24063,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -24067,7 +24073,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -24076,16 +24082,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -24095,7 +24101,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -24105,7 +24111,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24114,10 +24120,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24125,7 +24131,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24133,7 +24139,7 @@
       </c>
       <c r="I143" s="20"/>
       <c r="J143" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K143" s="56" t="s">
         <v>477</v>
@@ -24143,7 +24149,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24152,16 +24158,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24183,7 +24189,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24192,20 +24198,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24223,7 +24229,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24232,20 +24238,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24253,7 +24259,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24270,10 +24276,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24297,7 +24303,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24306,20 +24312,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24337,7 +24343,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24346,16 +24352,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24375,7 +24381,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24384,10 +24390,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24411,7 +24417,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24420,16 +24426,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24449,7 +24455,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24458,10 +24464,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24485,7 +24491,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24494,19 +24500,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24523,7 +24529,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24532,10 +24538,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24545,7 +24551,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24564,22 +24570,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24598,10 +24604,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24628,10 +24634,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -24719,31 +24725,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -24751,32 +24757,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -24789,29 +24795,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -24821,32 +24827,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -24859,29 +24865,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -24891,32 +24897,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -24926,32 +24932,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -24961,32 +24967,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -24996,32 +25002,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -25031,34 +25037,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -25068,34 +25074,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -25105,32 +25111,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25140,32 +25146,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25175,32 +25181,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25210,32 +25216,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25245,32 +25251,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25280,30 +25286,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25313,35 +25319,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25350,10 +25356,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25363,20 +25369,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25385,37 +25391,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25424,33 +25430,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25459,33 +25465,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25494,35 +25500,35 @@
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25531,35 +25537,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25568,33 +25574,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25603,35 +25609,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25640,33 +25646,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25675,33 +25681,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -25710,33 +25716,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -25745,37 +25751,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -25784,33 +25790,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -25819,33 +25825,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -25854,35 +25860,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -25891,37 +25897,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -25930,35 +25936,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -25967,35 +25973,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -26004,33 +26010,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -26039,33 +26045,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -26074,33 +26080,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -26109,35 +26115,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26146,33 +26152,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26181,33 +26187,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26216,37 +26222,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26255,35 +26261,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26292,33 +26298,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26327,34 +26333,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26364,32 +26370,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26399,32 +26405,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26434,30 +26440,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26467,32 +26473,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26502,32 +26508,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26537,34 +26543,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26574,32 +26580,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26609,34 +26615,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26646,32 +26652,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26681,30 +26687,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -26714,34 +26720,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -26751,30 +26757,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -26784,30 +26790,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -26817,32 +26823,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -26852,32 +26858,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -26887,30 +26893,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -26920,32 +26926,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -26955,32 +26961,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="2070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="2071">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3774,6 +3774,10 @@
     <t xml:space="preserve">Playbook 1: Promote damp squibs. Within a known TA promote/inflate crappy off-brand memes which are unlikley to resonate.
 Playbook 2: Detect early trending/engagement and undermine the content by responding with 5Ds, toxic community behaviour, satirical responses, etc.
 Playbook 3: If adtech is used, fake clicks and engagements on the content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0020 - Trial content
+T0063 - Social media engagement</t>
   </si>
   <si>
     <t xml:space="preserve">C00138</t>
@@ -8217,10 +8221,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8228,10 +8232,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8243,10 +8247,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8258,25 +8262,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8288,10 +8292,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8303,10 +8307,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8318,13 +8322,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8333,13 +8337,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8348,13 +8352,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8363,13 +8367,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8378,13 +8382,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8393,13 +8397,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8408,28 +8412,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8438,28 +8442,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8468,13 +8472,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8483,13 +8487,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8498,13 +8502,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8513,13 +8517,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8528,28 +8532,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8558,13 +8562,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8573,28 +8577,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8603,13 +8607,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8618,13 +8622,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8633,13 +8637,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8648,28 +8652,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8678,13 +8682,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8693,13 +8697,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -8708,13 +8712,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -8723,13 +8727,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -8738,13 +8742,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -8753,13 +8757,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -8768,28 +8772,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -8798,13 +8802,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -8813,13 +8817,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -8828,13 +8832,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -8843,13 +8847,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -8858,13 +8862,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -8873,13 +8877,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -8888,13 +8892,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -8903,13 +8907,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -8918,13 +8922,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -8933,13 +8937,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -8948,13 +8952,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -8963,13 +8967,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -8978,28 +8982,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -9008,28 +9012,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -9038,13 +9042,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -9053,13 +9057,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -9068,13 +9072,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -9083,13 +9087,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9098,13 +9102,13 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>184</v>
@@ -9113,13 +9117,13 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>271</v>
@@ -9128,13 +9132,13 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>268</v>
@@ -9143,13 +9147,13 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>130</v>
@@ -9158,13 +9162,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9173,13 +9177,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9188,13 +9192,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9203,28 +9207,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9233,13 +9237,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9248,13 +9252,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9263,28 +9267,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9293,13 +9297,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9308,13 +9312,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9323,13 +9327,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9338,13 +9342,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9353,43 +9357,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9398,13 +9402,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9413,13 +9417,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9428,13 +9432,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9443,13 +9447,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9458,13 +9462,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9473,28 +9477,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9503,13 +9507,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9518,13 +9522,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9533,13 +9537,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9548,13 +9552,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9563,13 +9567,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9578,13 +9582,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9593,13 +9597,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9608,13 +9612,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9623,13 +9627,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9638,43 +9642,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9683,13 +9687,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9698,13 +9702,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -9713,13 +9717,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -9728,13 +9732,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -9743,13 +9747,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -9758,13 +9762,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -9773,13 +9777,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -9788,13 +9792,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -9803,13 +9807,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -9818,13 +9822,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -9833,13 +9837,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -9848,13 +9852,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -9863,28 +9867,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -9893,13 +9897,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -9908,13 +9912,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -9923,28 +9927,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -9953,13 +9957,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -9968,28 +9972,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -9998,13 +10002,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -10013,13 +10017,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -10028,28 +10032,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -10058,13 +10062,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -10073,13 +10077,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -10088,28 +10092,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10118,28 +10122,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10148,13 +10152,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10163,13 +10167,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10178,13 +10182,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10193,28 +10197,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10223,13 +10227,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10238,13 +10242,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10253,13 +10257,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10268,13 +10272,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10283,13 +10287,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10298,28 +10302,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10328,13 +10332,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10343,13 +10347,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10358,13 +10362,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10373,13 +10377,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10388,28 +10392,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10418,13 +10422,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10433,13 +10437,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10448,16 +10452,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10515,13 +10519,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10531,13 +10535,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10547,13 +10551,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10563,13 +10567,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10579,13 +10583,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10595,13 +10599,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10611,13 +10615,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10687,13 +10691,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D2" s="75" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10703,13 +10707,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D3" s="75" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10719,13 +10723,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D4" s="75" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10735,13 +10739,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D5" s="75" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10751,13 +10755,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D6" s="75" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10767,13 +10771,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D7" s="75" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10783,7 +10787,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>400</v>
@@ -10797,13 +10801,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D9" s="75" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -10813,13 +10817,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D10" s="75" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -10829,13 +10833,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D11" s="75" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -10845,13 +10849,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D12" s="75" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -10861,13 +10865,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D13" s="75" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -10877,13 +10881,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D14" s="75" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -10893,13 +10897,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D15" s="75" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -10950,10 +10954,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>61</v>
@@ -10961,19 +10965,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10982,19 +10986,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11003,19 +11007,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11024,17 +11028,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11043,17 +11047,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11062,17 +11066,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11081,19 +11085,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11102,17 +11106,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11121,17 +11125,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11140,17 +11144,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11159,17 +11163,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11178,19 +11182,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11199,17 +11203,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11218,17 +11222,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11237,17 +11241,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11256,17 +11260,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11275,19 +11279,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11296,19 +11300,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1919</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1918</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11317,17 +11321,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11336,17 +11340,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11355,17 +11359,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11374,17 +11378,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11393,17 +11397,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11412,17 +11416,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11431,19 +11435,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11452,17 +11456,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11471,17 +11475,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11490,17 +11494,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11509,17 +11513,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11528,17 +11532,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11547,19 +11551,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>1951</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1950</v>
-      </c>
       <c r="E32" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11568,17 +11572,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11587,19 +11591,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11654,10 +11658,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11668,10 +11672,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11682,10 +11686,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11696,10 +11700,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -11710,10 +11714,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -11724,10 +11728,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -11738,10 +11742,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -11752,10 +11756,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -11766,10 +11770,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -11780,10 +11784,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -11835,7 +11839,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>61</v>
@@ -11843,16 +11847,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11861,16 +11865,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11879,16 +11883,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>1971</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>1970</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11897,16 +11901,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11915,16 +11919,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11933,16 +11937,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -12002,28 +12006,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="H1" s="72" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>60</v>
@@ -12034,7 +12038,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12042,13 +12046,13 @@
       <c r="E2" s="77"/>
       <c r="F2" s="76"/>
       <c r="G2" s="74" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="J2" s="77"/>
       <c r="K2" s="74" t="str">
@@ -12058,7 +12062,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -12066,13 +12070,13 @@
       <c r="E3" s="77"/>
       <c r="F3" s="76"/>
       <c r="G3" s="74" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H3" s="74" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J3" s="77"/>
       <c r="K3" s="74" t="str">
@@ -12082,23 +12086,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="77"/>
       <c r="F4" s="75" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="74" t="str">
@@ -12108,17 +12112,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
       <c r="D5" s="78"/>
       <c r="E5" s="77"/>
       <c r="F5" s="75" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H5" s="74" t="s">
         <v>661</v>
@@ -12240,10 +12244,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D1" s="81"/>
       <c r="E1" s="80" t="s">
@@ -12260,15 +12264,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="83" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
@@ -12280,15 +12284,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="83" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
@@ -12300,12 +12304,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="83" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>5</v>
@@ -12320,15 +12324,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="83" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
       <c r="D5" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
@@ -12340,15 +12344,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="83" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
@@ -12360,15 +12364,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="83" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7" s="77"/>
       <c r="C7" s="77"/>
       <c r="D7" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
@@ -12380,15 +12384,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="83" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="77"/>
       <c r="D8" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
@@ -12400,20 +12404,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="83" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="75" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I9" s="83" t="str">
         <f aca="false">A9</f>
@@ -12422,15 +12426,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="83" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
       <c r="D10" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
@@ -12442,20 +12446,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="83" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="75" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I11" s="83" t="str">
         <f aca="false">A11</f>
@@ -12464,20 +12468,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="83" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="75" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="I12" s="83" t="str">
         <f aca="false">A12</f>
@@ -12486,15 +12490,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="83" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="77"/>
       <c r="C13" s="77"/>
       <c r="D13" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
@@ -12506,15 +12510,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="83" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="74" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
@@ -12526,7 +12530,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="83" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
@@ -12542,13 +12546,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="83" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
       <c r="D16" s="78"/>
       <c r="E16" s="57" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
@@ -12560,13 +12564,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="83" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
       <c r="D17" s="78"/>
       <c r="E17" s="79" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -12578,15 +12582,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="83" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="74" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E18" s="79" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
@@ -12598,15 +12602,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="83" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
       <c r="D19" s="74" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
@@ -12618,7 +12622,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="83" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -12634,15 +12638,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="83" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="74" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
@@ -12654,15 +12658,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="83" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="77"/>
       <c r="D22" s="74" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
@@ -12674,7 +12678,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="83" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="77"/>
@@ -12690,7 +12694,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="83" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
@@ -12706,7 +12710,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="83" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B25" s="77"/>
       <c r="C25" s="77"/>
@@ -12722,15 +12726,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="83" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
       <c r="D26" s="74" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E26" s="79" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
@@ -12742,7 +12746,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="83" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
@@ -12758,7 +12762,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="83" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
@@ -12774,7 +12778,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="83" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -12790,7 +12794,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="83" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -12806,13 +12810,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="83" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="77"/>
       <c r="D31" s="78"/>
       <c r="E31" s="57" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="F31" s="78"/>
       <c r="G31" s="78"/>
@@ -12824,7 +12828,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="83" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="77"/>
@@ -12840,15 +12844,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="83" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="74" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="78"/>
@@ -12860,15 +12864,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="83" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="74" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="F34" s="78"/>
       <c r="G34" s="78"/>
@@ -12880,15 +12884,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="83" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
       <c r="D35" s="74" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="E35" s="79" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="F35" s="78"/>
       <c r="G35" s="78"/>
@@ -22498,14 +22502,14 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="52" t="s">
-        <v>605</v>
+        <v>945</v>
       </c>
       <c r="L100" s="52" t="s">
         <v>668</v>
       </c>
       <c r="M100" s="20"/>
-      <c r="N100" s="52" t="s">
-        <v>528</v>
+      <c r="N100" s="56" t="s">
+        <v>1071</v>
       </c>
       <c r="O100" s="24" t="str">
         <f aca="false">A100&amp;" - "&amp;B100</f>
@@ -22514,10 +22518,10 @@
     </row>
     <row r="101" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>1046</v>
@@ -22539,7 +22543,7 @@
       </c>
       <c r="M101" s="20"/>
       <c r="N101" s="56" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O101" s="24" t="str">
         <f aca="false">A101&amp;" - "&amp;B101</f>
@@ -22548,10 +22552,10 @@
     </row>
     <row r="102" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>706</v>
@@ -22580,19 +22584,19 @@
     </row>
     <row r="103" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
@@ -22609,7 +22613,7 @@
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="56" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O103" s="24" t="str">
         <f aca="false">A103&amp;" - "&amp;B103</f>
@@ -22618,16 +22622,16 @@
     </row>
     <row r="104" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="24" t="s">
@@ -22649,7 +22653,7 @@
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="56" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O104" s="24" t="str">
         <f aca="false">A104&amp;" - "&amp;B104</f>
@@ -22658,20 +22662,20 @@
     </row>
     <row r="105" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="24" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="24" t="s">
@@ -22687,7 +22691,7 @@
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="58" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="O105" s="24" t="str">
         <f aca="false">A105&amp;" - "&amp;B105</f>
@@ -22696,16 +22700,16 @@
     </row>
     <row r="106" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -22723,7 +22727,7 @@
       </c>
       <c r="M106" s="20"/>
       <c r="N106" s="52" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O106" s="24" t="str">
         <f aca="false">A106&amp;" - "&amp;B106</f>
@@ -22732,10 +22736,10 @@
     </row>
     <row r="107" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>836</v>
@@ -22757,7 +22761,7 @@
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="63" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O107" s="24" t="str">
         <f aca="false">A107&amp;" - "&amp;B107</f>
@@ -22766,10 +22770,10 @@
     </row>
     <row r="108" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>706</v>
@@ -22795,7 +22799,7 @@
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="52" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O108" s="24" t="str">
         <f aca="false">A108&amp;" - "&amp;B108</f>
@@ -22804,19 +22808,19 @@
     </row>
     <row r="109" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>755</v>
@@ -22837,7 +22841,7 @@
       </c>
       <c r="M109" s="20"/>
       <c r="N109" s="58" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O109" s="24" t="str">
         <f aca="false">A109&amp;" - "&amp;B109</f>
@@ -22846,17 +22850,17 @@
     </row>
     <row r="110" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="24" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
@@ -22873,7 +22877,7 @@
       </c>
       <c r="M110" s="20"/>
       <c r="N110" s="56" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O110" s="24" t="str">
         <f aca="false">A110&amp;" - "&amp;B110</f>
@@ -22882,16 +22886,16 @@
     </row>
     <row r="111" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -22911,7 +22915,7 @@
       </c>
       <c r="M111" s="20"/>
       <c r="N111" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="O111" s="24" t="str">
         <f aca="false">A111&amp;" - "&amp;B111</f>
@@ -22920,20 +22924,20 @@
     </row>
     <row r="112" customFormat="false" ht="215.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="24" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24" t="s">
@@ -22951,7 +22955,7 @@
       </c>
       <c r="M112" s="20"/>
       <c r="N112" s="66" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O112" s="24" t="str">
         <f aca="false">A112&amp;" - "&amp;B112</f>
@@ -22960,10 +22964,10 @@
     </row>
     <row r="113" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>753</v>
@@ -22979,7 +22983,7 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="K113" s="56" t="s">
         <v>558</v>
@@ -22989,7 +22993,7 @@
       </c>
       <c r="M113" s="20"/>
       <c r="N113" s="66" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O113" s="24" t="str">
         <f aca="false">A113&amp;" - "&amp;B113</f>
@@ -22998,10 +23002,10 @@
     </row>
     <row r="114" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>753</v>
@@ -23009,7 +23013,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="24" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
@@ -23027,7 +23031,7 @@
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="58" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O114" s="24" t="str">
         <f aca="false">A114&amp;" - "&amp;B114</f>
@@ -23036,20 +23040,20 @@
     </row>
     <row r="115" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="24" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
@@ -23067,7 +23071,7 @@
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="66" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O115" s="24" t="str">
         <f aca="false">A115&amp;" - "&amp;B115</f>
@@ -23076,20 +23080,20 @@
     </row>
     <row r="116" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="24" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
@@ -23107,7 +23111,7 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="66" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
@@ -23116,16 +23120,16 @@
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23152,20 +23156,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23183,7 +23187,7 @@
       </c>
       <c r="M118" s="20"/>
       <c r="N118" s="66" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
@@ -23192,16 +23196,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23221,7 +23225,7 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="66" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
@@ -23230,16 +23234,16 @@
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23259,7 +23263,7 @@
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="66" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
@@ -23268,16 +23272,16 @@
     </row>
     <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23297,7 +23301,7 @@
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="66" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
@@ -23306,16 +23310,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23325,7 +23329,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23335,7 +23339,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23344,16 +23348,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23380,16 +23384,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23409,7 +23413,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="66" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23418,16 +23422,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23454,16 +23458,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23475,7 +23479,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23492,16 +23496,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23513,7 +23517,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23523,7 +23527,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23532,19 +23536,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23554,7 +23558,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="65" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23565,7 +23569,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23574,16 +23578,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23603,7 +23607,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23612,16 +23616,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23641,7 +23645,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23650,20 +23654,20 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
@@ -23681,7 +23685,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23690,10 +23694,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -23707,7 +23711,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -23717,7 +23721,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -23726,20 +23730,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -23757,7 +23761,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -23766,16 +23770,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -23791,11 +23795,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -23804,16 +23808,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -23835,7 +23839,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -23844,22 +23848,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -23884,16 +23888,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -23920,16 +23924,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -23949,7 +23953,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -23958,20 +23962,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -23989,7 +23993,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -23998,32 +24002,32 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="K140" s="56" t="s">
         <v>441</v>
@@ -24033,7 +24037,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -24042,20 +24046,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -24063,7 +24067,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -24073,7 +24077,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -24082,16 +24086,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -24101,7 +24105,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -24111,7 +24115,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24120,10 +24124,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24131,7 +24135,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24139,7 +24143,7 @@
       </c>
       <c r="I143" s="20"/>
       <c r="J143" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="K143" s="56" t="s">
         <v>477</v>
@@ -24149,7 +24153,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24158,16 +24162,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24189,7 +24193,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24198,20 +24202,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24229,7 +24233,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24238,20 +24242,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24259,7 +24263,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24276,10 +24280,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24303,7 +24307,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24312,20 +24316,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24343,7 +24347,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24352,16 +24356,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24381,7 +24385,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24390,10 +24394,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24417,7 +24421,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24426,16 +24430,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24455,7 +24459,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24464,10 +24468,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24491,7 +24495,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24500,19 +24504,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24529,7 +24533,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24538,10 +24542,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24551,7 +24555,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24570,22 +24574,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24604,10 +24608,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24634,10 +24638,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -24725,31 +24729,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -24757,32 +24761,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -24795,29 +24799,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -24827,32 +24831,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -24865,29 +24869,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -24897,32 +24901,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -24932,32 +24936,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -24967,32 +24971,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -25002,32 +25006,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -25037,34 +25041,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -25074,34 +25078,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -25111,32 +25115,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25146,32 +25150,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25181,32 +25185,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25216,32 +25220,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25251,32 +25255,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25286,30 +25290,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25319,35 +25323,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25356,10 +25360,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25369,20 +25373,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25391,37 +25395,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25430,33 +25434,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25465,33 +25469,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25500,35 +25504,35 @@
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25537,35 +25541,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25574,33 +25578,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25609,35 +25613,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25646,33 +25650,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25681,33 +25685,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -25716,33 +25720,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -25751,37 +25755,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -25790,33 +25794,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -25825,33 +25829,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -25860,35 +25864,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -25897,37 +25901,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -25936,35 +25940,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -25973,35 +25977,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -26010,33 +26014,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -26045,33 +26049,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -26080,33 +26084,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -26115,35 +26119,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26152,33 +26156,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26187,33 +26191,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26222,37 +26226,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26261,35 +26265,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26298,33 +26302,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26333,34 +26337,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26370,32 +26374,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26405,32 +26409,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26440,30 +26444,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26473,32 +26477,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26508,32 +26512,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26543,34 +26547,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26580,32 +26584,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26615,34 +26619,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26652,32 +26656,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26687,30 +26691,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -26720,34 +26724,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -26757,30 +26761,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -26790,30 +26794,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -26823,32 +26827,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -26858,32 +26862,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -26893,30 +26897,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -26926,32 +26930,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -26961,32 +26965,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3718,9 +3718,9 @@
 TA10 - Go Physical
 T0007 - Create fake Social Media Profiles / Pages / Groups
 T0009 - Create fake experts
+T0045 - Use fale experts
 T0011 - Hijack legitimate account
 T0014 - Create funding campaigns
-T0017 - Promote online funding
 T0018 - Paid targeted ads
 T0045 - Use fake experts</t>
   </si>
@@ -3738,9 +3738,7 @@
 TA09 - Exposure
 TA10 - Go Physical
 T0007 - Create fake Social Media Profiles / Pages / Groups
-T0011 - Hijack legitimate account
-T0017 - Promote online funding
-T0045 - Use fake experts</t>
+T0043 - Use SMS/ WhatsApp/ Chat apps</t>
   </si>
   <si>
     <t xml:space="preserve">C00136</t>
@@ -3754,12 +3752,28 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TA08 - Pump Priming
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TA08 - Pump Priming
 TA09 - Exposure
 TA10 - Go Physical
-T0005 - Center of Gravity Analysis
 T0010 - Cultivate ignorant agents
-T0029 - Manipulate online polls</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0020 - Trial content
+T0063 - Social media engagement</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00137</t>
@@ -18909,8 +18923,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N100" activeCellId="0" sqref="N100"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N97" activeCellId="0" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22390,7 +22404,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="52" t="s">
-        <v>605</v>
+        <v>441</v>
       </c>
       <c r="L97" s="52" t="s">
         <v>668</v>
@@ -22428,7 +22442,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="52" t="s">
-        <v>605</v>
+        <v>477</v>
       </c>
       <c r="L98" s="52" t="s">
         <v>668</v>
@@ -22464,7 +22478,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="52" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="L99" s="52" t="s">
         <v>668</v>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="2078">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -3539,19 +3539,40 @@
     <t xml:space="preserve">Don't engage with payloads</t>
   </si>
   <si>
-    <t xml:space="preserve">C00115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expose actor and intentions</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0039 - Bait legitimate inffluencers 
+T0048 - Cow online opinion leaders
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">T0046 - Search engine optimization
+      <t xml:space="preserve">T0063 - Social media engagement</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C00115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expose actor and intentions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0041 - Deny involvement
 </t>
     </r>
     <r>
@@ -3561,13 +3582,20 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T0048
-T0052
-T0053
-T0054
-T0055
-T0056</t>
+      <t xml:space="preserve">T0048 - Cow online opinion leaders
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T0052 - Tertiary sites amplify news
+T0053 - Twitter trolls amplify and manipulate
+T0056 - Dedicated channels disseminate information pollution</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00116</t>
@@ -3582,10 +3610,54 @@
     <t xml:space="preserve">C00117</t>
   </si>
   <si>
-    <t xml:space="preserve">Downgrade de-amplify label promote counter to disinformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0046 - Search engine optimization</t>
+    <t xml:space="preserve">Downgrade / de-amplify so message is seen by fewer people</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0046 - Search engine optimization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0022 - Conspiracy narratives
+T0021 - Memes 
+T0025 - Leak altered documents
+T0024 - Create fake videos and images
+T0026 - Create fake research
+T0045 - Use fake experts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T0044 - Seed distortions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0060 - Continue to amplify
+T0063 - Social media engagement</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00118</t>
@@ -8516,10 +8588,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>60</v>
@@ -8527,10 +8599,10 @@
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>703</v>
@@ -8542,10 +8614,10 @@
     </row>
     <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>703</v>
@@ -8557,25 +8629,25 @@
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>703</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>703</v>
@@ -8587,10 +8659,10 @@
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>703</v>
@@ -8602,10 +8674,10 @@
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>703</v>
@@ -8617,13 +8689,13 @@
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>271</v>
@@ -8632,13 +8704,13 @@
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>268</v>
@@ -8647,13 +8719,13 @@
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>163</v>
@@ -8662,13 +8734,13 @@
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -8677,13 +8749,13 @@
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>280</v>
@@ -8692,13 +8764,13 @@
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>196</v>
@@ -8707,28 +8779,28 @@
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>139</v>
@@ -8737,28 +8809,28 @@
     </row>
     <row r="16" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>247</v>
@@ -8767,13 +8839,13 @@
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>172</v>
@@ -8782,13 +8854,13 @@
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>199</v>
@@ -8797,13 +8869,13 @@
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>238</v>
@@ -8812,13 +8884,13 @@
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>181</v>
@@ -8827,28 +8899,28 @@
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>130</v>
@@ -8857,13 +8929,13 @@
     </row>
     <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>226</v>
@@ -8872,28 +8944,28 @@
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>139</v>
@@ -8902,13 +8974,13 @@
     </row>
     <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>271</v>
@@ -8917,13 +8989,13 @@
     </row>
     <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>268</v>
@@ -8932,13 +9004,13 @@
     </row>
     <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>244</v>
@@ -8947,28 +9019,28 @@
     </row>
     <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>130</v>
@@ -8977,13 +9049,13 @@
     </row>
     <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>265</v>
@@ -8992,13 +9064,13 @@
     </row>
     <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>271</v>
@@ -9007,13 +9079,13 @@
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>268</v>
@@ -9022,13 +9094,13 @@
     </row>
     <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>247</v>
@@ -9037,13 +9109,13 @@
     </row>
     <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>139</v>
@@ -9052,13 +9124,13 @@
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>130</v>
@@ -9067,28 +9139,28 @@
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>169</v>
@@ -9097,13 +9169,13 @@
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>226</v>
@@ -9112,13 +9184,13 @@
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
@@ -9127,13 +9199,13 @@
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>184</v>
@@ -9142,13 +9214,13 @@
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>241</v>
@@ -9157,13 +9229,13 @@
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>226</v>
@@ -9172,13 +9244,13 @@
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>184</v>
@@ -9187,13 +9259,13 @@
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>271</v>
@@ -9202,13 +9274,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>268</v>
@@ -9217,13 +9289,13 @@
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>163</v>
@@ -9232,13 +9304,13 @@
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>130</v>
@@ -9247,13 +9319,13 @@
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>280</v>
@@ -9262,13 +9334,13 @@
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>196</v>
@@ -9277,28 +9349,28 @@
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>139</v>
@@ -9307,28 +9379,28 @@
     </row>
     <row r="54" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>169</v>
@@ -9337,13 +9409,13 @@
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>247</v>
@@ -9352,13 +9424,13 @@
     </row>
     <row r="57" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>172</v>
@@ -9367,13 +9439,13 @@
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>157</v>
@@ -9382,13 +9454,13 @@
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>199</v>
@@ -9397,13 +9469,13 @@
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>184</v>
@@ -9412,13 +9484,13 @@
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>271</v>
@@ -9427,13 +9499,13 @@
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>268</v>
@@ -9442,13 +9514,13 @@
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>130</v>
@@ -9457,13 +9529,13 @@
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>271</v>
@@ -9472,13 +9544,13 @@
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>268</v>
@@ -9487,13 +9559,13 @@
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>112</v>
@@ -9502,28 +9574,28 @@
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>139</v>
@@ -9532,13 +9604,13 @@
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>247</v>
@@ -9547,13 +9619,13 @@
     </row>
     <row r="70" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>265</v>
@@ -9562,28 +9634,28 @@
     </row>
     <row r="71" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>229</v>
@@ -9592,13 +9664,13 @@
     </row>
     <row r="73" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>271</v>
@@ -9607,13 +9679,13 @@
     </row>
     <row r="74" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>268</v>
@@ -9622,13 +9694,13 @@
     </row>
     <row r="75" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>130</v>
@@ -9637,13 +9709,13 @@
     </row>
     <row r="76" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>280</v>
@@ -9652,43 +9724,43 @@
     </row>
     <row r="77" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>169</v>
@@ -9697,13 +9769,13 @@
     </row>
     <row r="80" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>247</v>
@@ -9712,13 +9784,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>139</v>
@@ -9727,13 +9799,13 @@
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>256</v>
@@ -9742,13 +9814,13 @@
     </row>
     <row r="83" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>262</v>
@@ -9757,13 +9829,13 @@
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>259</v>
@@ -9772,28 +9844,28 @@
     </row>
     <row r="85" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>115</v>
@@ -9802,13 +9874,13 @@
     </row>
     <row r="87" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>115</v>
@@ -9817,13 +9889,13 @@
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>256</v>
@@ -9832,13 +9904,13 @@
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>256</v>
@@ -9847,13 +9919,13 @@
     </row>
     <row r="90" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>142</v>
@@ -9862,13 +9934,13 @@
     </row>
     <row r="91" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>271</v>
@@ -9877,13 +9949,13 @@
     </row>
     <row r="92" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>181</v>
@@ -9892,13 +9964,13 @@
     </row>
     <row r="93" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>172</v>
@@ -9907,13 +9979,13 @@
     </row>
     <row r="94" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>271</v>
@@ -9922,13 +9994,13 @@
     </row>
     <row r="95" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>268</v>
@@ -9937,43 +10009,43 @@
     </row>
     <row r="96" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>169</v>
@@ -9982,13 +10054,13 @@
     </row>
     <row r="99" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>247</v>
@@ -9997,13 +10069,13 @@
     </row>
     <row r="100" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>139</v>
@@ -10012,13 +10084,13 @@
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>136</v>
@@ -10027,13 +10099,13 @@
     </row>
     <row r="102" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>112</v>
@@ -10042,13 +10114,13 @@
     </row>
     <row r="103" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>112</v>
@@ -10057,13 +10129,13 @@
     </row>
     <row r="104" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>178</v>
@@ -10072,13 +10144,13 @@
     </row>
     <row r="105" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>271</v>
@@ -10087,13 +10159,13 @@
     </row>
     <row r="106" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>268</v>
@@ -10102,13 +10174,13 @@
     </row>
     <row r="107" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>229</v>
@@ -10117,13 +10189,13 @@
     </row>
     <row r="108" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>271</v>
@@ -10132,13 +10204,13 @@
     </row>
     <row r="109" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>268</v>
@@ -10147,13 +10219,13 @@
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>112</v>
@@ -10162,28 +10234,28 @@
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>139</v>
@@ -10192,13 +10264,13 @@
     </row>
     <row r="113" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>247</v>
@@ -10207,13 +10279,13 @@
     </row>
     <row r="114" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>265</v>
@@ -10222,28 +10294,28 @@
     </row>
     <row r="115" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>271</v>
@@ -10252,13 +10324,13 @@
     </row>
     <row r="117" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>268</v>
@@ -10267,28 +10339,28 @@
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>139</v>
@@ -10297,13 +10369,13 @@
     </row>
     <row r="120" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>247</v>
@@ -10312,13 +10384,13 @@
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>265</v>
@@ -10327,28 +10399,28 @@
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>184</v>
@@ -10357,13 +10429,13 @@
     </row>
     <row r="124" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>271</v>
@@ -10372,13 +10444,13 @@
     </row>
     <row r="125" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>268</v>
@@ -10387,28 +10459,28 @@
     </row>
     <row r="126" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>139</v>
@@ -10417,28 +10489,28 @@
     </row>
     <row r="128" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>247</v>
@@ -10447,13 +10519,13 @@
     </row>
     <row r="130" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>277</v>
@@ -10462,13 +10534,13 @@
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>178</v>
@@ -10477,13 +10549,13 @@
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -10492,28 +10564,28 @@
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>112</v>
@@ -10522,13 +10594,13 @@
     </row>
     <row r="135" customFormat="false" ht="68.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>112</v>
@@ -10537,13 +10609,13 @@
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>271</v>
@@ -10552,13 +10624,13 @@
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>268</v>
@@ -10567,13 +10639,13 @@
     </row>
     <row r="138" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>130</v>
@@ -10582,13 +10654,13 @@
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>247</v>
@@ -10597,28 +10669,28 @@
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>133</v>
@@ -10627,13 +10699,13 @@
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>283</v>
@@ -10642,13 +10714,13 @@
     </row>
     <row r="143" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>271</v>
@@ -10657,13 +10729,13 @@
     </row>
     <row r="144" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>268</v>
@@ -10672,13 +10744,13 @@
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>112</v>
@@ -10687,28 +10759,28 @@
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>139</v>
@@ -10717,13 +10789,13 @@
     </row>
     <row r="148" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>247</v>
@@ -10732,13 +10804,13 @@
     </row>
     <row r="149" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>265</v>
@@ -10747,16 +10819,16 @@
     </row>
     <row r="150" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E150" s="20"/>
     </row>
@@ -10814,13 +10886,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -10830,13 +10902,13 @@
     </row>
     <row r="3" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -10846,13 +10918,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -10862,13 +10934,13 @@
     </row>
     <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -10878,13 +10950,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -10894,13 +10966,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -10910,13 +10982,13 @@
     </row>
     <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -10986,13 +11058,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="78" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D2" s="79" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11002,13 +11074,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="78" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D3" s="79" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11018,13 +11090,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="78" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B4" s="79" t="s">
         <v>699</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D4" s="79" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11034,13 +11106,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="78" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D5" s="79" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11050,13 +11122,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="78" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D6" s="79" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11066,13 +11138,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="78" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D7" s="79" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11082,7 +11154,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="78" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>400</v>
@@ -11096,13 +11168,13 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="78" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D9" s="79" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11112,13 +11184,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="78" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D10" s="79" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11128,13 +11200,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="78" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D11" s="79" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11144,13 +11216,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="78" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D12" s="79" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11160,13 +11232,13 @@
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="78" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D13" s="79" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11176,13 +11248,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="78" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D14" s="79" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11192,13 +11264,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="78" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D15" s="79" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11249,10 +11321,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>61</v>
@@ -11260,19 +11332,19 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -11281,19 +11353,19 @@
     </row>
     <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -11302,19 +11374,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -11323,17 +11395,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -11342,17 +11414,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -11361,17 +11433,17 @@
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -11380,19 +11452,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F8" s="24" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
@@ -11401,17 +11473,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F9" s="24" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
@@ -11420,17 +11492,17 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F10" s="24" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
@@ -11439,17 +11511,17 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F11" s="24" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
@@ -11458,17 +11530,17 @@
     </row>
     <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F12" s="24" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
@@ -11477,19 +11549,19 @@
     </row>
     <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -11498,17 +11570,17 @@
     </row>
     <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -11517,17 +11589,17 @@
     </row>
     <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -11536,17 +11608,17 @@
     </row>
     <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">A16&amp;" - "&amp;B16</f>
@@ -11555,17 +11627,17 @@
     </row>
     <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F17" s="24" t="str">
         <f aca="false">A17&amp;" - "&amp;B17</f>
@@ -11574,19 +11646,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -11595,19 +11667,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1926</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1925</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -11616,17 +11688,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -11635,17 +11707,17 @@
     </row>
     <row r="21" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -11654,17 +11726,17 @@
     </row>
     <row r="22" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -11673,17 +11745,17 @@
     </row>
     <row r="23" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="24" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -11692,17 +11764,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -11711,17 +11783,17 @@
     </row>
     <row r="25" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -11730,19 +11802,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -11751,17 +11823,17 @@
     </row>
     <row r="27" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -11770,17 +11842,17 @@
     </row>
     <row r="28" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -11789,17 +11861,17 @@
     </row>
     <row r="29" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -11808,17 +11880,17 @@
     </row>
     <row r="30" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -11827,17 +11899,17 @@
     </row>
     <row r="31" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -11846,19 +11918,19 @@
     </row>
     <row r="32" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>1958</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1957</v>
-      </c>
       <c r="E32" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -11867,17 +11939,17 @@
     </row>
     <row r="33" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -11886,19 +11958,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -11953,10 +12025,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -11967,10 +12039,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -11981,10 +12053,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -11995,10 +12067,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -12009,10 +12081,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -12023,10 +12095,10 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -12037,10 +12109,10 @@
     </row>
     <row r="8" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -12051,10 +12123,10 @@
     </row>
     <row r="9" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -12065,10 +12137,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -12079,10 +12151,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -12134,7 +12206,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>61</v>
@@ -12142,16 +12214,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2" s="24" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
@@ -12160,16 +12232,16 @@
     </row>
     <row r="3" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E3" s="24" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
@@ -12178,16 +12250,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>1978</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>1977</v>
       </c>
       <c r="E4" s="24" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
@@ -12196,16 +12268,16 @@
     </row>
     <row r="5" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E5" s="24" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
@@ -12214,16 +12286,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E6" s="24" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
@@ -12232,16 +12304,16 @@
     </row>
     <row r="7" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E7" s="24" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
@@ -12301,28 +12373,28 @@
         <v>57</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E1" s="76" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H1" s="76" t="s">
         <v>407</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J1" s="76" t="s">
         <v>60</v>
@@ -12333,7 +12405,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="78" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -12341,13 +12413,13 @@
       <c r="E2" s="81"/>
       <c r="F2" s="80"/>
       <c r="G2" s="78" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="J2" s="81"/>
       <c r="K2" s="78" t="str">
@@ -12357,7 +12429,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="78" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
@@ -12365,13 +12437,13 @@
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
       <c r="G3" s="78" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H3" s="78" t="s">
         <v>823</v>
       </c>
       <c r="I3" s="83" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="78" t="str">
@@ -12381,23 +12453,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="78" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="82"/>
       <c r="E4" s="81"/>
       <c r="F4" s="79" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H4" s="78" t="s">
         <v>823</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="J4" s="81"/>
       <c r="K4" s="78" t="str">
@@ -12407,17 +12479,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="78" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
       <c r="D5" s="82"/>
       <c r="E5" s="81"/>
       <c r="F5" s="79" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>661</v>
@@ -12539,10 +12611,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D1" s="85"/>
       <c r="E1" s="84" t="s">
@@ -12559,15 +12631,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="87" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
       <c r="D2" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F2" s="82"/>
       <c r="G2" s="82"/>
@@ -12579,15 +12651,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="87" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
       <c r="D3" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
@@ -12599,12 +12671,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="87" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E4" s="83" t="s">
         <v>5</v>
@@ -12619,15 +12691,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="87" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
       <c r="D5" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
@@ -12639,15 +12711,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
       <c r="D6" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
@@ -12659,15 +12731,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="D7" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
@@ -12679,15 +12751,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="87" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
       <c r="D8" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F8" s="82"/>
       <c r="G8" s="82"/>
@@ -12699,20 +12771,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
       <c r="H9" s="79" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="I9" s="87" t="str">
         <f aca="false">A9</f>
@@ -12721,15 +12793,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="87" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
       <c r="D10" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
@@ -12741,20 +12813,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="87" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="79" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I11" s="87" t="str">
         <f aca="false">A11</f>
@@ -12763,20 +12835,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="87" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
       <c r="D12" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="79" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I12" s="87" t="str">
         <f aca="false">A12</f>
@@ -12785,15 +12857,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="87" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
       <c r="D13" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -12805,15 +12877,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="87" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
       <c r="D14" s="78" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
@@ -12825,7 +12897,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="87" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
@@ -12841,13 +12913,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="87" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="82"/>
       <c r="E16" s="57" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
@@ -12859,13 +12931,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="87" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="82"/>
       <c r="E17" s="83" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
@@ -12877,15 +12949,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="87" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
       <c r="D18" s="78" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F18" s="82"/>
       <c r="G18" s="82"/>
@@ -12897,15 +12969,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="87" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
       <c r="D19" s="78" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="82"/>
@@ -12917,7 +12989,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="87" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81"/>
@@ -12933,15 +13005,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="87" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
       <c r="D21" s="78" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
@@ -12953,15 +13025,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="87" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="81"/>
       <c r="D22" s="78" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
@@ -12973,7 +13045,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="87" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B23" s="81"/>
       <c r="C23" s="81"/>
@@ -12989,7 +13061,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="87" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B24" s="81"/>
       <c r="C24" s="81"/>
@@ -13005,7 +13077,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="87" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
@@ -13021,15 +13093,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="87" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B26" s="81"/>
       <c r="C26" s="81"/>
       <c r="D26" s="78" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -13041,7 +13113,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="87" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
@@ -13057,7 +13129,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="87" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
@@ -13073,7 +13145,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="87" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
@@ -13089,7 +13161,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="87" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
@@ -13105,13 +13177,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="87" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
       <c r="D31" s="82"/>
       <c r="E31" s="57" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F31" s="82"/>
       <c r="G31" s="82"/>
@@ -13123,7 +13195,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="87" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B32" s="81"/>
       <c r="C32" s="81"/>
@@ -13139,15 +13211,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="87" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B33" s="81"/>
       <c r="C33" s="81"/>
       <c r="D33" s="78" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="F33" s="82"/>
       <c r="G33" s="82"/>
@@ -13159,15 +13231,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="87" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B34" s="81"/>
       <c r="C34" s="81"/>
       <c r="D34" s="78" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="F34" s="82"/>
       <c r="G34" s="82"/>
@@ -13179,15 +13251,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="87" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
       <c r="D35" s="78" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="F35" s="82"/>
       <c r="G35" s="82"/>
@@ -19204,8 +19276,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N80" activeCellId="0" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22103,20 +22175,20 @@
         <v>713</v>
       </c>
       <c r="M80" s="20"/>
-      <c r="N80" s="52" t="s">
-        <v>226</v>
+      <c r="N80" s="56" t="s">
+        <v>1008</v>
       </c>
       <c r="O80" s="24" t="str">
         <f aca="false">A80&amp;" - "&amp;B80</f>
         <v>C00114 - Don't engage with payloads</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="72.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="97.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>765</v>
@@ -22138,7 +22210,7 @@
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="61" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O81" s="24" t="str">
         <f aca="false">A81&amp;" - "&amp;B81</f>
@@ -22147,10 +22219,10 @@
     </row>
     <row r="82" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>765</v>
@@ -22172,19 +22244,19 @@
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="52" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O82" s="24" t="str">
         <f aca="false">A82&amp;" - "&amp;B82</f>
         <v>C00116 - Provide proof of involvement</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="114.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>760</v>
@@ -22205,20 +22277,20 @@
         <v>721</v>
       </c>
       <c r="M83" s="20"/>
-      <c r="N83" s="52" t="s">
-        <v>1016</v>
+      <c r="N83" s="56" t="s">
+        <v>1017</v>
       </c>
       <c r="O83" s="24" t="str">
         <f aca="false">A83&amp;" - "&amp;B83</f>
-        <v>C00117 - Downgrade de-amplify label promote counter to disinformation</v>
+        <v>C00117 - Downgrade / de-amplify so message is seen by fewer people</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>760</v>
@@ -22240,7 +22312,7 @@
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="62" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O84" s="24" t="str">
         <f aca="false">A84&amp;" - "&amp;B84</f>
@@ -22249,16 +22321,16 @@
     </row>
     <row r="85" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -22276,7 +22348,7 @@
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="63" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O85" s="24" t="str">
         <f aca="false">A85&amp;" - "&amp;B85</f>
@@ -22285,10 +22357,10 @@
     </row>
     <row r="86" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>740</v>
@@ -22310,7 +22382,7 @@
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="56" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O86" s="24" t="str">
         <f aca="false">A86&amp;" - "&amp;B86</f>
@@ -22319,10 +22391,10 @@
     </row>
     <row r="87" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>725</v>
@@ -22344,7 +22416,7 @@
       </c>
       <c r="M87" s="20"/>
       <c r="N87" s="52" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="O87" s="24" t="str">
         <f aca="false">A87&amp;" - "&amp;B87</f>
@@ -22353,7 +22425,7 @@
     </row>
     <row r="88" customFormat="false" ht="271.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>990</v>
@@ -22380,7 +22452,7 @@
       </c>
       <c r="M88" s="20"/>
       <c r="N88" s="64" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O88" s="24" t="str">
         <f aca="false">A88&amp;" - "&amp;B88</f>
@@ -22389,10 +22461,10 @@
     </row>
     <row r="89" customFormat="false" ht="97.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>706</v>
@@ -22414,7 +22486,7 @@
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="56" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O89" s="24" t="str">
         <f aca="false">A89&amp;" - "&amp;B89</f>
@@ -22423,10 +22495,10 @@
     </row>
     <row r="90" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>706</v>
@@ -22434,7 +22506,7 @@
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="24" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G90" s="24"/>
       <c r="H90" s="24" t="s">
@@ -22450,7 +22522,7 @@
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="56" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O90" s="24" t="str">
         <f aca="false">A90&amp;" - "&amp;B90</f>
@@ -22459,10 +22531,10 @@
     </row>
     <row r="91" customFormat="false" ht="129.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>725</v>
@@ -22484,7 +22556,7 @@
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="61" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O91" s="24" t="str">
         <f aca="false">A91&amp;" - "&amp;B91</f>
@@ -22493,10 +22565,10 @@
     </row>
     <row r="92" customFormat="false" ht="146.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>765</v>
@@ -22518,7 +22590,7 @@
       </c>
       <c r="M92" s="20"/>
       <c r="N92" s="61" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O92" s="24" t="str">
         <f aca="false">A92&amp;" - "&amp;B92</f>
@@ -22527,10 +22599,10 @@
     </row>
     <row r="93" customFormat="false" ht="112.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>801</v>
@@ -22538,7 +22610,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="24" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="24" t="s">
@@ -22554,7 +22626,7 @@
       </c>
       <c r="M93" s="20"/>
       <c r="N93" s="58" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O93" s="24" t="str">
         <f aca="false">A93&amp;" - "&amp;B93</f>
@@ -22563,16 +22635,16 @@
     </row>
     <row r="94" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -22590,7 +22662,7 @@
       </c>
       <c r="M94" s="20"/>
       <c r="N94" s="61" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O94" s="24" t="str">
         <f aca="false">A94&amp;" - "&amp;B94</f>
@@ -22599,10 +22671,10 @@
     </row>
     <row r="95" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>725</v>
@@ -22624,7 +22696,7 @@
       </c>
       <c r="M95" s="20"/>
       <c r="N95" s="67" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="O95" s="24" t="str">
         <f aca="false">A95&amp;" - "&amp;B95</f>
@@ -22633,10 +22705,10 @@
     </row>
     <row r="96" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>753</v>
@@ -22644,7 +22716,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="24" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G96" s="24"/>
       <c r="H96" s="24" t="s">
@@ -22660,7 +22732,7 @@
       </c>
       <c r="M96" s="20"/>
       <c r="N96" s="56" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O96" s="24" t="str">
         <f aca="false">A96&amp;" - "&amp;B96</f>
@@ -22669,16 +22741,16 @@
     </row>
     <row r="97" customFormat="false" ht="192.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="24" t="s">
@@ -22698,7 +22770,7 @@
       </c>
       <c r="M97" s="20"/>
       <c r="N97" s="56" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O97" s="24" t="str">
         <f aca="false">A97&amp;" - "&amp;B97</f>
@@ -22707,16 +22779,16 @@
     </row>
     <row r="98" customFormat="false" ht="132.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="24" t="s">
@@ -22736,7 +22808,7 @@
       </c>
       <c r="M98" s="20"/>
       <c r="N98" s="56" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O98" s="24" t="str">
         <f aca="false">A98&amp;" - "&amp;B98</f>
@@ -22745,17 +22817,17 @@
     </row>
     <row r="99" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C99" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
@@ -22772,7 +22844,7 @@
       </c>
       <c r="M99" s="20"/>
       <c r="N99" s="56" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O99" s="24" t="str">
         <f aca="false">A99&amp;" - "&amp;B99</f>
@@ -22781,19 +22853,19 @@
     </row>
     <row r="100" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
@@ -22810,7 +22882,7 @@
       </c>
       <c r="M100" s="20"/>
       <c r="N100" s="56" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O100" s="24" t="str">
         <f aca="false">A100&amp;" - "&amp;B100</f>
@@ -22819,13 +22891,13 @@
     </row>
     <row r="101" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -22844,7 +22916,7 @@
       </c>
       <c r="M101" s="20"/>
       <c r="N101" s="56" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O101" s="24" t="str">
         <f aca="false">A101&amp;" - "&amp;B101</f>
@@ -22853,10 +22925,10 @@
     </row>
     <row r="102" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>706</v>
@@ -22885,19 +22957,19 @@
     </row>
     <row r="103" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
@@ -22914,7 +22986,7 @@
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O103" s="24" t="str">
         <f aca="false">A103&amp;" - "&amp;B103</f>
@@ -22923,16 +22995,16 @@
     </row>
     <row r="104" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="24" t="s">
@@ -22954,7 +23026,7 @@
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="56" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="O104" s="24" t="str">
         <f aca="false">A104&amp;" - "&amp;B104</f>
@@ -22963,20 +23035,20 @@
     </row>
     <row r="105" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="24" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="24" t="s">
@@ -22992,7 +23064,7 @@
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="58" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O105" s="24" t="str">
         <f aca="false">A105&amp;" - "&amp;B105</f>
@@ -23001,16 +23073,16 @@
     </row>
     <row r="106" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -23028,7 +23100,7 @@
       </c>
       <c r="M106" s="20"/>
       <c r="N106" s="52" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O106" s="24" t="str">
         <f aca="false">A106&amp;" - "&amp;B106</f>
@@ -23037,10 +23109,10 @@
     </row>
     <row r="107" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>836</v>
@@ -23062,7 +23134,7 @@
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="61" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O107" s="24" t="str">
         <f aca="false">A107&amp;" - "&amp;B107</f>
@@ -23071,10 +23143,10 @@
     </row>
     <row r="108" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>706</v>
@@ -23100,7 +23172,7 @@
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="52" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O108" s="24" t="str">
         <f aca="false">A108&amp;" - "&amp;B108</f>
@@ -23109,19 +23181,19 @@
     </row>
     <row r="109" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>755</v>
@@ -23142,7 +23214,7 @@
       </c>
       <c r="M109" s="20"/>
       <c r="N109" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O109" s="24" t="str">
         <f aca="false">A109&amp;" - "&amp;B109</f>
@@ -23151,17 +23223,17 @@
     </row>
     <row r="110" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>836</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="24" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
@@ -23178,7 +23250,7 @@
       </c>
       <c r="M110" s="20"/>
       <c r="N110" s="56" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="O110" s="24" t="str">
         <f aca="false">A110&amp;" - "&amp;B110</f>
@@ -23187,16 +23259,16 @@
     </row>
     <row r="111" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B111" s="68" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -23216,7 +23288,7 @@
       </c>
       <c r="M111" s="20"/>
       <c r="N111" s="58" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O111" s="24" t="str">
         <f aca="false">A111&amp;" - "&amp;B111</f>
@@ -23225,20 +23297,20 @@
     </row>
     <row r="112" customFormat="false" ht="215.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="24" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24" t="s">
@@ -23256,7 +23328,7 @@
       </c>
       <c r="M112" s="20"/>
       <c r="N112" s="70" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O112" s="24" t="str">
         <f aca="false">A112&amp;" - "&amp;B112</f>
@@ -23265,10 +23337,10 @@
     </row>
     <row r="113" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>753</v>
@@ -23284,7 +23356,7 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K113" s="56" t="s">
         <v>558</v>
@@ -23294,7 +23366,7 @@
       </c>
       <c r="M113" s="20"/>
       <c r="N113" s="70" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O113" s="24" t="str">
         <f aca="false">A113&amp;" - "&amp;B113</f>
@@ -23303,10 +23375,10 @@
     </row>
     <row r="114" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>753</v>
@@ -23314,7 +23386,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="24" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
@@ -23332,7 +23404,7 @@
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="58" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O114" s="24" t="str">
         <f aca="false">A114&amp;" - "&amp;B114</f>
@@ -23341,20 +23413,20 @@
     </row>
     <row r="115" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="24" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
@@ -23372,7 +23444,7 @@
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="70" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="O115" s="24" t="str">
         <f aca="false">A115&amp;" - "&amp;B115</f>
@@ -23381,20 +23453,20 @@
     </row>
     <row r="116" customFormat="false" ht="158.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="24" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
@@ -23412,7 +23484,7 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="70" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="O116" s="24" t="str">
         <f aca="false">A116&amp;" - "&amp;B116</f>
@@ -23421,16 +23493,16 @@
     </row>
     <row r="117" customFormat="false" ht="146.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -23457,20 +23529,20 @@
     </row>
     <row r="118" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="24" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
@@ -23488,7 +23560,7 @@
       </c>
       <c r="M118" s="20"/>
       <c r="N118" s="70" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="O118" s="24" t="str">
         <f aca="false">A118&amp;" - "&amp;B118</f>
@@ -23497,16 +23569,16 @@
     </row>
     <row r="119" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -23526,7 +23598,7 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="70" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="O119" s="24" t="str">
         <f aca="false">A119&amp;" - "&amp;B119</f>
@@ -23535,16 +23607,16 @@
     </row>
     <row r="120" customFormat="false" ht="170.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -23564,7 +23636,7 @@
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="70" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O120" s="24" t="str">
         <f aca="false">A120&amp;" - "&amp;B120</f>
@@ -23573,16 +23645,16 @@
     </row>
     <row r="121" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -23602,7 +23674,7 @@
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="70" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O121" s="24" t="str">
         <f aca="false">A121&amp;" - "&amp;B121</f>
@@ -23611,16 +23683,16 @@
     </row>
     <row r="122" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -23630,7 +23702,7 @@
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="K122" s="56" t="s">
         <v>503</v>
@@ -23640,7 +23712,7 @@
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="56" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="O122" s="24" t="str">
         <f aca="false">A122&amp;" - "&amp;B122</f>
@@ -23649,16 +23721,16 @@
     </row>
     <row r="123" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -23685,16 +23757,16 @@
     </row>
     <row r="124" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -23714,7 +23786,7 @@
       </c>
       <c r="M124" s="20"/>
       <c r="N124" s="70" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="O124" s="24" t="str">
         <f aca="false">A124&amp;" - "&amp;B124</f>
@@ -23723,16 +23795,16 @@
     </row>
     <row r="125" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -23759,16 +23831,16 @@
     </row>
     <row r="126" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="24" t="s">
@@ -23780,7 +23852,7 @@
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="K126" s="56" t="s">
         <v>503</v>
@@ -23797,16 +23869,16 @@
     </row>
     <row r="127" customFormat="false" ht="92" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
@@ -23818,7 +23890,7 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="K127" s="56" t="s">
         <v>477</v>
@@ -23828,7 +23900,7 @@
       </c>
       <c r="M127" s="20"/>
       <c r="N127" s="58" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="O127" s="24" t="str">
         <f aca="false">A127&amp;" - "&amp;B127</f>
@@ -23837,19 +23909,19 @@
     </row>
     <row r="128" customFormat="false" ht="99.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F128" s="24" t="s">
         <v>762</v>
@@ -23859,7 +23931,7 @@
         <v>841</v>
       </c>
       <c r="I128" s="69" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="52" t="s">
@@ -23870,7 +23942,7 @@
       </c>
       <c r="M128" s="20"/>
       <c r="N128" s="56" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="O128" s="24" t="str">
         <f aca="false">A128&amp;" - "&amp;B128</f>
@@ -23879,16 +23951,16 @@
     </row>
     <row r="129" customFormat="false" ht="328.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -23908,7 +23980,7 @@
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="58" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="O129" s="24" t="str">
         <f aca="false">A129&amp;" - "&amp;B129</f>
@@ -23917,16 +23989,16 @@
     </row>
     <row r="130" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>801</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -23946,7 +24018,7 @@
       </c>
       <c r="M130" s="20"/>
       <c r="N130" s="58" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O130" s="24" t="str">
         <f aca="false">A130&amp;" - "&amp;B130</f>
@@ -23955,20 +24027,20 @@
     </row>
     <row r="131" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="24" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
@@ -23986,7 +24058,7 @@
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="58" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="O131" s="24" t="str">
         <f aca="false">A131&amp;" - "&amp;B131</f>
@@ -23995,10 +24067,10 @@
     </row>
     <row r="132" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>765</v>
@@ -24012,7 +24084,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="24" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="K132" s="56" t="s">
         <v>558</v>
@@ -24022,7 +24094,7 @@
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="58" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="O132" s="24" t="str">
         <f aca="false">A132&amp;" - "&amp;B132</f>
@@ -24031,20 +24103,20 @@
     </row>
     <row r="133" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
@@ -24062,7 +24134,7 @@
       </c>
       <c r="M133" s="20"/>
       <c r="N133" s="58" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="O133" s="24" t="str">
         <f aca="false">A133&amp;" - "&amp;B133</f>
@@ -24071,16 +24143,16 @@
     </row>
     <row r="134" customFormat="false" ht="88.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -24096,11 +24168,11 @@
         <v>441</v>
       </c>
       <c r="L134" s="56" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M134" s="20"/>
       <c r="N134" s="58" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="O134" s="24" t="str">
         <f aca="false">A134&amp;" - "&amp;B134</f>
@@ -24109,16 +24181,16 @@
     </row>
     <row r="135" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="24" t="s">
@@ -24140,7 +24212,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="58" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O135" s="24" t="str">
         <f aca="false">A135&amp;" - "&amp;B135</f>
@@ -24149,22 +24221,22 @@
     </row>
     <row r="136" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
@@ -24189,16 +24261,16 @@
     </row>
     <row r="137" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -24225,16 +24297,16 @@
     </row>
     <row r="138" customFormat="false" ht="133.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -24254,7 +24326,7 @@
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="58" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="O138" s="24" t="str">
         <f aca="false">A138&amp;" - "&amp;B138</f>
@@ -24263,20 +24335,20 @@
     </row>
     <row r="139" customFormat="false" ht="282.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="24" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
@@ -24294,7 +24366,7 @@
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="58" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="O139" s="24" t="str">
         <f aca="false">A139&amp;" - "&amp;B139</f>
@@ -24303,32 +24375,32 @@
     </row>
     <row r="140" customFormat="false" ht="120.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>753</v>
       </c>
       <c r="D140" s="57" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>985</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I140" s="20"/>
       <c r="J140" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K140" s="56" t="s">
         <v>441</v>
@@ -24338,7 +24410,7 @@
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="56" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="O140" s="24" t="str">
         <f aca="false">A140&amp;" - "&amp;B140</f>
@@ -24347,20 +24419,20 @@
     </row>
     <row r="141" customFormat="false" ht="110.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
@@ -24368,7 +24440,7 @@
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="K141" s="56" t="s">
         <v>574</v>
@@ -24378,7 +24450,7 @@
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="58" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O141" s="24" t="str">
         <f aca="false">A141&amp;" - "&amp;B141</f>
@@ -24387,16 +24459,16 @@
     </row>
     <row r="142" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>795</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -24406,7 +24478,7 @@
       </c>
       <c r="I142" s="20"/>
       <c r="J142" s="24" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="K142" s="56" t="s">
         <v>503</v>
@@ -24416,7 +24488,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="56" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="O142" s="24" t="str">
         <f aca="false">A142&amp;" - "&amp;B142</f>
@@ -24425,10 +24497,10 @@
     </row>
     <row r="143" customFormat="false" ht="121.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>706</v>
@@ -24436,7 +24508,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="24" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
@@ -24444,7 +24516,7 @@
       </c>
       <c r="I143" s="20"/>
       <c r="J143" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K143" s="56" t="s">
         <v>477</v>
@@ -24454,7 +24526,7 @@
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="58" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="O143" s="24" t="str">
         <f aca="false">A143&amp;" - "&amp;B143</f>
@@ -24463,16 +24535,16 @@
     </row>
     <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="24" t="s">
@@ -24494,7 +24566,7 @@
       </c>
       <c r="M144" s="20"/>
       <c r="N144" s="58" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="O144" s="24" t="str">
         <f aca="false">A144&amp;" - "&amp;B144</f>
@@ -24503,20 +24575,20 @@
     </row>
     <row r="145" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="24" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
@@ -24534,7 +24606,7 @@
       </c>
       <c r="M145" s="20"/>
       <c r="N145" s="58" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O145" s="24" t="str">
         <f aca="false">A145&amp;" - "&amp;B145</f>
@@ -24543,20 +24615,20 @@
     </row>
     <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>815</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="24" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
@@ -24564,7 +24636,7 @@
       </c>
       <c r="I146" s="20"/>
       <c r="J146" s="24" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="K146" s="56" t="s">
         <v>438</v>
@@ -24581,10 +24653,10 @@
     </row>
     <row r="147" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>760</v>
@@ -24608,7 +24680,7 @@
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="58" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="O147" s="24" t="str">
         <f aca="false">A147&amp;" - "&amp;B147</f>
@@ -24617,20 +24689,20 @@
     </row>
     <row r="148" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>725</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="24" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
@@ -24648,7 +24720,7 @@
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="58" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="O148" s="24" t="str">
         <f aca="false">A148&amp;" - "&amp;B148</f>
@@ -24657,16 +24729,16 @@
     </row>
     <row r="149" customFormat="false" ht="209.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="24" t="s">
@@ -24686,7 +24758,7 @@
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="58" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="O149" s="24" t="str">
         <f aca="false">A149&amp;" - "&amp;B149</f>
@@ -24695,10 +24767,10 @@
     </row>
     <row r="150" customFormat="false" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>740</v>
@@ -24722,7 +24794,7 @@
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="58" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="O150" s="24" t="str">
         <f aca="false">A150&amp;" - "&amp;B150</f>
@@ -24731,16 +24803,16 @@
     </row>
     <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="24" t="s">
@@ -24760,7 +24832,7 @@
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="58" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="O151" s="24" t="str">
         <f aca="false">A151&amp;" - "&amp;B151</f>
@@ -24769,10 +24841,10 @@
     </row>
     <row r="152" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>765</v>
@@ -24796,7 +24868,7 @@
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="58" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="O152" s="24" t="str">
         <f aca="false">A152&amp;" - "&amp;B152</f>
@@ -24805,19 +24877,19 @@
     </row>
     <row r="153" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
@@ -24834,7 +24906,7 @@
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="58" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="O153" s="24" t="str">
         <f aca="false">A153&amp;" - "&amp;B153</f>
@@ -24843,10 +24915,10 @@
     </row>
     <row r="154" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>740</v>
@@ -24856,7 +24928,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="24" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
@@ -24875,22 +24947,22 @@
     </row>
     <row r="155" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>740</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="24" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
@@ -24909,10 +24981,10 @@
     </row>
     <row r="156" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>740</v>
@@ -24939,10 +25011,10 @@
     </row>
     <row r="157" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>725</v>
@@ -25030,31 +25102,31 @@
         <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>61</v>
@@ -25062,32 +25134,32 @@
     </row>
     <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="str">
@@ -25100,29 +25172,29 @@
         <v>703</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="24" t="str">
@@ -25132,32 +25204,32 @@
     </row>
     <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E4" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="24" t="str">
@@ -25170,29 +25242,29 @@
         <v>859</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E5" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24" t="str">
@@ -25202,32 +25274,32 @@
     </row>
     <row r="6" customFormat="false" ht="290.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E6" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="24" t="str">
@@ -25237,32 +25309,32 @@
     </row>
     <row r="7" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="str">
@@ -25272,32 +25344,32 @@
     </row>
     <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="str">
@@ -25307,32 +25379,32 @@
     </row>
     <row r="9" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="str">
@@ -25342,34 +25414,34 @@
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="24" t="str">
@@ -25379,34 +25451,34 @@
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="24" t="str">
@@ -25416,32 +25488,32 @@
     </row>
     <row r="12" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="24" t="str">
@@ -25451,32 +25523,32 @@
     </row>
     <row r="13" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="24" t="str">
@@ -25486,32 +25558,32 @@
     </row>
     <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="24" t="str">
@@ -25521,32 +25593,32 @@
     </row>
     <row r="15" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="24" t="str">
@@ -25556,32 +25628,32 @@
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="24" t="str">
@@ -25591,30 +25663,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="24" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="24" t="str">
@@ -25624,35 +25696,35 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E18" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L18" s="24" t="str">
         <f aca="false">A18&amp;" - "&amp;B18</f>
@@ -25661,10 +25733,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>407</v>
@@ -25674,20 +25746,20 @@
         <v>2016</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="24" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
@@ -25696,37 +25768,37 @@
     </row>
     <row r="20" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -25735,33 +25807,33 @@
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L21" s="24" t="str">
         <f aca="false">A21&amp;" - "&amp;B21</f>
@@ -25770,33 +25842,33 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
@@ -25805,35 +25877,35 @@
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E23" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -25842,35 +25914,35 @@
     </row>
     <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -25879,33 +25951,33 @@
     </row>
     <row r="25" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -25914,35 +25986,35 @@
     </row>
     <row r="26" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E26" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -25951,33 +26023,33 @@
     </row>
     <row r="27" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -25986,33 +26058,33 @@
     </row>
     <row r="28" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -26021,33 +26093,33 @@
     </row>
     <row r="29" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -26056,37 +26128,37 @@
     </row>
     <row r="30" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E30" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -26095,33 +26167,33 @@
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -26130,33 +26202,33 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -26165,35 +26237,35 @@
     </row>
     <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E33" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -26202,37 +26274,37 @@
     </row>
     <row r="34" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E34" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
@@ -26241,35 +26313,35 @@
     </row>
     <row r="35" customFormat="false" ht="122.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -26278,35 +26350,35 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E36" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -26315,33 +26387,33 @@
     </row>
     <row r="37" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -26350,33 +26422,33 @@
     </row>
     <row r="38" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L38" s="24" t="str">
         <f aca="false">A38&amp;" - "&amp;B38</f>
@@ -26385,33 +26457,33 @@
     </row>
     <row r="39" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -26420,35 +26492,35 @@
     </row>
     <row r="40" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E40" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -26457,33 +26529,33 @@
     </row>
     <row r="41" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -26492,33 +26564,33 @@
     </row>
     <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -26527,37 +26599,37 @@
     </row>
     <row r="43" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E43" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -26566,35 +26638,35 @@
     </row>
     <row r="44" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -26603,33 +26675,33 @@
     </row>
     <row r="45" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="E45" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="24" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="24" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -26638,34 +26710,34 @@
     </row>
     <row r="46" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E46" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24" t="str">
@@ -26675,32 +26747,32 @@
     </row>
     <row r="47" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="24" t="str">
@@ -26710,32 +26782,32 @@
     </row>
     <row r="48" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E48" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="24" t="str">
@@ -26745,30 +26817,30 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="24" t="str">
@@ -26778,32 +26850,32 @@
     </row>
     <row r="50" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E50" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="24" t="str">
@@ -26813,32 +26885,32 @@
     </row>
     <row r="51" customFormat="false" ht="110.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E51" s="20" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="24" t="str">
@@ -26848,34 +26920,34 @@
     </row>
     <row r="52" customFormat="false" ht="86.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E52" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24" t="str">
@@ -26885,32 +26957,32 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="24" t="str">
@@ -26920,34 +26992,34 @@
     </row>
     <row r="54" customFormat="false" ht="98.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E54" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="24" t="str">
@@ -26957,32 +27029,32 @@
     </row>
     <row r="55" customFormat="false" ht="74.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="24" t="str">
@@ -26992,30 +27064,30 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="n">
         <v>2008</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="24" t="str">
@@ -27025,34 +27097,34 @@
     </row>
     <row r="57" customFormat="false" ht="194.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E57" s="20" t="n">
         <v>2012</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="24" t="str">
@@ -27062,30 +27134,30 @@
     </row>
     <row r="58" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="24" t="str">
@@ -27095,30 +27167,30 @@
     </row>
     <row r="59" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="24" t="str">
@@ -27128,32 +27200,32 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="n">
         <v>2014</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="24" t="str">
@@ -27163,32 +27235,32 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
         <v>2018</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="24" t="str">
@@ -27198,30 +27270,30 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="n">
         <v>2017</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="24" t="str">
@@ -27231,32 +27303,32 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="24" t="str">
@@ -27266,32 +27338,32 @@
     </row>
     <row r="64" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E64" s="20" t="n">
         <v>2016</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="24" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3508,29 +3508,32 @@
     <t xml:space="preserve">C00111</t>
   </si>
   <si>
-    <t xml:space="preserve">Present sympathetic views of opposite side</t>
+    <t xml:space="preserve">Reduce polarisation by connecting and presenting sympathetic renditions of opposite views</t>
   </si>
   <si>
     <t xml:space="preserve">A021 - media organisation,A013 - content creator</t>
   </si>
   <si>
+    <t xml:space="preserve">T0010 - Cultivate ignorant agents</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00112</t>
   </si>
   <si>
     <t xml:space="preserve">"Prove they are not an op!"</t>
   </si>
   <si>
-    <t xml:space="preserve">This applies to the entirety of the matrix as I read this as "create awareness around the use of all of these techniques"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0040
-T0042</t>
+    <t xml:space="preserve">T0040 - Demand insurmontable proof
+T0042 - Kernel of truth</t>
   </si>
   <si>
     <t xml:space="preserve">C00113</t>
   </si>
   <si>
     <t xml:space="preserve">Debunk and defuse a fake expert / credentials. Attack audience quality of fake expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0045 - Use fake experts</t>
   </si>
   <si>
     <t xml:space="preserve">C00114</t>
@@ -3549,14 +3552,6 @@
       <t xml:space="preserve">T0039 - Bait legitimate inffluencers 
 T0048 - Cow online opinion leaders
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">T0063 - Social media engagement</t>
     </r>
   </si>
   <si>
@@ -3656,7 +3651,7 @@
         <family val="0"/>
       </rPr>
       <t xml:space="preserve">T0060 - Continue to amplify
-T0063 - Social media engagement</t>
+</t>
     </r>
   </si>
   <si>
@@ -3989,9 +3984,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mentorship: elders, youth, credit. Learn vicariously.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0010 - Cultivate ignorant agents</t>
   </si>
   <si>
     <t xml:space="preserve">C00131</t>
@@ -7496,6 +7488,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -7504,12 +7502,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -7692,7 +7684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7938,7 +7930,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -7949,7 +7941,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7961,7 +7957,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7973,7 +7969,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10870,16 +10866,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
@@ -11042,237 +11038,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>1841</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>1842</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>1843</v>
       </c>
-      <c r="D2" s="79" t="str">
+      <c r="D2" s="80" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
         <v>M001 - resilience</v>
       </c>
       <c r="E2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>1844</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>1845</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>1846</v>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="80" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
         <v>M002 - diversion</v>
       </c>
       <c r="E3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>1847</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>1848</v>
       </c>
-      <c r="D4" s="79" t="str">
+      <c r="D4" s="80" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
         <v>M003 - daylight</v>
       </c>
       <c r="E4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>1849</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>1850</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>1851</v>
       </c>
-      <c r="D5" s="79" t="str">
+      <c r="D5" s="80" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
         <v>M004 - friction</v>
       </c>
       <c r="E5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>1852</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="80" t="s">
         <v>1853</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="80" t="s">
         <v>1854</v>
       </c>
-      <c r="D6" s="79" t="str">
+      <c r="D6" s="80" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
         <v>M005 - removal</v>
       </c>
       <c r="E6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>1855</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>1856</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="80" t="s">
         <v>1857</v>
       </c>
-      <c r="D7" s="79" t="str">
+      <c r="D7" s="80" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
         <v>M006 - scoring</v>
       </c>
       <c r="E7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79" t="str">
+      <c r="C8" s="81"/>
+      <c r="D8" s="80" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
         <v>M007 - metatechnique</v>
       </c>
       <c r="E8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>1859</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="80" t="s">
         <v>1860</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>1861</v>
       </c>
-      <c r="D9" s="79" t="str">
+      <c r="D9" s="80" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
         <v>M008 - data pollution</v>
       </c>
       <c r="E9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>1862</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="80" t="s">
         <v>1863</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="80" t="s">
         <v>1864</v>
       </c>
-      <c r="D10" s="79" t="str">
+      <c r="D10" s="80" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
         <v>M009 - dilution</v>
       </c>
       <c r="E10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>1865</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="80" t="s">
         <v>1866</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="80" t="s">
         <v>1867</v>
       </c>
-      <c r="D11" s="79" t="str">
+      <c r="D11" s="80" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
         <v>M010 - countermessaging</v>
       </c>
       <c r="E11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>1868</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>1869</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>1870</v>
       </c>
-      <c r="D12" s="79" t="str">
+      <c r="D12" s="80" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
         <v>M011 - verification</v>
       </c>
       <c r="E12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>1871</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>1872</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>1873</v>
       </c>
-      <c r="D13" s="79" t="str">
+      <c r="D13" s="80" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
         <v>M012 - cleaning</v>
       </c>
       <c r="E13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>1874</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>1875</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="80" t="s">
         <v>1876</v>
       </c>
-      <c r="D14" s="79" t="str">
+      <c r="D14" s="80" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
         <v>M013 - targeting</v>
       </c>
       <c r="E14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>1877</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>1878</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>1879</v>
       </c>
-      <c r="D15" s="79" t="str">
+      <c r="D15" s="80" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
         <v>M014 - reduce resources</v>
       </c>
@@ -11311,22 +11307,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>1880</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>1881</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="76" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12009,16 +12005,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
@@ -12196,19 +12192,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>1970</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12369,136 +12365,136 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>1993</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>1994</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>1995</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="78" t="s">
         <v>1996</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="77" t="s">
         <v>1997</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="77" t="s">
         <v>1998</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>1999</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="79" t="s">
         <v>2000</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>2001</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>2002</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="78" t="str">
+      <c r="J2" s="82"/>
+      <c r="K2" s="79" t="str">
         <f aca="false">A2</f>
         <v>ME00001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>2003</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="79" t="s">
         <v>2004</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="79" t="s">
         <v>823</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>2005</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="78" t="str">
+      <c r="J3" s="82"/>
+      <c r="K3" s="79" t="str">
         <f aca="false">A3</f>
         <v>ME00002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>2006</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="79" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="80" t="s">
         <v>2007</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="79" t="s">
         <v>2004</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="79" t="s">
         <v>823</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="84" t="s">
         <v>2008</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="78" t="str">
+      <c r="J4" s="82"/>
+      <c r="K4" s="79" t="str">
         <f aca="false">A4</f>
         <v>ME00003</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>2009</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="79" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80" t="s">
         <v>2010</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="79" t="s">
         <v>2011</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>661</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="78" t="str">
+      <c r="J5" s="82"/>
+      <c r="K5" s="79" t="str">
         <f aca="false">A5</f>
         <v>ME00004</v>
       </c>
@@ -12607,664 +12603,664 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>1993</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>2012</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="84" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>2013</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="84" t="s">
         <v>2015</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="87" t="str">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="88" t="str">
         <f aca="false">A2</f>
         <v>MP00001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>2016</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="78" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="84" t="s">
         <v>2017</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="87" t="str">
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="88" t="str">
         <f aca="false">A3</f>
         <v>MP00002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="88" t="s">
         <v>2018</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="78" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="87" t="str">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="88" t="str">
         <f aca="false">A4</f>
         <v>MP00003</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>2019</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="78" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>2020</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="87" t="str">
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="88" t="str">
         <f aca="false">A5</f>
         <v>MP00004</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>2021</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>2022</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="87" t="str">
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="88" t="str">
         <f aca="false">A6</f>
         <v>MP00005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
         <v>2023</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="78" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="84" t="s">
         <v>2024</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="87" t="str">
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="88" t="str">
         <f aca="false">A7</f>
         <v>MP00006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="88" t="s">
         <v>2025</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="78" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>2026</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="87" t="str">
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="88" t="str">
         <f aca="false">A8</f>
         <v>MP00007</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>2027</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="78" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>2028</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="79" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="80" t="s">
         <v>2029</v>
       </c>
-      <c r="I9" s="87" t="str">
+      <c r="I9" s="88" t="str">
         <f aca="false">A9</f>
         <v>MP00008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>2030</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="78" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>2031</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="87" t="str">
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="88" t="str">
         <f aca="false">A10</f>
         <v>MP00009</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>2032</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="78" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>2033</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="79" t="s">
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="80" t="s">
         <v>2034</v>
       </c>
-      <c r="I11" s="87" t="str">
+      <c r="I11" s="88" t="str">
         <f aca="false">A11</f>
         <v>MP00010</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>2035</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="78" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>2036</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="79" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="80" t="s">
         <v>2037</v>
       </c>
-      <c r="I12" s="87" t="str">
+      <c r="I12" s="88" t="str">
         <f aca="false">A12</f>
         <v>MP00011</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="88" t="s">
         <v>2038</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="78" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>2039</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="87" t="str">
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="88" t="str">
         <f aca="false">A13</f>
         <v>MP00012</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="88" t="s">
         <v>2040</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="78" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="84" t="s">
         <v>2041</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="87" t="str">
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="88" t="str">
         <f aca="false">A14</f>
         <v>MP00013</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>2042</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="87" t="str">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="88" t="str">
         <f aca="false">A15</f>
         <v>MP00014</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="88" t="s">
         <v>2043</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="57" t="s">
         <v>2044</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="87" t="str">
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="88" t="str">
         <f aca="false">A16</f>
         <v>MP00015</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="88" t="s">
         <v>2045</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84" t="s">
         <v>2046</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="87" t="str">
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="88" t="str">
         <f aca="false">A17</f>
         <v>MP00016</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="88" t="s">
         <v>2047</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="78" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="79" t="s">
         <v>2048</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="84" t="s">
         <v>2049</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="87" t="str">
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="88" t="str">
         <f aca="false">A18</f>
         <v>MP00017</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="88" t="s">
         <v>2050</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="78" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="79" t="s">
         <v>2048</v>
       </c>
       <c r="E19" s="57" t="s">
         <v>2051</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="87" t="str">
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="88" t="str">
         <f aca="false">A19</f>
         <v>MP00018</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>2052</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="87" t="str">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="88" t="str">
         <f aca="false">A20</f>
         <v>MP00019</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="88" t="s">
         <v>2053</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="78" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="79" t="s">
         <v>2054</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>2055</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="87" t="str">
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="88" t="str">
         <f aca="false">A21</f>
         <v>MP00020</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="88" t="s">
         <v>2056</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="78" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="79" t="s">
         <v>2054</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="84" t="s">
         <v>2057</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="87" t="str">
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="88" t="str">
         <f aca="false">A22</f>
         <v>MP00021</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>2058</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="87" t="str">
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="88" t="str">
         <f aca="false">A23</f>
         <v>MP00022</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="88" t="s">
         <v>2059</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="87" t="str">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="88" t="str">
         <f aca="false">A24</f>
         <v>MP00023</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>2060</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="87" t="str">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="88" t="str">
         <f aca="false">A25</f>
         <v>MP00024</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="88" t="s">
         <v>2061</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="78" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="79" t="s">
         <v>2062</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="84" t="s">
         <v>2063</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="87" t="str">
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="88" t="str">
         <f aca="false">A26</f>
         <v>MP00025</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>2064</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="87" t="str">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="88" t="str">
         <f aca="false">A27</f>
         <v>MP00026</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="88" t="s">
         <v>2065</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="87" t="str">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="88" t="str">
         <f aca="false">A28</f>
         <v>MP00027</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="88" t="s">
         <v>2066</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="87" t="str">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="88" t="str">
         <f aca="false">A29</f>
         <v>MP00028</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>2067</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="87" t="str">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="88" t="str">
         <f aca="false">A30</f>
         <v>MP00029</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="88" t="s">
         <v>2068</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="57" t="s">
         <v>2069</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="87" t="str">
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="88" t="str">
         <f aca="false">A31</f>
         <v>MP00030</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="88" t="s">
         <v>2070</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="87" t="str">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="88" t="str">
         <f aca="false">A32</f>
         <v>MP00031</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="88" t="s">
         <v>2071</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="78" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="79" t="s">
         <v>2072</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="84" t="s">
         <v>2073</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="87" t="str">
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="88" t="str">
         <f aca="false">A33</f>
         <v>MP00032</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="88" t="s">
         <v>2074</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="78" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="79" t="s">
         <v>2072</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="84" t="s">
         <v>2075</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="87" t="str">
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="88" t="str">
         <f aca="false">A34</f>
         <v>MP00033</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="88" t="s">
         <v>2076</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="78" t="s">
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="79" t="s">
         <v>2072</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="84" t="s">
         <v>2077</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="87" t="str">
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="88" t="str">
         <f aca="false">A35</f>
         <v>MP00034</v>
       </c>
@@ -19276,8 +19272,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N80" activeCellId="0" sqref="N80"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N77" activeCellId="0" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22043,7 +22039,7 @@
         <v>C00110 - Monetize centrist SEO by subsidizing the difference in greater clicks towards extremist content</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="s">
         <v>997</v>
       </c>
@@ -22065,31 +22061,31 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="52" t="s">
-        <v>545</v>
+        <v>414</v>
       </c>
       <c r="L77" s="52" t="s">
         <v>721</v>
       </c>
       <c r="M77" s="20"/>
-      <c r="N77" s="55"/>
+      <c r="N77" s="55" t="s">
+        <v>1000</v>
+      </c>
       <c r="O77" s="24" t="str">
         <f aca="false">A77&amp;" - "&amp;B77</f>
-        <v>C00111 - Present sympathetic views of opposite side</v>
+        <v>C00111 - Reduce polarisation by connecting and presenting sympathetic renditions of opposite views</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="D78" s="24" t="s">
-        <v>1002</v>
-      </c>
+      <c r="D78" s="24"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
@@ -22139,8 +22135,8 @@
         <v>713</v>
       </c>
       <c r="M79" s="20"/>
-      <c r="N79" s="52" t="s">
-        <v>244</v>
+      <c r="N79" s="61" t="s">
+        <v>1006</v>
       </c>
       <c r="O79" s="24" t="str">
         <f aca="false">A79&amp;" - "&amp;B79</f>
@@ -22149,10 +22145,10 @@
     </row>
     <row r="80" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="24" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>706</v>
@@ -22176,7 +22172,7 @@
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="56" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O80" s="24" t="str">
         <f aca="false">A80&amp;" - "&amp;B80</f>
@@ -22185,10 +22181,10 @@
     </row>
     <row r="81" customFormat="false" ht="97.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>765</v>
@@ -22209,8 +22205,8 @@
         <v>713</v>
       </c>
       <c r="M81" s="20"/>
-      <c r="N81" s="61" t="s">
-        <v>1011</v>
+      <c r="N81" s="62" t="s">
+        <v>1012</v>
       </c>
       <c r="O81" s="24" t="str">
         <f aca="false">A81&amp;" - "&amp;B81</f>
@@ -22219,10 +22215,10 @@
     </row>
     <row r="82" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>765</v>
@@ -22244,7 +22240,7 @@
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="52" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O82" s="24" t="str">
         <f aca="false">A82&amp;" - "&amp;B82</f>
@@ -22253,10 +22249,10 @@
     </row>
     <row r="83" customFormat="false" ht="114.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>760</v>
@@ -22278,7 +22274,7 @@
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="56" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O83" s="24" t="str">
         <f aca="false">A83&amp;" - "&amp;B83</f>
@@ -22287,10 +22283,10 @@
     </row>
     <row r="84" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>760</v>
@@ -22311,8 +22307,8 @@
         <v>721</v>
       </c>
       <c r="M84" s="20"/>
-      <c r="N84" s="62" t="s">
-        <v>1020</v>
+      <c r="N84" s="63" t="s">
+        <v>1021</v>
       </c>
       <c r="O84" s="24" t="str">
         <f aca="false">A84&amp;" - "&amp;B84</f>
@@ -22321,16 +22317,16 @@
     </row>
     <row r="85" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>760</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -22347,8 +22343,8 @@
         <v>786</v>
       </c>
       <c r="M85" s="20"/>
-      <c r="N85" s="63" t="s">
-        <v>1024</v>
+      <c r="N85" s="64" t="s">
+        <v>1025</v>
       </c>
       <c r="O85" s="24" t="str">
         <f aca="false">A85&amp;" - "&amp;B85</f>
@@ -22357,10 +22353,10 @@
     </row>
     <row r="86" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>740</v>
@@ -22382,7 +22378,7 @@
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="56" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O86" s="24" t="str">
         <f aca="false">A86&amp;" - "&amp;B86</f>
@@ -22391,10 +22387,10 @@
     </row>
     <row r="87" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>725</v>
@@ -22416,7 +22412,7 @@
       </c>
       <c r="M87" s="20"/>
       <c r="N87" s="52" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O87" s="24" t="str">
         <f aca="false">A87&amp;" - "&amp;B87</f>
@@ -22425,7 +22421,7 @@
     </row>
     <row r="88" customFormat="false" ht="271.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>990</v>
@@ -22451,8 +22447,8 @@
         <v>713</v>
       </c>
       <c r="M88" s="20"/>
-      <c r="N88" s="64" t="s">
-        <v>1032</v>
+      <c r="N88" s="65" t="s">
+        <v>1033</v>
       </c>
       <c r="O88" s="24" t="str">
         <f aca="false">A88&amp;" - "&amp;B88</f>
@@ -22461,23 +22457,23 @@
     </row>
     <row r="89" customFormat="false" ht="97.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D89" s="20"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
       <c r="H89" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
       <c r="K89" s="52" t="s">
         <v>574</v>
       </c>
@@ -22486,7 +22482,7 @@
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="56" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="O89" s="24" t="str">
         <f aca="false">A89&amp;" - "&amp;B89</f>
@@ -22495,10 +22491,10 @@
     </row>
     <row r="90" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>706</v>
@@ -22506,7 +22502,7 @@
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="24" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G90" s="24"/>
       <c r="H90" s="24" t="s">
@@ -22522,7 +22518,7 @@
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="56" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O90" s="24" t="str">
         <f aca="false">A90&amp;" - "&amp;B90</f>
@@ -22531,10 +22527,10 @@
     </row>
     <row r="91" customFormat="false" ht="129.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>725</v>
@@ -22555,8 +22551,8 @@
         <v>668</v>
       </c>
       <c r="M91" s="20"/>
-      <c r="N91" s="61" t="s">
-        <v>1042</v>
+      <c r="N91" s="62" t="s">
+        <v>1043</v>
       </c>
       <c r="O91" s="24" t="str">
         <f aca="false">A91&amp;" - "&amp;B91</f>
@@ -22565,10 +22561,10 @@
     </row>
     <row r="92" customFormat="false" ht="146.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>765</v>
@@ -22589,8 +22585,8 @@
         <v>668</v>
       </c>
       <c r="M92" s="20"/>
-      <c r="N92" s="61" t="s">
-        <v>1045</v>
+      <c r="N92" s="62" t="s">
+        <v>1046</v>
       </c>
       <c r="O92" s="24" t="str">
         <f aca="false">A92&amp;" - "&amp;B92</f>
@@ -22599,10 +22595,10 @@
     </row>
     <row r="93" customFormat="false" ht="112.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>801</v>
@@ -22610,7 +22606,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="24" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="24" t="s">
@@ -22626,7 +22622,7 @@
       </c>
       <c r="M93" s="20"/>
       <c r="N93" s="58" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="O93" s="24" t="str">
         <f aca="false">A93&amp;" - "&amp;B93</f>
@@ -22635,16 +22631,16 @@
     </row>
     <row r="94" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -22661,8 +22657,8 @@
         <v>713</v>
       </c>
       <c r="M94" s="20"/>
-      <c r="N94" s="61" t="s">
-        <v>1054</v>
+      <c r="N94" s="62" t="s">
+        <v>1055</v>
       </c>
       <c r="O94" s="24" t="str">
         <f aca="false">A94&amp;" - "&amp;B94</f>
@@ -22671,10 +22667,10 @@
     </row>
     <row r="95" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>725</v>
@@ -22695,8 +22691,8 @@
         <v>786</v>
       </c>
       <c r="M95" s="20"/>
-      <c r="N95" s="67" t="s">
-        <v>1057</v>
+      <c r="N95" s="68" t="s">
+        <v>1000</v>
       </c>
       <c r="O95" s="24" t="str">
         <f aca="false">A95&amp;" - "&amp;B95</f>
@@ -22897,7 +22893,7 @@
         <v>1080</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -23079,7 +23075,7 @@
         <v>1099</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>1100</v>
@@ -23133,7 +23129,7 @@
         <v>721</v>
       </c>
       <c r="M107" s="20"/>
-      <c r="N107" s="61" t="s">
+      <c r="N107" s="62" t="s">
         <v>1104</v>
       </c>
       <c r="O107" s="24" t="str">
@@ -23261,7 +23257,7 @@
       <c r="A111" s="24" t="s">
         <v>1117</v>
       </c>
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="69" t="s">
         <v>1118</v>
       </c>
       <c r="C111" s="24" t="s">
@@ -23276,7 +23272,7 @@
       <c r="H111" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I111" s="69" t="s">
+      <c r="I111" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J111" s="20"/>
@@ -23316,7 +23312,7 @@
       <c r="H112" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I112" s="69" t="s">
+      <c r="I112" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J112" s="20"/>
@@ -23327,7 +23323,7 @@
         <v>668</v>
       </c>
       <c r="M112" s="20"/>
-      <c r="N112" s="70" t="s">
+      <c r="N112" s="71" t="s">
         <v>1125</v>
       </c>
       <c r="O112" s="24" t="str">
@@ -23365,7 +23361,7 @@
         <v>713</v>
       </c>
       <c r="M113" s="20"/>
-      <c r="N113" s="70" t="s">
+      <c r="N113" s="71" t="s">
         <v>1129</v>
       </c>
       <c r="O113" s="24" t="str">
@@ -23432,7 +23428,7 @@
       <c r="H115" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I115" s="69" t="s">
+      <c r="I115" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J115" s="20"/>
@@ -23443,7 +23439,7 @@
         <v>668</v>
       </c>
       <c r="M115" s="20"/>
-      <c r="N115" s="70" t="s">
+      <c r="N115" s="71" t="s">
         <v>1138</v>
       </c>
       <c r="O115" s="24" t="str">
@@ -23472,7 +23468,7 @@
       <c r="H116" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I116" s="69" t="s">
+      <c r="I116" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J116" s="20"/>
@@ -23483,7 +23479,7 @@
         <v>721</v>
       </c>
       <c r="M116" s="20"/>
-      <c r="N116" s="70" t="s">
+      <c r="N116" s="71" t="s">
         <v>1143</v>
       </c>
       <c r="O116" s="24" t="str">
@@ -23510,7 +23506,7 @@
       <c r="H117" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I117" s="69" t="s">
+      <c r="I117" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J117" s="20"/>
@@ -23548,7 +23544,7 @@
       <c r="H118" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I118" s="69" t="s">
+      <c r="I118" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J118" s="20"/>
@@ -23559,7 +23555,7 @@
         <v>713</v>
       </c>
       <c r="M118" s="20"/>
-      <c r="N118" s="70" t="s">
+      <c r="N118" s="71" t="s">
         <v>1151</v>
       </c>
       <c r="O118" s="24" t="str">
@@ -23586,7 +23582,7 @@
       <c r="H119" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I119" s="69" t="s">
+      <c r="I119" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J119" s="20"/>
@@ -23597,7 +23593,7 @@
         <v>786</v>
       </c>
       <c r="M119" s="20"/>
-      <c r="N119" s="70" t="s">
+      <c r="N119" s="71" t="s">
         <v>1155</v>
       </c>
       <c r="O119" s="24" t="str">
@@ -23624,7 +23620,7 @@
       <c r="H120" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I120" s="69" t="s">
+      <c r="I120" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J120" s="20"/>
@@ -23635,7 +23631,7 @@
         <v>668</v>
       </c>
       <c r="M120" s="20"/>
-      <c r="N120" s="70" t="s">
+      <c r="N120" s="71" t="s">
         <v>1159</v>
       </c>
       <c r="O120" s="24" t="str">
@@ -23662,7 +23658,7 @@
       <c r="H121" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I121" s="69" t="s">
+      <c r="I121" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J121" s="20"/>
@@ -23673,7 +23669,7 @@
         <v>668</v>
       </c>
       <c r="M121" s="20"/>
-      <c r="N121" s="70" t="s">
+      <c r="N121" s="71" t="s">
         <v>1163</v>
       </c>
       <c r="O121" s="24" t="str">
@@ -23738,7 +23734,7 @@
       <c r="H123" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I123" s="69" t="s">
+      <c r="I123" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J123" s="20"/>
@@ -23774,7 +23770,7 @@
       <c r="H124" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I124" s="69" t="s">
+      <c r="I124" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J124" s="20"/>
@@ -23785,7 +23781,7 @@
         <v>668</v>
       </c>
       <c r="M124" s="20"/>
-      <c r="N124" s="70" t="s">
+      <c r="N124" s="71" t="s">
         <v>1175</v>
       </c>
       <c r="O124" s="24" t="str">
@@ -23812,7 +23808,7 @@
       <c r="H125" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I125" s="69" t="s">
+      <c r="I125" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J125" s="20"/>
@@ -23930,7 +23926,7 @@
       <c r="H128" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I128" s="69" t="s">
+      <c r="I128" s="70" t="s">
         <v>1192</v>
       </c>
       <c r="J128" s="20"/>
@@ -23968,7 +23964,7 @@
       <c r="H129" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I129" s="69" t="s">
+      <c r="I129" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J129" s="20"/>
@@ -24006,7 +24002,7 @@
       <c r="H130" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I130" s="69" t="s">
+      <c r="I130" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J130" s="20"/>
@@ -24046,7 +24042,7 @@
       <c r="H131" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I131" s="69" t="s">
+      <c r="I131" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J131" s="20"/>
@@ -24122,7 +24118,7 @@
       <c r="H133" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I133" s="69" t="s">
+      <c r="I133" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J133" s="20"/>
@@ -24160,7 +24156,7 @@
       <c r="H134" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I134" s="69" t="s">
+      <c r="I134" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J134" s="20"/>
@@ -24200,7 +24196,7 @@
       <c r="H135" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I135" s="69" t="s">
+      <c r="I135" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J135" s="20"/>
@@ -24242,7 +24238,7 @@
       <c r="H136" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I136" s="69" t="s">
+      <c r="I136" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J136" s="20"/>
@@ -24278,7 +24274,7 @@
       <c r="H137" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I137" s="69" t="s">
+      <c r="I137" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J137" s="20"/>
@@ -24314,7 +24310,7 @@
       <c r="H138" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I138" s="69" t="s">
+      <c r="I138" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J138" s="20"/>
@@ -24354,7 +24350,7 @@
       <c r="H139" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I139" s="69" t="s">
+      <c r="I139" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J139" s="20"/>
@@ -24554,7 +24550,7 @@
       <c r="H144" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I144" s="69" t="s">
+      <c r="I144" s="70" t="s">
         <v>624</v>
       </c>
       <c r="J144" s="20"/>
@@ -24594,7 +24590,7 @@
       <c r="H145" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I145" s="69" t="s">
+      <c r="I145" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J145" s="20"/>
@@ -24708,7 +24704,7 @@
       <c r="H148" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I148" s="69" t="s">
+      <c r="I148" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J148" s="20"/>
@@ -24809,7 +24805,7 @@
         <v>1288</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>1289</v>
@@ -25040,21 +25036,21 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="71"/>
-      <c r="B158" s="72"/>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
-      <c r="G158" s="72"/>
-      <c r="H158" s="72"/>
-      <c r="I158" s="72"/>
-      <c r="J158" s="72"/>
-      <c r="K158" s="72"/>
-      <c r="L158" s="72"/>
-      <c r="M158" s="72"/>
-      <c r="N158" s="72"/>
-      <c r="O158" s="73"/>
+      <c r="A158" s="72"/>
+      <c r="B158" s="73"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="73"/>
+      <c r="H158" s="73"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="73"/>
+      <c r="K158" s="73"/>
+      <c r="L158" s="73"/>
+      <c r="M158" s="73"/>
+      <c r="N158" s="73"/>
+      <c r="O158" s="74"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -26358,7 +26354,7 @@
       <c r="C36" s="24" t="s">
         <v>1326</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="75" t="s">
         <v>1468</v>
       </c>
       <c r="E36" s="20" t="n">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3216,8 +3216,11 @@
     <t xml:space="preserve">Prohibit images in political discourse channels</t>
   </si>
   <si>
-    <t xml:space="preserve">T0021 - Memes
-T0024 - Create fake videos and images</t>
+    <t xml:space="preserve">T0016 - Clickbait 
+T0018 - Paid targeted ads
+T0039 - Bait legitimate influencers
+T0044 - Seed distortions
+T0021 - Memes</t>
   </si>
   <si>
     <t xml:space="preserve">C00077</t>
@@ -3236,8 +3239,11 @@
   </si>
   <si>
     <t xml:space="preserve">TA07 - Channel Selection
+T0044 - Seed distortions
 T0046 - Search Engine Optimization
-T0021 - Memes</t>
+T0056 - Dedicated channels disseminate information pollution
+T0052 - Tertiary sites amplify news
+T0060 - Continue to amplify</t>
   </si>
   <si>
     <t xml:space="preserve">C00080</t>
@@ -3249,7 +3255,11 @@
     <t xml:space="preserve">Could also be degrade</t>
   </si>
   <si>
-    <t xml:space="preserve">adapt existing narrative</t>
+    <t xml:space="preserve">T0003 - Leverate existing narratives
+T0004 - Competing narratives
+T0028 - Create competing narratives
+T0022 - Conspiracy narratives 
+T0027 - Adapt existing narratives </t>
   </si>
   <si>
     <t xml:space="preserve">C00081</t>
@@ -3261,7 +3271,35 @@
     <t xml:space="preserve">Discredit by pointing out the "noise" and informing public that "flooding" is a technique of disinformation campaigns; point out intended objective of "noise"</t>
   </si>
   <si>
-    <t xml:space="preserve">info pollution</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0003 - Leverate existing narratives
+T0004 - Competing narratives
+T0028 - Create competing narratives
+T0006 - Create Master Narratives
+T0022 - Conspiracy narratives
+T0023 - Distort facts
+T0026 - Create fake research
+T0027 - Adapt existing narratives
+T0044 - Seed distortions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T0053 - Twitter trolls amplify and manipulate
+T0054 - Twitter bots amplify
+T0055 - Use hashtag
+T0056 - Dedicated channels disseminate information pollution</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00082</t>
@@ -7898,7 +7936,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8139,6 +8177,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11080,16 +11122,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
@@ -11252,237 +11294,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>1855</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>1856</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>1857</v>
       </c>
-      <c r="D2" s="80" t="str">
+      <c r="D2" s="81" t="str">
         <f aca="false">A2&amp;" - "&amp;B2</f>
         <v>M001 - resilience</v>
       </c>
       <c r="E2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>1858</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>1859</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>1860</v>
       </c>
-      <c r="D3" s="80" t="str">
+      <c r="D3" s="81" t="str">
         <f aca="false">A3&amp;" - "&amp;B3</f>
         <v>M002 - diversion</v>
       </c>
       <c r="E3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>1861</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>1862</v>
       </c>
-      <c r="D4" s="80" t="str">
+      <c r="D4" s="81" t="str">
         <f aca="false">A4&amp;" - "&amp;B4</f>
         <v>M003 - daylight</v>
       </c>
       <c r="E4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>1863</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>1864</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>1865</v>
       </c>
-      <c r="D5" s="80" t="str">
+      <c r="D5" s="81" t="str">
         <f aca="false">A5&amp;" - "&amp;B5</f>
         <v>M004 - friction</v>
       </c>
       <c r="E5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>1866</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>1867</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>1868</v>
       </c>
-      <c r="D6" s="80" t="str">
+      <c r="D6" s="81" t="str">
         <f aca="false">A6&amp;" - "&amp;B6</f>
         <v>M005 - removal</v>
       </c>
       <c r="E6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>1869</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="81" t="s">
         <v>1870</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="81" t="s">
         <v>1871</v>
       </c>
-      <c r="D7" s="80" t="str">
+      <c r="D7" s="81" t="str">
         <f aca="false">A7&amp;" - "&amp;B7</f>
         <v>M006 - scoring</v>
       </c>
       <c r="E7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>1872</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="80" t="str">
+      <c r="C8" s="82"/>
+      <c r="D8" s="81" t="str">
         <f aca="false">A8&amp;" - "&amp;B8</f>
         <v>M007 - metatechnique</v>
       </c>
       <c r="E8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>1873</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>1874</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>1875</v>
       </c>
-      <c r="D9" s="80" t="str">
+      <c r="D9" s="81" t="str">
         <f aca="false">A9&amp;" - "&amp;B9</f>
         <v>M008 - data pollution</v>
       </c>
       <c r="E9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>1876</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="81" t="s">
         <v>1877</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>1878</v>
       </c>
-      <c r="D10" s="80" t="str">
+      <c r="D10" s="81" t="str">
         <f aca="false">A10&amp;" - "&amp;B10</f>
         <v>M009 - dilution</v>
       </c>
       <c r="E10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>1879</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="81" t="s">
         <v>1880</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="81" t="s">
         <v>1881</v>
       </c>
-      <c r="D11" s="80" t="str">
+      <c r="D11" s="81" t="str">
         <f aca="false">A11&amp;" - "&amp;B11</f>
         <v>M010 - countermessaging</v>
       </c>
       <c r="E11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>1882</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>1883</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>1884</v>
       </c>
-      <c r="D12" s="80" t="str">
+      <c r="D12" s="81" t="str">
         <f aca="false">A12&amp;" - "&amp;B12</f>
         <v>M011 - verification</v>
       </c>
       <c r="E12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>1885</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="81" t="s">
         <v>1886</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="81" t="s">
         <v>1887</v>
       </c>
-      <c r="D13" s="80" t="str">
+      <c r="D13" s="81" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
         <v>M012 - cleaning</v>
       </c>
       <c r="E13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>1888</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="81" t="s">
         <v>1889</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="81" t="s">
         <v>1890</v>
       </c>
-      <c r="D14" s="80" t="str">
+      <c r="D14" s="81" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
         <v>M013 - targeting</v>
       </c>
       <c r="E14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="80" t="s">
         <v>1891</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="81" t="s">
         <v>1892</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="81" t="s">
         <v>1893</v>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="81" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
         <v>M014 - reduce resources</v>
       </c>
@@ -11521,22 +11563,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>1894</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>1895</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12219,16 +12261,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="48"/>
@@ -12406,19 +12448,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>1984</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12579,136 +12621,136 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>2007</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>2008</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>2009</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="79" t="s">
         <v>2010</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="78" t="s">
         <v>2011</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="78" t="s">
         <v>2012</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>2013</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="80" t="s">
         <v>2014</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="80" t="s">
         <v>2015</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="85" t="s">
         <v>2016</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="79" t="str">
+      <c r="J2" s="83"/>
+      <c r="K2" s="80" t="str">
         <f aca="false">A2</f>
         <v>ME00001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>2017</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="80" t="s">
         <v>2018</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="80" t="s">
         <v>823</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="85" t="s">
         <v>2019</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="79" t="str">
+      <c r="J3" s="83"/>
+      <c r="K3" s="80" t="str">
         <f aca="false">A3</f>
         <v>ME00002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="200.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>2020</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="80" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="81" t="s">
         <v>2021</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="80" t="s">
         <v>2018</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="80" t="s">
         <v>823</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="85" t="s">
         <v>2022</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="79" t="str">
+      <c r="J4" s="83"/>
+      <c r="K4" s="80" t="str">
         <f aca="false">A4</f>
         <v>ME00003</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>2023</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="80" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="81" t="s">
         <v>2024</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>2025</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="80" t="s">
         <v>661</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="85" t="s">
         <v>548</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="79" t="str">
+      <c r="J5" s="83"/>
+      <c r="K5" s="80" t="str">
         <f aca="false">A5</f>
         <v>ME00004</v>
       </c>
@@ -12817,664 +12859,664 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>2007</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>2026</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>2027</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="85" t="s">
         <v>2029</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="88" t="str">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="89" t="str">
         <f aca="false">A2</f>
         <v>MP00001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>2030</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="79" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="85" t="s">
         <v>2031</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="88" t="str">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="89" t="str">
         <f aca="false">A3</f>
         <v>MP00002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>2032</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="88" t="str">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="89" t="str">
         <f aca="false">A4</f>
         <v>MP00003</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>2033</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="79" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="85" t="s">
         <v>2034</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="88" t="str">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="89" t="str">
         <f aca="false">A5</f>
         <v>MP00004</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>2035</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="85" t="s">
         <v>2036</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="88" t="str">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="89" t="str">
         <f aca="false">A6</f>
         <v>MP00005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>2037</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="79" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="85" t="s">
         <v>2038</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="88" t="str">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="89" t="str">
         <f aca="false">A7</f>
         <v>MP00006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>2039</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="85" t="s">
         <v>2040</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="88" t="str">
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="89" t="str">
         <f aca="false">A8</f>
         <v>MP00007</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>2041</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="79" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="85" t="s">
         <v>2042</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="80" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="81" t="s">
         <v>2043</v>
       </c>
-      <c r="I9" s="88" t="str">
+      <c r="I9" s="89" t="str">
         <f aca="false">A9</f>
         <v>MP00008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>2044</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="79" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>2045</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="88" t="str">
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="89" t="str">
         <f aca="false">A10</f>
         <v>MP00009</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>2046</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="85" t="s">
         <v>2047</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="80" t="s">
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="81" t="s">
         <v>2048</v>
       </c>
-      <c r="I11" s="88" t="str">
+      <c r="I11" s="89" t="str">
         <f aca="false">A11</f>
         <v>MP00010</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="89" t="s">
         <v>2049</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="79" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="85" t="s">
         <v>2050</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="80" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="81" t="s">
         <v>2051</v>
       </c>
-      <c r="I12" s="88" t="str">
+      <c r="I12" s="89" t="str">
         <f aca="false">A12</f>
         <v>MP00011</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="89" t="s">
         <v>2052</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="79" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="85" t="s">
         <v>2053</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="88" t="str">
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="89" t="str">
         <f aca="false">A13</f>
         <v>MP00012</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="89" t="s">
         <v>2054</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="79" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="80" t="s">
         <v>2028</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="85" t="s">
         <v>2055</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="88" t="str">
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="89" t="str">
         <f aca="false">A14</f>
         <v>MP00013</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>2056</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="88" t="str">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="89" t="str">
         <f aca="false">A15</f>
         <v>MP00014</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>2057</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="57" t="s">
         <v>2058</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="88" t="str">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="89" t="str">
         <f aca="false">A16</f>
         <v>MP00015</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>2059</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85" t="s">
         <v>2060</v>
       </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="88" t="str">
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="89" t="str">
         <f aca="false">A17</f>
         <v>MP00016</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="89" t="s">
         <v>2061</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="79" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="80" t="s">
         <v>2062</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="85" t="s">
         <v>2063</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="88" t="str">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="89" t="str">
         <f aca="false">A18</f>
         <v>MP00017</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="89" t="s">
         <v>2064</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="80" t="s">
         <v>2062</v>
       </c>
       <c r="E19" s="57" t="s">
         <v>2065</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="88" t="str">
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="89" t="str">
         <f aca="false">A19</f>
         <v>MP00018</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="89" t="s">
         <v>2066</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="88" t="str">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="89" t="str">
         <f aca="false">A20</f>
         <v>MP00019</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="89" t="s">
         <v>2067</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="80" t="s">
         <v>2068</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="85" t="s">
         <v>2069</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="88" t="str">
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="89" t="str">
         <f aca="false">A21</f>
         <v>MP00020</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="89" t="s">
         <v>2070</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="80" t="s">
         <v>2068</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="85" t="s">
         <v>2071</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="88" t="str">
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="89" t="str">
         <f aca="false">A22</f>
         <v>MP00021</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="89" t="s">
         <v>2072</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="88" t="str">
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="89" t="str">
         <f aca="false">A23</f>
         <v>MP00022</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="89" t="s">
         <v>2073</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="88" t="str">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="89" t="str">
         <f aca="false">A24</f>
         <v>MP00023</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="89" t="s">
         <v>2074</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="88" t="str">
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="89" t="str">
         <f aca="false">A25</f>
         <v>MP00024</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="89" t="s">
         <v>2075</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="79" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="80" t="s">
         <v>2076</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="85" t="s">
         <v>2077</v>
       </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="88" t="str">
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="89" t="str">
         <f aca="false">A26</f>
         <v>MP00025</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="89" t="s">
         <v>2078</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="88" t="str">
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="89" t="str">
         <f aca="false">A27</f>
         <v>MP00026</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>2079</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="88" t="str">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="89" t="str">
         <f aca="false">A28</f>
         <v>MP00027</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="89" t="s">
         <v>2080</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="88" t="str">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="89" t="str">
         <f aca="false">A29</f>
         <v>MP00028</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="89" t="s">
         <v>2081</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="88" t="str">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="89" t="str">
         <f aca="false">A30</f>
         <v>MP00029</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="89" t="s">
         <v>2082</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="57" t="s">
         <v>2083</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="88" t="str">
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="89" t="str">
         <f aca="false">A31</f>
         <v>MP00030</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="89" t="s">
         <v>2084</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="88" t="str">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="89" t="str">
         <f aca="false">A32</f>
         <v>MP00031</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="89" t="s">
         <v>2085</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="79" t="s">
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="80" t="s">
         <v>2086</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="85" t="s">
         <v>2087</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="88" t="str">
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="89" t="str">
         <f aca="false">A33</f>
         <v>MP00032</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="89" t="s">
         <v>2088</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="79" t="s">
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="80" t="s">
         <v>2086</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="85" t="s">
         <v>2089</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="88" t="str">
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="89" t="str">
         <f aca="false">A34</f>
         <v>MP00033</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="89" t="s">
         <v>2090</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="79" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="80" t="s">
         <v>2086</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="85" t="s">
         <v>2091</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="88" t="str">
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="89" t="str">
         <f aca="false">A35</f>
         <v>MP00034</v>
       </c>
@@ -19486,8 +19528,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L54" activeCellId="0" sqref="L54"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N49" activeCellId="0" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21223,7 +21265,7 @@
         <v>C00075 - normalise language</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
         <v>907</v>
       </c>
@@ -21249,7 +21291,7 @@
         <v>713</v>
       </c>
       <c r="M48" s="20"/>
-      <c r="N48" s="56" t="s">
+      <c r="N48" s="60" t="s">
         <v>909</v>
       </c>
       <c r="O48" s="24" t="str">
@@ -21325,7 +21367,7 @@
         <v>C00078 - Change Search Algorithms for Disinformation Content</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="188.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
         <v>916</v>
       </c>
@@ -21353,7 +21395,7 @@
         <v>668</v>
       </c>
       <c r="M51" s="20"/>
-      <c r="N51" s="52" t="s">
+      <c r="N51" s="60" t="s">
         <v>919</v>
       </c>
       <c r="O51" s="24" t="str">
@@ -21389,7 +21431,7 @@
         <v>668</v>
       </c>
       <c r="M52" s="20"/>
-      <c r="N52" s="52" t="s">
+      <c r="N52" s="61" t="s">
         <v>923</v>
       </c>
       <c r="O52" s="24" t="str">
@@ -21425,7 +21467,7 @@
         <v>668</v>
       </c>
       <c r="M53" s="20"/>
-      <c r="N53" s="60" t="s">
+      <c r="N53" s="61" t="s">
         <v>927</v>
       </c>
       <c r="O53" s="24" t="str">
@@ -21497,7 +21539,7 @@
         <v>668</v>
       </c>
       <c r="M55" s="20"/>
-      <c r="N55" s="61" t="s">
+      <c r="N55" s="62" t="s">
         <v>935</v>
       </c>
       <c r="O55" s="24" t="str">
@@ -21533,7 +21575,7 @@
         <v>721</v>
       </c>
       <c r="M56" s="20"/>
-      <c r="N56" s="62" t="s">
+      <c r="N56" s="63" t="s">
         <v>939</v>
       </c>
       <c r="O56" s="24" t="str">
@@ -21569,7 +21611,7 @@
         <v>721</v>
       </c>
       <c r="M57" s="20"/>
-      <c r="N57" s="62" t="s">
+      <c r="N57" s="63" t="s">
         <v>943</v>
       </c>
       <c r="O57" s="24" t="str">
@@ -21603,7 +21645,7 @@
         <v>721</v>
       </c>
       <c r="M58" s="20"/>
-      <c r="N58" s="63" t="s">
+      <c r="N58" s="64" t="s">
         <v>946</v>
       </c>
       <c r="O58" s="24" t="str">
@@ -22005,7 +22047,7 @@
         <v>721</v>
       </c>
       <c r="M69" s="20"/>
-      <c r="N69" s="64" t="s">
+      <c r="N69" s="65" t="s">
         <v>986</v>
       </c>
       <c r="O69" s="24" t="str">
@@ -22041,7 +22083,7 @@
         <v>721</v>
       </c>
       <c r="M70" s="20"/>
-      <c r="N70" s="64" t="s">
+      <c r="N70" s="65" t="s">
         <v>661</v>
       </c>
       <c r="O70" s="24" t="str">
@@ -22253,7 +22295,7 @@
         <v>713</v>
       </c>
       <c r="M76" s="20"/>
-      <c r="N76" s="61" t="s">
+      <c r="N76" s="62" t="s">
         <v>1010</v>
       </c>
       <c r="O76" s="24" t="str">
@@ -22357,7 +22399,7 @@
         <v>713</v>
       </c>
       <c r="M79" s="20"/>
-      <c r="N79" s="65" t="s">
+      <c r="N79" s="66" t="s">
         <v>1020</v>
       </c>
       <c r="O79" s="24" t="str">
@@ -22529,7 +22571,7 @@
         <v>721</v>
       </c>
       <c r="M84" s="20"/>
-      <c r="N84" s="66" t="s">
+      <c r="N84" s="67" t="s">
         <v>1035</v>
       </c>
       <c r="O84" s="24" t="str">
@@ -22565,7 +22607,7 @@
         <v>786</v>
       </c>
       <c r="M85" s="20"/>
-      <c r="N85" s="67" t="s">
+      <c r="N85" s="68" t="s">
         <v>1039</v>
       </c>
       <c r="O85" s="24" t="str">
@@ -22669,7 +22711,7 @@
         <v>713</v>
       </c>
       <c r="M88" s="20"/>
-      <c r="N88" s="61" t="s">
+      <c r="N88" s="62" t="s">
         <v>1047</v>
       </c>
       <c r="O88" s="24" t="str">
@@ -22688,14 +22730,14 @@
         <v>706</v>
       </c>
       <c r="D89" s="20"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
       <c r="H89" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
       <c r="K89" s="52" t="s">
         <v>574</v>
       </c>
@@ -23479,7 +23521,7 @@
       <c r="A111" s="24" t="s">
         <v>1131</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="71" t="s">
         <v>1132</v>
       </c>
       <c r="C111" s="24" t="s">
@@ -23494,7 +23536,7 @@
       <c r="H111" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I111" s="71" t="s">
+      <c r="I111" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J111" s="20"/>
@@ -23534,7 +23576,7 @@
       <c r="H112" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I112" s="71" t="s">
+      <c r="I112" s="72" t="s">
         <v>49</v>
       </c>
       <c r="J112" s="20"/>
@@ -23650,7 +23692,7 @@
       <c r="H115" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I115" s="71" t="s">
+      <c r="I115" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J115" s="20"/>
@@ -23690,7 +23732,7 @@
       <c r="H116" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I116" s="71" t="s">
+      <c r="I116" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J116" s="20"/>
@@ -23728,7 +23770,7 @@
       <c r="H117" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I117" s="71" t="s">
+      <c r="I117" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J117" s="20"/>
@@ -23766,7 +23808,7 @@
       <c r="H118" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I118" s="71" t="s">
+      <c r="I118" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J118" s="20"/>
@@ -23804,7 +23846,7 @@
       <c r="H119" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I119" s="71" t="s">
+      <c r="I119" s="72" t="s">
         <v>49</v>
       </c>
       <c r="J119" s="20"/>
@@ -23842,7 +23884,7 @@
       <c r="H120" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I120" s="71" t="s">
+      <c r="I120" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J120" s="20"/>
@@ -23880,7 +23922,7 @@
       <c r="H121" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I121" s="71" t="s">
+      <c r="I121" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J121" s="20"/>
@@ -23956,7 +23998,7 @@
       <c r="H123" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I123" s="71" t="s">
+      <c r="I123" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J123" s="20"/>
@@ -23992,7 +24034,7 @@
       <c r="H124" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I124" s="71" t="s">
+      <c r="I124" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J124" s="20"/>
@@ -24030,7 +24072,7 @@
       <c r="H125" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I125" s="71" t="s">
+      <c r="I125" s="72" t="s">
         <v>49</v>
       </c>
       <c r="J125" s="20"/>
@@ -24148,7 +24190,7 @@
       <c r="H128" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I128" s="71" t="s">
+      <c r="I128" s="72" t="s">
         <v>1206</v>
       </c>
       <c r="J128" s="20"/>
@@ -24186,7 +24228,7 @@
       <c r="H129" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I129" s="71" t="s">
+      <c r="I129" s="72" t="s">
         <v>49</v>
       </c>
       <c r="J129" s="20"/>
@@ -24224,7 +24266,7 @@
       <c r="H130" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I130" s="71" t="s">
+      <c r="I130" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J130" s="20"/>
@@ -24264,7 +24306,7 @@
       <c r="H131" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I131" s="71" t="s">
+      <c r="I131" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J131" s="20"/>
@@ -24340,7 +24382,7 @@
       <c r="H133" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I133" s="71" t="s">
+      <c r="I133" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J133" s="20"/>
@@ -24378,7 +24420,7 @@
       <c r="H134" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I134" s="71" t="s">
+      <c r="I134" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J134" s="20"/>
@@ -24418,7 +24460,7 @@
       <c r="H135" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I135" s="71" t="s">
+      <c r="I135" s="72" t="s">
         <v>49</v>
       </c>
       <c r="J135" s="20"/>
@@ -24460,7 +24502,7 @@
       <c r="H136" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I136" s="71" t="s">
+      <c r="I136" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J136" s="20"/>
@@ -24496,7 +24538,7 @@
       <c r="H137" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I137" s="71" t="s">
+      <c r="I137" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J137" s="20"/>
@@ -24532,7 +24574,7 @@
       <c r="H138" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I138" s="71" t="s">
+      <c r="I138" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J138" s="20"/>
@@ -24572,7 +24614,7 @@
       <c r="H139" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I139" s="71" t="s">
+      <c r="I139" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J139" s="20"/>
@@ -24772,7 +24814,7 @@
       <c r="H144" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I144" s="71" t="s">
+      <c r="I144" s="72" t="s">
         <v>624</v>
       </c>
       <c r="J144" s="20"/>
@@ -24812,7 +24854,7 @@
       <c r="H145" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I145" s="71" t="s">
+      <c r="I145" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J145" s="20"/>
@@ -24926,7 +24968,7 @@
       <c r="H148" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I148" s="71" t="s">
+      <c r="I148" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J148" s="20"/>
@@ -25258,21 +25300,21 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="72"/>
-      <c r="B158" s="73"/>
-      <c r="C158" s="73"/>
-      <c r="D158" s="73"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="73"/>
-      <c r="H158" s="73"/>
-      <c r="I158" s="73"/>
-      <c r="J158" s="73"/>
-      <c r="K158" s="73"/>
-      <c r="L158" s="73"/>
-      <c r="M158" s="73"/>
-      <c r="N158" s="73"/>
-      <c r="O158" s="74"/>
+      <c r="A158" s="73"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="74"/>
+      <c r="L158" s="74"/>
+      <c r="M158" s="74"/>
+      <c r="N158" s="74"/>
+      <c r="O158" s="75"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -26576,7 +26618,7 @@
       <c r="C36" s="24" t="s">
         <v>1340</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="76" t="s">
         <v>1482</v>
       </c>
       <c r="E36" s="20" t="n">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3181,7 +3181,7 @@
     <t xml:space="preserve">C00074</t>
   </si>
   <si>
-    <t xml:space="preserve">Identify identical content and mass deplatform</t>
+    <t xml:space="preserve">Identify and delete or rate limit identical content</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3199,9 +3199,48 @@
     <t xml:space="preserve">A031 - social media platform administrator,A028 - platform administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">T0022 - Conspiracy narratives
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0019 - Generate information pollution
+T0021 - Memes
+T0022 - Conspiracy narratives
 T0026 - Create fake research
-T0025 - Leak altered documents</t>
+T0025 - Leak altered documents
+T0043 - Use SMS
+T0050 - Cheerleading domestic social media ops
+T0051 - Fabricate social media comment
+T0049 - Flooding
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T0052 - Tertiary sites amplify news
+T0053 - Twitter trolls amplify and manipulate
+T0054 - Twitter bots amplify
+T0055 - Use hashtag
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0057 - Organise remote rallies and events
+T0061 - Sell merchandising
+T0060 - Continue to amplify</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00075</t>
@@ -7733,14 +7772,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -7755,12 +7800,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
@@ -8177,11 +8216,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8189,11 +8224,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8201,15 +8240,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19528,8 +19567,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N49" activeCellId="0" sqref="N49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21230,7 +21269,7 @@
       </c>
       <c r="O46" s="24" t="str">
         <f aca="false">A46&amp;" - "&amp;B46</f>
-        <v>C00074 - Identify identical content and mass deplatform</v>
+        <v>C00074 - Identify and delete or rate limit identical content</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3173,9 +3173,58 @@
     <t xml:space="preserve">A006 - educator,A008 - library,A017 - coordinating body,A009 - NGO,A032 - social media platform outreach,A021 - media organization,A005 - community group,A010 - religious organisation</t>
   </si>
   <si>
-    <t xml:space="preserve">T0012 - Use concealment
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0016 - Clickbait 
 T0019 - Generate information pollution
-T0056 - Dedicated channels disseminate information pollution</t>
+T0056 - Dedicated channels disseminate information pollution
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0045 - Use fake experts
+T0044 - Seed distortions
+T0045 - Use fake experts
+T0021 - Memes
+T0022 - Conspiracy narratives
+T0023 - Distort facts
+T0026 - Create fake research
+T0025 - Leak altered documents
+T0027 - Adapt existing narratives
+T0039 - Bait legitimate influencers
+T0040 - Deny insurmountable proof
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T0053 - Twitter trolls amplify and manipulate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0056 - Dedicated channels disseminate information pollution
+T0060 - Continue to amplify</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00074</t>
@@ -7772,6 +7821,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -7779,11 +7833,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -8216,11 +8265,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8228,7 +8277,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19567,8 +19616,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3155,10 +3155,47 @@
     <t xml:space="preserve">C00072</t>
   </si>
   <si>
-    <t xml:space="preserve">Content censorship in non-relevant domains e.g. Pinterest antivax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0022 - Conspiracy narratives</t>
+    <t xml:space="preserve">Remove non-relevant content from special interest groups – not recommended</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0019 - Generate information pollution
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0044 - Seed distortions
+T0021 - Memes
+T0022 - Conspiracy narratives
+T0023 - Distort facts
+T0026 - Create fake research
+T0025 - Leak altered documents
+T0027 - Adapt existing narratives
+T0039 - Bait legitimate influencers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0055 - Use hashtag
+T0049 - Flooding
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00073</t>
@@ -7828,13 +7865,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -8277,7 +8314,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19617,7 +19654,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
+      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21209,7 +21246,7 @@
         <v>C00071 - Block source of pollution</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
         <v>891</v>
       </c>
@@ -21235,12 +21272,12 @@
         <v>713</v>
       </c>
       <c r="M44" s="20"/>
-      <c r="N44" s="52" t="s">
+      <c r="N44" s="56" t="s">
         <v>893</v>
       </c>
       <c r="O44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
-        <v>C00072 - Content censorship in non-relevant domains e.g. Pinterest antivax</v>
+        <v>C00072 - Remove non-relevant content from special interest groups – not recommended</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="268.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3131,7 +3131,14 @@
 T0046 - Search Engine Optimization: Sub-optimal website performance affect its search engine rank, which I interpret as "blocking access to a platform".</t>
   </si>
   <si>
-    <t xml:space="preserve">T0008 - Create fake or imposter news sites
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0008 - Create fake or imposter news sites
 T0014 - Create funding campaigns
 T0015 - Create hashtag
 T0017 - Promote online funding
@@ -3139,7 +3146,17 @@
 T0052 - Tertiary sites amplify news
 T0055 - Use hashtag
 T0057 - Organise remote rallies and events
-T0061 - Sell merchandising</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0056 - Dedicated channels disseminate information pollution</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00071</t>
@@ -7858,12 +7875,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -8302,11 +8319,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8314,7 +8331,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19654,7 +19671,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
+      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3085,7 +3085,7 @@
     <t xml:space="preserve">C00056</t>
   </si>
   <si>
-    <t xml:space="preserve">Get off social media</t>
+    <t xml:space="preserve">Encourage people to leave social media</t>
   </si>
   <si>
     <t xml:space="preserve">We don't expect this to work</t>
@@ -19464,7 +19464,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20747,7 +20747,7 @@
       <c r="N34" s="58"/>
       <c r="O34" s="24" t="str">
         <f aca="false">A34&amp;" - "&amp;B34</f>
-        <v>C00056 - Get off social media</v>
+        <v>C00056 - Encourage people to leave social media</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3077,9 +3077,7 @@
     <t xml:space="preserve">I00004</t>
   </si>
   <si>
-    <t xml:space="preserve">T0011 - Hijack accounts
-TA06 - Develop Content (D2 Deny)
-T0008 - Create fake or imposter news sites</t>
+    <t xml:space="preserve">T0011 - Hijack legitimate accounts</t>
   </si>
   <si>
     <t xml:space="preserve">C00056</t>
@@ -19464,7 +19462,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -3023,10 +3023,33 @@
     <t xml:space="preserve">Rand2237 and Dalton19</t>
   </si>
   <si>
-    <t xml:space="preserve">TA08 - Pump Priming
-T0048 - Cow online opinion leaders
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0045 - Use fake experts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0048 - Cow online opinion leaders
+T0051 - Fabricate social media comment
+T0052 - Teriary sites amplify news
+T0053 - Twitter trolls amplify and manipulate
+T0054 - Twitter bots amplify
+T0056 - Dedicated channel disseminate information pollution
 T0057 - Organise remote rallies and events
+T0060 - Continue to amplify
 T0061 - Sell merchandising</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00051</t>
@@ -3073,7 +3096,24 @@
     <t xml:space="preserve">A004 - activist</t>
   </si>
   <si>
-    <t xml:space="preserve">T0012 - Use concealment</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0012 - Use concealment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0030 - Backstop personas</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00053</t>
@@ -19486,8 +19526,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20615,7 +20655,7 @@
         <v>790</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="55" t="s">
+      <c r="N30" s="61" t="s">
         <v>847</v>
       </c>
       <c r="O30" s="24" t="str">
@@ -20691,7 +20731,7 @@
         <v>726</v>
       </c>
       <c r="M32" s="20"/>
-      <c r="N32" s="52" t="s">
+      <c r="N32" s="55" t="s">
         <v>857</v>
       </c>
       <c r="O32" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2981,16 +2981,37 @@
     <t xml:space="preserve">Keep people from posting to social media immediately</t>
   </si>
   <si>
-    <t xml:space="preserve">My interpretation is that this is method would be used to slow down activities or force a small delay between posts or replies to new posts.</t>
+    <t xml:space="preserve">Platforms can introduce friction to slow down activities, force a small delay between posts, or replies to posts.</t>
   </si>
   <si>
     <t xml:space="preserve">Rate restrict via regulation posting above a statistical threshold
 Unless account is de-anonymized and advertised as automated messaging</t>
   </si>
   <si>
-    <t xml:space="preserve">TA07 - Channel Selection
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0029 - Manipulate online polls
 T0049 - Flooding
-T0054 - Twitter bots amplify</t>
+T0054 - Twitter bots amplify
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0053 - Twitter trolls amplify and manipulate
+T0055 - Use hashtag
+T0056 - Dedicated channel disseminate information pollution
+T0051 - Fabricate social media comment
+T0050 - Cheerleading domestic social media ops</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00046</t>
@@ -3001,7 +3022,7 @@
   <si>
     <t xml:space="preserve">T0010 - Cultivate ignorant agents
 T0044 - Seed distortions
-T0021 – Memes
+T0021 - Memes
 T0022 - Conspiracy narratives
 T0023 - Distort facts
 T0027 - Adapt existing narratives
@@ -3012,7 +3033,7 @@
 T0052 - Teriary sites amplify news
 T0053 - Twitter trolls amplify and manipulate
 T0054 - Twitter bots amplify
-T0056 - Dedicated channel disseminate information pollution
+T0056 – Dedicated channel disseminate information pollution
 T0057 - Organise remote rallies and events
 T0060 - Continue to amplify
 T0061 - Sell merchandising</t>
@@ -19554,7 +19575,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20544,7 +20565,7 @@
         <v>C00042 - Address truth contained in narratives</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="107.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
         <v>832</v>
       </c>
@@ -20586,7 +20607,7 @@
         <v>C00044 - Keep people from posting to social media immediately</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="202.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
         <v>837</v>
       </c>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -19574,8 +19574,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20554,7 +20554,7 @@
         <v>441</v>
       </c>
       <c r="L26" s="52" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="55" t="s">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="2062">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -2955,7 +2955,9 @@
 - Academia ISAO</t>
   </si>
   <si>
-    <t xml:space="preserve">T0009 - Create fake experts</t>
+    <t xml:space="preserve">T0007 - Create fake social media profiles
+T0009 - Create fake experts
+T0012 - Use concealment</t>
   </si>
   <si>
     <t xml:space="preserve">C00042</t>
@@ -7439,6 +7441,9 @@
   </si>
   <si>
     <t xml:space="preserve">TA03 - Develop People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0009 - Create fake experts</t>
   </si>
   <si>
     <t xml:space="preserve">Verify published research accreditation</t>
@@ -12702,10 +12707,10 @@
         <v>1987</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>828</v>
+        <v>1988</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="J3" s="82"/>
       <c r="K3" s="79" t="str">
@@ -12715,23 +12720,23 @@
     </row>
     <row r="4" customFormat="false" ht="200.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="79" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
       <c r="D4" s="83"/>
       <c r="E4" s="82"/>
       <c r="F4" s="80" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G4" s="79" t="s">
         <v>1987</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>828</v>
+        <v>1988</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="J4" s="82"/>
       <c r="K4" s="79" t="str">
@@ -12741,17 +12746,17 @@
     </row>
     <row r="5" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="79" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
       <c r="D5" s="83"/>
       <c r="E5" s="82"/>
       <c r="F5" s="80" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="H5" s="79" t="s">
         <v>661</v>
@@ -12876,7 +12881,7 @@
         <v>1976</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D1" s="86"/>
       <c r="E1" s="85" t="s">
@@ -12893,15 +12898,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="88" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -12913,15 +12918,15 @@
     </row>
     <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="88" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
       <c r="D3" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
@@ -12933,12 +12938,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="88" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
       <c r="D4" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>5</v>
@@ -12953,15 +12958,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="88" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
       <c r="D5" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F5" s="83"/>
       <c r="G5" s="83"/>
@@ -12973,15 +12978,15 @@
     </row>
     <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="88" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
       <c r="D6" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
@@ -12993,15 +12998,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="88" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B7" s="82"/>
       <c r="C7" s="82"/>
       <c r="D7" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
@@ -13013,15 +13018,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="88" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B8" s="82"/>
       <c r="C8" s="82"/>
       <c r="D8" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="83"/>
@@ -13033,20 +13038,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="88" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B9" s="82"/>
       <c r="C9" s="82"/>
       <c r="D9" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F9" s="83"/>
       <c r="G9" s="83"/>
       <c r="H9" s="80" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I9" s="88" t="str">
         <f aca="false">A9</f>
@@ -13055,15 +13060,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="88" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="82"/>
       <c r="D10" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83"/>
@@ -13075,20 +13080,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="88" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82"/>
       <c r="D11" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
       <c r="H11" s="80" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I11" s="88" t="str">
         <f aca="false">A11</f>
@@ -13097,20 +13102,20 @@
     </row>
     <row r="12" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="88" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82"/>
       <c r="D12" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
       <c r="H12" s="80" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I12" s="88" t="str">
         <f aca="false">A12</f>
@@ -13119,15 +13124,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="88" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E13" s="84" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
@@ -13139,15 +13144,15 @@
     </row>
     <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="88" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
       <c r="D14" s="79" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
@@ -13159,7 +13164,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="88" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -13175,13 +13180,13 @@
     </row>
     <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="88" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
       <c r="D16" s="83"/>
       <c r="E16" s="54" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -13193,13 +13198,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="88" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="83"/>
       <c r="E17" s="84" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
@@ -13211,15 +13216,15 @@
     </row>
     <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="88" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B18" s="82"/>
       <c r="C18" s="82"/>
       <c r="D18" s="79" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
@@ -13231,15 +13236,15 @@
     </row>
     <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="88" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
       <c r="D19" s="79" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
@@ -13251,7 +13256,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="88" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B20" s="82"/>
       <c r="C20" s="82"/>
@@ -13267,15 +13272,15 @@
     </row>
     <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="88" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B21" s="82"/>
       <c r="C21" s="82"/>
       <c r="D21" s="79" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -13287,15 +13292,15 @@
     </row>
     <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="88" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="82"/>
       <c r="D22" s="79" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
@@ -13307,7 +13312,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="88" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
@@ -13323,7 +13328,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="88" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
@@ -13339,7 +13344,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="88" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B25" s="82"/>
       <c r="C25" s="82"/>
@@ -13355,15 +13360,15 @@
     </row>
     <row r="26" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="88" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B26" s="82"/>
       <c r="C26" s="82"/>
       <c r="D26" s="79" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
@@ -13375,7 +13380,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="88" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
@@ -13391,7 +13396,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="88" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
@@ -13407,7 +13412,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="88" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -13423,7 +13428,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="88" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -13439,13 +13444,13 @@
     </row>
     <row r="31" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="88" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
       <c r="D31" s="83"/>
       <c r="E31" s="54" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="F31" s="83"/>
       <c r="G31" s="83"/>
@@ -13457,7 +13462,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="88" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="82"/>
@@ -13473,15 +13478,15 @@
     </row>
     <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B33" s="82"/>
       <c r="C33" s="82"/>
       <c r="D33" s="79" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E33" s="84" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
@@ -13493,15 +13498,15 @@
     </row>
     <row r="34" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="88" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B34" s="82"/>
       <c r="C34" s="82"/>
       <c r="D34" s="79" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E34" s="84" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="F34" s="83"/>
       <c r="G34" s="83"/>
@@ -13513,15 +13518,15 @@
     </row>
     <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="88" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B35" s="82"/>
       <c r="C35" s="82"/>
       <c r="D35" s="79" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F35" s="83"/>
       <c r="G35" s="83"/>
@@ -19575,7 +19580,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20523,7 +20528,7 @@
         <v>712</v>
       </c>
       <c r="M25" s="20"/>
-      <c r="N25" s="52" t="s">
+      <c r="N25" s="55" t="s">
         <v>828</v>
       </c>
       <c r="O25" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2933,12 +2933,39 @@
 -Publicize this by targeting their in-group competitors (ignorant agents)</t>
   </si>
   <si>
-    <t xml:space="preserve">T0005 - Center of Gravity Analysis
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0005 - Center of Gravity Analysis
 T0007 - Create fake Social Media Profiles / Pages / Groups
-T0017 - Promote online funding
-T0025 - Leak altered documents
-T0056 - Dedicated channels disseminate information pollution
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0012 - Use concealment
+T0030 - Backstop personas
+T0045 - Use fake experts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0056 - Dedicated channels disseminate information pollution
 T0057 - Organise remote rallies and events</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00040</t>
@@ -19580,7 +19607,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="2063">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -2907,6 +2907,9 @@
 Playbook 2: Hijack (man in the middle) redirect from bad content to good content</t>
   </si>
   <si>
+    <t xml:space="preserve">T0055 - Use hashtag</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00034</t>
   </si>
   <si>
@@ -3922,9 +3925,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hashtag jacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0055 - Use hashtag</t>
   </si>
   <si>
     <t xml:space="preserve">C00101</t>
@@ -19609,7 +19609,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20449,7 +20449,9 @@
         <v>668</v>
       </c>
       <c r="M22" s="20"/>
-      <c r="N22" s="58"/>
+      <c r="N22" s="58" t="s">
+        <v>815</v>
+      </c>
       <c r="O22" s="24" t="str">
         <f aca="false">A22&amp;" - "&amp;B22</f>
         <v>C00032 - Hijack content and link to truth- based info</v>
@@ -20457,16 +20459,16 @@
     </row>
     <row r="23" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -20484,7 +20486,7 @@
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="60" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O23" s="24" t="str">
         <f aca="false">A23&amp;" - "&amp;B23</f>
@@ -20493,19 +20495,19 @@
     </row>
     <row r="24" customFormat="false" ht="152.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -20522,7 +20524,7 @@
       </c>
       <c r="M24" s="20"/>
       <c r="N24" s="55" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O24" s="24" t="str">
         <f aca="false">A24&amp;" - "&amp;B24</f>
@@ -20531,19 +20533,19 @@
     </row>
     <row r="25" customFormat="false" ht="50.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>794</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -20560,7 +20562,7 @@
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="55" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O25" s="24" t="str">
         <f aca="false">A25&amp;" - "&amp;B25</f>
@@ -20569,10 +20571,10 @@
     </row>
     <row r="26" customFormat="false" ht="182.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>765</v>
@@ -20594,7 +20596,7 @@
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="55" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="O26" s="24" t="str">
         <f aca="false">A26&amp;" - "&amp;B26</f>
@@ -20603,19 +20605,19 @@
     </row>
     <row r="27" customFormat="false" ht="107.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>761</v>
@@ -20636,7 +20638,7 @@
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="55" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O27" s="24" t="str">
         <f aca="false">A27&amp;" - "&amp;B27</f>
@@ -20645,13 +20647,13 @@
     </row>
     <row r="28" customFormat="false" ht="202.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="20"/>
@@ -20670,7 +20672,7 @@
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="60" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O28" s="24" t="str">
         <f aca="false">A28&amp;" - "&amp;B28</f>
@@ -20679,13 +20681,13 @@
     </row>
     <row r="29" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -20704,7 +20706,7 @@
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="56" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O29" s="24" t="str">
         <f aca="false">A29&amp;" - "&amp;B29</f>
@@ -20713,19 +20715,19 @@
     </row>
     <row r="30" customFormat="false" ht="352.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>710</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -20733,7 +20735,7 @@
         <v>749</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="52" t="s">
@@ -20744,7 +20746,7 @@
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="62" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O30" s="24" t="str">
         <f aca="false">A30&amp;" - "&amp;B30</f>
@@ -20753,20 +20755,20 @@
     </row>
     <row r="31" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>730</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24" t="s">
@@ -20782,7 +20784,7 @@
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="62" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O31" s="24" t="str">
         <f aca="false">A31&amp;" - "&amp;B31</f>
@@ -20791,20 +20793,20 @@
     </row>
     <row r="32" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="24" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
@@ -20820,7 +20822,7 @@
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="55" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O32" s="24" t="str">
         <f aca="false">A32&amp;" - "&amp;B32</f>
@@ -20829,28 +20831,28 @@
     </row>
     <row r="33" customFormat="false" ht="134.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="24" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K33" s="52" t="s">
         <v>477</v>
@@ -20860,7 +20862,7 @@
       </c>
       <c r="M33" s="20"/>
       <c r="N33" s="55" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O33" s="24" t="str">
         <f aca="false">A33&amp;" - "&amp;B33</f>
@@ -20869,16 +20871,16 @@
     </row>
     <row r="34" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -20903,16 +20905,16 @@
     </row>
     <row r="35" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>759</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -20930,7 +20932,7 @@
       </c>
       <c r="M35" s="20"/>
       <c r="N35" s="55" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O35" s="24" t="str">
         <f aca="false">A35&amp;" - "&amp;B35</f>
@@ -20939,10 +20941,10 @@
     </row>
     <row r="36" customFormat="false" ht="62.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>794</v>
@@ -20964,7 +20966,7 @@
       </c>
       <c r="M36" s="20"/>
       <c r="N36" s="60" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O36" s="24" t="str">
         <f aca="false">A36&amp;" - "&amp;B36</f>
@@ -20973,13 +20975,13 @@
     </row>
     <row r="37" customFormat="false" ht="74.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -21000,7 +21002,7 @@
       </c>
       <c r="M37" s="20"/>
       <c r="N37" s="55" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O37" s="24" t="str">
         <f aca="false">A37&amp;" - "&amp;B37</f>
@@ -21009,16 +21011,16 @@
     </row>
     <row r="38" customFormat="false" ht="62.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -21045,16 +21047,16 @@
     </row>
     <row r="39" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>759</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="24" t="s">
@@ -21074,7 +21076,7 @@
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="52" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="O39" s="24" t="str">
         <f aca="false">A39&amp;" - "&amp;B39</f>
@@ -21083,10 +21085,10 @@
     </row>
     <row r="40" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>806</v>
@@ -21108,7 +21110,7 @@
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="55" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O40" s="24" t="str">
         <f aca="false">A40&amp;" - "&amp;B40</f>
@@ -21117,13 +21119,13 @@
     </row>
     <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
@@ -21142,7 +21144,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="55" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O41" s="24" t="str">
         <f aca="false">A41&amp;" - "&amp;B41</f>
@@ -21151,16 +21153,16 @@
     </row>
     <row r="42" customFormat="false" ht="202.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>759</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -21178,7 +21180,7 @@
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="55" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O42" s="24" t="str">
         <f aca="false">A42&amp;" - "&amp;B42</f>
@@ -21187,10 +21189,10 @@
     </row>
     <row r="43" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>759</v>
@@ -21212,7 +21214,7 @@
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="55" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="O43" s="24" t="str">
         <f aca="false">A43&amp;" - "&amp;B43</f>
@@ -21221,10 +21223,10 @@
     </row>
     <row r="44" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>759</v>
@@ -21246,7 +21248,7 @@
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="55" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
@@ -21255,24 +21257,24 @@
     </row>
     <row r="45" customFormat="false" ht="268.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>730</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="24" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I45" s="59" t="s">
         <v>624</v>
@@ -21286,7 +21288,7 @@
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="55" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O45" s="24" t="str">
         <f aca="false">A45&amp;" - "&amp;B45</f>
@@ -21295,22 +21297,22 @@
     </row>
     <row r="46" customFormat="false" ht="230.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
@@ -21326,7 +21328,7 @@
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="55" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O46" s="24" t="str">
         <f aca="false">A46&amp;" - "&amp;B46</f>
@@ -21335,10 +21337,10 @@
     </row>
     <row r="47" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>765</v>
@@ -21367,10 +21369,10 @@
     </row>
     <row r="48" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>759</v>
@@ -21392,7 +21394,7 @@
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="55" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O48" s="24" t="str">
         <f aca="false">A48&amp;" - "&amp;B48</f>
@@ -21401,13 +21403,13 @@
     </row>
     <row r="49" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -21433,16 +21435,16 @@
     </row>
     <row r="50" customFormat="false" ht="110.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -21460,7 +21462,7 @@
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="55" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O50" s="24" t="str">
         <f aca="false">A50&amp;" - "&amp;B50</f>
@@ -21469,16 +21471,16 @@
     </row>
     <row r="51" customFormat="false" ht="188.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -21496,7 +21498,7 @@
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="55" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O51" s="24" t="str">
         <f aca="false">A51&amp;" - "&amp;B51</f>
@@ -21505,16 +21507,16 @@
     </row>
     <row r="52" customFormat="false" ht="122.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>710</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -21532,7 +21534,7 @@
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="56" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O52" s="24" t="str">
         <f aca="false">A52&amp;" - "&amp;B52</f>
@@ -21541,16 +21543,16 @@
     </row>
     <row r="53" customFormat="false" ht="172.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>765</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -21568,7 +21570,7 @@
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="56" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="O53" s="24" t="str">
         <f aca="false">A53&amp;" - "&amp;B53</f>
@@ -21577,16 +21579,16 @@
     </row>
     <row r="54" customFormat="false" ht="118.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -21604,7 +21606,7 @@
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="55" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="O54" s="24" t="str">
         <f aca="false">A54&amp;" - "&amp;B54</f>
@@ -21613,16 +21615,16 @@
     </row>
     <row r="55" customFormat="false" ht="303.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>710</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -21640,7 +21642,7 @@
       </c>
       <c r="M55" s="20"/>
       <c r="N55" s="63" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O55" s="24" t="str">
         <f aca="false">A55&amp;" - "&amp;B55</f>
@@ -21649,16 +21651,16 @@
     </row>
     <row r="56" customFormat="false" ht="134.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -21676,7 +21678,7 @@
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="64" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O56" s="24" t="str">
         <f aca="false">A56&amp;" - "&amp;B56</f>
@@ -21685,16 +21687,16 @@
     </row>
     <row r="57" customFormat="false" ht="172.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>806</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -21712,7 +21714,7 @@
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="64" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O57" s="24" t="str">
         <f aca="false">A57&amp;" - "&amp;B57</f>
@@ -21721,10 +21723,10 @@
     </row>
     <row r="58" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>799</v>
@@ -21746,7 +21748,7 @@
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="55" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O58" s="24" t="str">
         <f aca="false">A58&amp;" - "&amp;B58</f>
@@ -21755,16 +21757,16 @@
     </row>
     <row r="59" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -21782,7 +21784,7 @@
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="55" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O59" s="24" t="str">
         <f aca="false">A59&amp;" - "&amp;B59</f>
@@ -21791,23 +21793,23 @@
     </row>
     <row r="60" customFormat="false" ht="172.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="24" t="s">
         <v>618</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>413</v>
@@ -21822,7 +21824,7 @@
       </c>
       <c r="M60" s="20"/>
       <c r="N60" s="55" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O60" s="24" t="str">
         <f aca="false">A60&amp;" - "&amp;B60</f>
@@ -21831,16 +21833,16 @@
     </row>
     <row r="61" customFormat="false" ht="152.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>730</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -21858,7 +21860,7 @@
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="55" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O61" s="24" t="str">
         <f aca="false">A61&amp;" - "&amp;B61</f>
@@ -21867,16 +21869,16 @@
     </row>
     <row r="62" customFormat="false" ht="50.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>710</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -21894,7 +21896,7 @@
       </c>
       <c r="M62" s="20"/>
       <c r="N62" s="52" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O62" s="24" t="str">
         <f aca="false">A62&amp;" - "&amp;B62</f>
@@ -21903,10 +21905,10 @@
     </row>
     <row r="63" customFormat="false" ht="70.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>721</v>
@@ -21928,7 +21930,7 @@
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="55" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O63" s="24" t="str">
         <f aca="false">A63&amp;" - "&amp;B63</f>
@@ -21937,10 +21939,10 @@
     </row>
     <row r="64" customFormat="false" ht="80.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>706</v>
@@ -21966,7 +21968,7 @@
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="55" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O64" s="24" t="str">
         <f aca="false">A64&amp;" - "&amp;B64</f>
@@ -21975,17 +21977,17 @@
     </row>
     <row r="65" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="24" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>761</v>
@@ -22004,7 +22006,7 @@
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="55" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O65" s="24" t="str">
         <f aca="false">A65&amp;" - "&amp;B65</f>
@@ -22013,10 +22015,10 @@
     </row>
     <row r="66" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>706</v>
@@ -22042,7 +22044,7 @@
       </c>
       <c r="M66" s="20"/>
       <c r="N66" s="55" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="O66" s="24" t="str">
         <f aca="false">A66&amp;" - "&amp;B66</f>
@@ -22051,10 +22053,10 @@
     </row>
     <row r="67" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>799</v>
@@ -22076,7 +22078,7 @@
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="52" t="s">
-        <v>989</v>
+        <v>815</v>
       </c>
       <c r="O67" s="24" t="str">
         <f aca="false">A67&amp;" - "&amp;B67</f>
@@ -23197,7 +23199,7 @@
         <v>1103</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>1104</v>
@@ -23275,7 +23277,7 @@
         <v>1113</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>1114</v>
@@ -23387,7 +23389,7 @@
         <v>1125</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>1126</v>
@@ -23429,7 +23431,7 @@
         <v>1130</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>1131</v>
@@ -23467,7 +23469,7 @@
         <v>1135</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D106" s="54" t="s">
         <v>1136</v>
@@ -23737,7 +23739,7 @@
         <v>1165</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>1166</v>
@@ -23775,7 +23777,7 @@
         <v>1169</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>1170</v>
@@ -24519,7 +24521,7 @@
         <v>1261</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>1262</v>
@@ -24570,7 +24572,7 @@
       </c>
       <c r="I134" s="20"/>
       <c r="J134" s="24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K134" s="55" t="s">
         <v>574</v>
@@ -25030,7 +25032,7 @@
     </row>
     <row r="5" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>1318</v>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2889,9 +2889,27 @@
     <t xml:space="preserve">CAVEAT: some element of disinformation is simply filling the information space with so much data that it overwhelms people and they shutdown. Any swarm-counter-narrative needs to be cautious of this outcome.</t>
   </si>
   <si>
-    <t xml:space="preserve">T0002 - Facilitate State Propaganda
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0002 - Facilitate State Propaganda
 T0003 - Leverage Existing Narratives
-T0006 - Create Master Narratives</t>
+T0006 - Create Master Narratives
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0027 - Adapt existing narratives
+T0028 - Create competing narratives</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00032</t>
@@ -19608,8 +19626,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="2064">
   <si>
     <t xml:space="preserve">MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -2860,22 +2860,22 @@
 -Obtain real-life identity of ignorant agents, to further disrupt their influence activities</t>
   </si>
   <si>
-    <t xml:space="preserve">C00030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop a compelling counter narrative (truth based)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: Reality Team.
-https://www.isdglobal.org/wp-content/uploads/2016/06/Counter-narrative-Handbook_1.pdf </t>
-  </si>
-  <si>
     <t xml:space="preserve">T0002 - Facilitate State Propaganda
 T0003 - Leverage Existing Narratives
 T0006 - Create Master Narratives
 T0027 - Adapt existing narratives
 T0028 - Create competing narratives
 T0022 - Conspiracy narratives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop a compelling counter narrative (truth based)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: Reality Team.
+https://www.isdglobal.org/wp-content/uploads/2016/06/Counter-narrative-Handbook_1.pdf </t>
   </si>
   <si>
     <t xml:space="preserve">C00031</t>
@@ -8387,7 +8387,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="N19 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11180,7 +11180,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11351,7 +11351,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11619,7 +11619,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12318,7 +12318,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12504,7 +12504,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12682,7 +12682,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12920,7 +12920,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13620,7 +13620,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13776,7 +13776,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14081,7 +14081,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15279,7 +15279,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15920,7 +15920,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16479,7 +16479,7 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="N19 A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19635,7 +19635,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20365,7 +20365,9 @@
         <v>668</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="58"/>
+      <c r="N19" s="60" t="s">
+        <v>801</v>
+      </c>
       <c r="O19" s="24" t="str">
         <f aca="false">A19&amp;" - "&amp;B19</f>
         <v>C00029 - Create fake website to issue counter narrative and counter narrative through physical merchandise</v>
@@ -20373,16 +20375,16 @@
     </row>
     <row r="20" customFormat="false" ht="102.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>799</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -20400,7 +20402,7 @@
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="60" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="O20" s="24" t="str">
         <f aca="false">A20&amp;" - "&amp;B20</f>
@@ -24900,7 +24902,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2815,15 +2815,35 @@
     <t xml:space="preserve">D7 Deter</t>
   </si>
   <si>
-    <t xml:space="preserve">TA01 - Strategic Planning
-TA08 - Pump Priming
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
 T0006 - Create Master Narratives
+T0027 - Adapt existing narratives
+T0028 - Create competing narratives
 T0022 - Conspiracy narratives
-T0023 - Distort facts
-T0027 - Adapt existing narratives
-T0047 - Muzzle social media as a political force
+T0021 - Memes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0023 - Distort facts
 T0048 - Cow online opinion leaders
-T0053 - Twitter trolls amplify and manipulate</t>
+T0053 - Twitter trolls amplify and manipulate
+T0044 - Seed distortions
+T0039 - Bait legitimate influencers</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00028</t>
@@ -8251,16 +8271,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8387,7 +8407,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="N19 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8892,7 +8912,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11180,7 +11200,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11351,7 +11371,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11619,7 +11639,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12318,7 +12338,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12504,7 +12524,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12682,7 +12702,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12920,7 +12940,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13620,7 +13640,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13776,7 +13796,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14081,7 +14101,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15279,7 +15299,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15920,7 +15940,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16479,7 +16499,7 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="N19 A95"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19634,8 +19654,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20293,7 +20313,7 @@
         <v>790</v>
       </c>
       <c r="M17" s="20"/>
-      <c r="N17" s="55" t="s">
+      <c r="N17" s="60" t="s">
         <v>791</v>
       </c>
       <c r="O17" s="24" t="str">
@@ -20365,7 +20385,7 @@
         <v>668</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="61" t="s">
         <v>801</v>
       </c>
       <c r="O19" s="24" t="str">
@@ -20401,7 +20421,7 @@
         <v>668</v>
       </c>
       <c r="M20" s="20"/>
-      <c r="N20" s="60" t="s">
+      <c r="N20" s="61" t="s">
         <v>801</v>
       </c>
       <c r="O20" s="24" t="str">
@@ -20515,7 +20535,7 @@
         <v>726</v>
       </c>
       <c r="M23" s="20"/>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="61" t="s">
         <v>820</v>
       </c>
       <c r="O23" s="24" t="str">
@@ -20701,7 +20721,7 @@
         <v>726</v>
       </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="61" t="s">
         <v>842</v>
       </c>
       <c r="O28" s="24" t="str">
@@ -20764,7 +20784,7 @@
       <c r="H30" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="62" t="s">
         <v>851</v>
       </c>
       <c r="J30" s="4"/>
@@ -20775,7 +20795,7 @@
         <v>790</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="62" t="s">
+      <c r="N30" s="60" t="s">
         <v>852</v>
       </c>
       <c r="O30" s="24" t="str">
@@ -20813,7 +20833,7 @@
         <v>712</v>
       </c>
       <c r="M31" s="20"/>
-      <c r="N31" s="62" t="s">
+      <c r="N31" s="60" t="s">
         <v>857</v>
       </c>
       <c r="O31" s="24" t="str">
@@ -20995,7 +21015,7 @@
         <v>712</v>
       </c>
       <c r="M36" s="20"/>
-      <c r="N36" s="60" t="s">
+      <c r="N36" s="61" t="s">
         <v>880</v>
       </c>
       <c r="O36" s="24" t="str">
@@ -24902,7 +24922,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2781,11 +2781,17 @@
     <t xml:space="preserve">Includes promoting constructive narratives i.e. not polarising (e.g. pro-life, pro-choice, pro-USA).  Includes promoting identity neutral narratives. </t>
   </si>
   <si>
-    <t xml:space="preserve">TA01 - Strategic Planning
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
 T0006 - Create Master Narratives
 T0027 - Adapt existing narratives
+T0028 - Create competing narratives
 T0022 - Conspiracy narratives
-T0023 - Distort facts</t>
+T0023 - Distort facts
+T0053 - Twitter trolls amplify and manipulate
+T0044 - Seed distortions
+</t>
   </si>
   <si>
     <t xml:space="preserve">C00026</t>
@@ -19659,7 +19665,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20241,7 +20247,7 @@
         <v>726</v>
       </c>
       <c r="M15" s="20"/>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="60" t="s">
         <v>782</v>
       </c>
       <c r="O15" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2760,15 +2760,6 @@
     <t xml:space="preserve">Encourage in-person communication</t>
   </si>
   <si>
-    <t xml:space="preserve">C00022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innoculate. Positive campaign to promote feeling of safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to counter ability based and fear based attacks</t>
-  </si>
-  <si>
     <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
 T0002 - Facilitate State Propaganda
 T0003 - Leverage Existing Narratives
@@ -2780,6 +2771,15 @@
 T0053 - Twitter trolls amplify and manipulate
 T0044 - Seed distortions
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innoculate. Positive campaign to promote feeling of safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to counter ability based and fear based attacks</t>
   </si>
   <si>
     <t xml:space="preserve">C00024</t>
@@ -8414,7 +8414,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="N13 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8919,7 +8919,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11207,7 +11207,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11378,7 +11378,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11646,7 +11646,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12345,7 +12345,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12531,7 +12531,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12709,7 +12709,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12947,7 +12947,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13647,7 +13647,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13803,7 +13803,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14108,7 +14108,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15306,7 +15306,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15947,7 +15947,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16506,7 +16506,7 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="N13 A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19662,7 +19662,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20146,7 +20146,7 @@
         <v>C00019 - Reduce effect of division-enablers</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="38.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
         <v>773</v>
       </c>
@@ -20172,8 +20172,8 @@
         <v>726</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="52" t="s">
-        <v>416</v>
+      <c r="N13" s="60" t="s">
+        <v>775</v>
       </c>
       <c r="O13" s="24" t="str">
         <f aca="false">A13&amp;" - "&amp;B13</f>
@@ -20182,16 +20182,16 @@
     </row>
     <row r="14" customFormat="false" ht="117.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>730</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="60" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O14" s="24" t="str">
         <f aca="false">A14&amp;" - "&amp;B14</f>
@@ -20245,7 +20245,7 @@
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="60" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O15" s="24" t="str">
         <f aca="false">A15&amp;" - "&amp;B15</f>
@@ -24929,7 +24929,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2749,9 +2749,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TA08 - Pump Priming
-TA09 - Exposure
-TA10 - Go Physical</t>
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
+T0027 - Adapt existing narratives
+T0028 - Create competing narratives
+T0022 - Conspiracy narratives
+T0023 - Distort facts
+T0053 - Twitter trolls amplify and manipulate
+T0044 - Seed distortions
+T0052 - Teriary sites amplify news
+T0056 - Dedicated channel disseminate information pollution</t>
   </si>
   <si>
     <t xml:space="preserve">C00021</t>
@@ -8414,7 +8422,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="N13 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8919,7 +8927,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11207,7 +11215,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11378,7 +11386,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11646,7 +11654,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12345,7 +12353,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12531,7 +12539,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12709,7 +12717,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12947,7 +12955,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13647,7 +13655,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13803,7 +13811,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14108,7 +14116,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15306,7 +15314,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15947,7 +15955,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16506,7 +16514,7 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="N13 A95"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19661,8 +19669,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20138,7 +20146,7 @@
         <v>668</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="60" t="s">
         <v>772</v>
       </c>
       <c r="O12" s="24" t="str">
@@ -24929,7 +24937,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2622,11 +2622,9 @@
     <t xml:space="preserve">2019-11-workshop, 2019-11-search</t>
   </si>
   <si>
-    <t xml:space="preserve">TA07 - Channel Selection
-TA09 - Exposure
-TA10 - Go Physical
-T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
 T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
 T0007 - Create fake Social Media Profiles / Pages / Groups
 T0008 - Create fake or imposter news sites
 T0009 - Create fake experts
@@ -2647,6 +2645,7 @@
 T0047 - Muzzle social media as a political force
 T0048 - Cow online opinion leaders
 T0049 - Flooding
+T0050 - Cheerleading domestic social media ops
 T0051 - Fabricate social media comment
 T0052 - Tertiary sites amplify news
 T0053 - Twitter trolls amplify and manipulate
@@ -2654,8 +2653,7 @@
 T0055 - Use hashtag
 T0056 - Dedicated channels disseminate information pollution
 T0057 - Organise remote rallies and events
-T0061 - Sell merchandising
-</t>
+T0061 - Sell merchandising</t>
   </si>
   <si>
     <t xml:space="preserve">C00013</t>
@@ -3237,7 +3235,7 @@
 T0052 - Teriary sites amplify news
 T0053 - Twitter trolls amplify and manipulate
 T0054 - Twitter bots amplify
-T0056 – Dedicated channel disseminate information pollution
+T0056 - Dedicated channel disseminate information pollution
 T0057 - Organise remote rallies and events
 T0060 - Continue to amplify
 T0061 - Sell merchandising</t>
@@ -3523,7 +3521,7 @@
     <t xml:space="preserve">C00072</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove non-relevant content from special interest groups – not recommended</t>
+    <t xml:space="preserve">Remove non-relevant content from special interest groups - not recommended</t>
   </si>
   <si>
     <r>
@@ -4561,7 +4559,7 @@
   </si>
   <si>
     <t xml:space="preserve">TA08 - Pump Priming
-TA09 – Exposure
+TA09 - Exposure
 T0053 - Twitter trolls amplify and manipulate
 T0063 - Social media engagement</t>
   </si>
@@ -4914,7 +4912,7 @@
   </si>
   <si>
     <t xml:space="preserve">T0014 - Create funding campaign
-T0017 – Promote online funding</t>
+T0017 - Promote online funding</t>
   </si>
   <si>
     <t xml:space="preserve">C00156</t>
@@ -19774,8 +19772,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20845,7 +20843,7 @@
         <v>726</v>
       </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="56" t="s">
         <v>846</v>
       </c>
       <c r="O28" s="24" t="str">
@@ -21426,7 +21424,7 @@
       </c>
       <c r="O44" s="24" t="str">
         <f aca="false">A44&amp;" - "&amp;B44</f>
-        <v>C00072 - Remove non-relevant content from special interest groups – not recommended</v>
+        <v>C00072 - Remove non-relevant content from special interest groups - not recommended</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="268.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2593,12 +2593,23 @@
     <t xml:space="preserve">A006 - educator,A026 - games designer,A024 - developer</t>
   </si>
   <si>
-    <t xml:space="preserve">TA03 - Develop People
-TA04 - Develop Networks
-TA05 - Microtargeting
-TA08 - Pump Priming
-TA09 - Exposure
-T0059 - Play the long game</t>
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
+T0027 - Adapt existing narratives
+T0028 - Create competing narratives
+T0006 - Create Master Narratives
+T0009 - Create fake experts
+T0008 - Create fake or imposter news sites
+T0013 - Create fake websites
+T0021 - Memes 
+T0025 - Leak altered documents
+T0024 - Create fake videos and images
+T0026 - Create fake research
+T0056 - Dedicated channels disseminate information pollution
+T0051 - Fabricate social media comment
+T0044 - Seed distortions
+T0045 - Use fake experts</t>
   </si>
   <si>
     <t xml:space="preserve">C00012</t>
@@ -7956,16 +7967,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -8389,15 +8400,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19772,8 +19783,8 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20021,7 +20032,7 @@
         <v>712</v>
       </c>
       <c r="M6" s="20"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="59" t="s">
         <v>742</v>
       </c>
       <c r="O6" s="24" t="str">
@@ -20052,7 +20063,7 @@
       <c r="H7" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="4"/>
@@ -20099,7 +20110,7 @@
         <v>712</v>
       </c>
       <c r="M8" s="20"/>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="61" t="s">
         <v>754</v>
       </c>
       <c r="O8" s="24" t="str">
@@ -20137,7 +20148,7 @@
         <v>726</v>
       </c>
       <c r="M9" s="20"/>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="61" t="s">
         <v>759</v>
       </c>
       <c r="O9" s="24" t="str">
@@ -20177,7 +20188,7 @@
         <v>712</v>
       </c>
       <c r="M10" s="20"/>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="61" t="s">
         <v>765</v>
       </c>
       <c r="O10" s="24" t="str">
@@ -20215,7 +20226,7 @@
         <v>668</v>
       </c>
       <c r="M11" s="20"/>
-      <c r="N11" s="60" t="s">
+      <c r="N11" s="61" t="s">
         <v>771</v>
       </c>
       <c r="O11" s="24" t="str">
@@ -20253,7 +20264,7 @@
         <v>668</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="59" t="s">
         <v>776</v>
       </c>
       <c r="O12" s="24" t="str">
@@ -20287,7 +20298,7 @@
         <v>726</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="61" t="s">
+      <c r="N13" s="59" t="s">
         <v>779</v>
       </c>
       <c r="O13" s="24" t="str">
@@ -20323,7 +20334,7 @@
         <v>726</v>
       </c>
       <c r="M14" s="20"/>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="59" t="s">
         <v>779</v>
       </c>
       <c r="O14" s="24" t="str">
@@ -20359,7 +20370,7 @@
         <v>726</v>
       </c>
       <c r="M15" s="20"/>
-      <c r="N15" s="61" t="s">
+      <c r="N15" s="59" t="s">
         <v>779</v>
       </c>
       <c r="O15" s="24" t="str">
@@ -20386,7 +20397,7 @@
       <c r="H16" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J16" s="4"/>
@@ -20397,7 +20408,7 @@
         <v>726</v>
       </c>
       <c r="M16" s="20"/>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="59" t="s">
         <v>789</v>
       </c>
       <c r="O16" s="24" t="str">
@@ -20435,7 +20446,7 @@
         <v>794</v>
       </c>
       <c r="M17" s="20"/>
-      <c r="N17" s="61" t="s">
+      <c r="N17" s="59" t="s">
         <v>795</v>
       </c>
       <c r="O17" s="24" t="str">
@@ -20507,7 +20518,7 @@
         <v>668</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="61" t="s">
         <v>805</v>
       </c>
       <c r="O19" s="24" t="str">
@@ -20543,7 +20554,7 @@
         <v>668</v>
       </c>
       <c r="M20" s="20"/>
-      <c r="N20" s="60" t="s">
+      <c r="N20" s="61" t="s">
         <v>805</v>
       </c>
       <c r="O20" s="24" t="str">
@@ -20657,7 +20668,7 @@
         <v>726</v>
       </c>
       <c r="M23" s="20"/>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="61" t="s">
         <v>824</v>
       </c>
       <c r="O23" s="24" t="str">
@@ -20917,7 +20928,7 @@
         <v>794</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="61" t="s">
+      <c r="N30" s="59" t="s">
         <v>856</v>
       </c>
       <c r="O30" s="24" t="str">
@@ -20955,7 +20966,7 @@
         <v>712</v>
       </c>
       <c r="M31" s="20"/>
-      <c r="N31" s="61" t="s">
+      <c r="N31" s="59" t="s">
         <v>861</v>
       </c>
       <c r="O31" s="24" t="str">
@@ -21137,7 +21148,7 @@
         <v>712</v>
       </c>
       <c r="M36" s="20"/>
-      <c r="N36" s="60" t="s">
+      <c r="N36" s="61" t="s">
         <v>884</v>
       </c>
       <c r="O36" s="24" t="str">
@@ -21448,7 +21459,7 @@
       <c r="H45" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J45" s="4"/>
@@ -23654,7 +23665,7 @@
       <c r="H106" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I106" s="59" t="s">
+      <c r="I106" s="60" t="s">
         <v>49</v>
       </c>
       <c r="J106" s="20"/>
@@ -23770,7 +23781,7 @@
       <c r="H109" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I109" s="59" t="s">
+      <c r="I109" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J109" s="20"/>
@@ -23808,7 +23819,7 @@
       <c r="H110" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I110" s="59" t="s">
+      <c r="I110" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J110" s="20"/>
@@ -23846,7 +23857,7 @@
       <c r="H111" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I111" s="59" t="s">
+      <c r="I111" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J111" s="20"/>
@@ -23884,7 +23895,7 @@
       <c r="H112" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I112" s="59" t="s">
+      <c r="I112" s="60" t="s">
         <v>49</v>
       </c>
       <c r="J112" s="20"/>
@@ -23922,7 +23933,7 @@
       <c r="H113" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I113" s="59" t="s">
+      <c r="I113" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J113" s="20"/>
@@ -23960,7 +23971,7 @@
       <c r="H114" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I114" s="59" t="s">
+      <c r="I114" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J114" s="20"/>
@@ -24036,7 +24047,7 @@
       <c r="H116" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I116" s="59" t="s">
+      <c r="I116" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J116" s="20"/>
@@ -24074,7 +24085,7 @@
       <c r="H117" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I117" s="59" t="s">
+      <c r="I117" s="60" t="s">
         <v>49</v>
       </c>
       <c r="J117" s="20"/>
@@ -24154,7 +24165,7 @@
       <c r="H119" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I119" s="59" t="s">
+      <c r="I119" s="60" t="s">
         <v>1199</v>
       </c>
       <c r="J119" s="20"/>
@@ -24192,7 +24203,7 @@
       <c r="H120" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I120" s="59" t="s">
+      <c r="I120" s="60" t="s">
         <v>49</v>
       </c>
       <c r="J120" s="20"/>
@@ -24230,7 +24241,7 @@
       <c r="H121" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I121" s="59" t="s">
+      <c r="I121" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J121" s="20"/>
@@ -24270,7 +24281,7 @@
       <c r="H122" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I122" s="59" t="s">
+      <c r="I122" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J122" s="20"/>
@@ -24348,7 +24359,7 @@
       <c r="H124" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I124" s="59" t="s">
+      <c r="I124" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J124" s="20"/>
@@ -24386,7 +24397,7 @@
       <c r="H125" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I125" s="59" t="s">
+      <c r="I125" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J125" s="20"/>
@@ -24426,7 +24437,7 @@
       <c r="H126" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I126" s="59" t="s">
+      <c r="I126" s="60" t="s">
         <v>1232</v>
       </c>
       <c r="J126" s="20"/>
@@ -24466,7 +24477,7 @@
       <c r="H127" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="I127" s="59" t="s">
+      <c r="I127" s="60" t="s">
         <v>624</v>
       </c>
       <c r="J127" s="20"/>
@@ -24666,7 +24677,7 @@
       <c r="H132" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I132" s="59" t="s">
+      <c r="I132" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J132" s="20"/>
@@ -24782,7 +24793,7 @@
       <c r="H135" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I135" s="59" t="s">
+      <c r="I135" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J135" s="20"/>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2575,8 +2575,8 @@
     <t xml:space="preserve">A020 - policy maker</t>
   </si>
   <si>
-    <t xml:space="preserve">TA05 - Microtargeting
-T00018 - Paid targeted ads</t>
+    <t xml:space="preserve">T0005 - Center of gravity analysis
+T0018 - Paid targeted ads</t>
   </si>
   <si>
     <t xml:space="preserve">C00011</t>
@@ -19783,7 +19783,7 @@
   </sheetPr>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2558,9 +2558,31 @@
     <t xml:space="preserve">A016 - influencer,A006 - educator</t>
   </si>
   <si>
-    <t xml:space="preserve">TA08 - Pump Priming
-T0010 - Cultivate ignorant agents
-T0029 - Manipulate online polls</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0010 - Cultivate ignorant agents
+T0039 - Bait legitimate influencers
+T0044 - Seed distortions
+T0042 - Kernel of truth
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">T0048 - Cow online opinion leaders
+T0052 - Tertiary sites amplify news
+T0053 - Twitter trolls amplify and manipulate
+T0055 - Use hashtag
+T0056 - Dedicated channels disseminate information pollution</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C00010</t>
@@ -19784,7 +19806,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19928,7 +19950,7 @@
         <v>C00008 - Create shared fact-checking database</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="108.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
         <v>728</v>
       </c>

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -2536,14 +2536,24 @@
     <t xml:space="preserve">D4 Degrade</t>
   </si>
   <si>
-    <t xml:space="preserve">TA01 - Strategic Planning
-TA06 - Develop Content
-TA08 - Pump Priming
+    <t xml:space="preserve">T0001 - 5Ds (dismiss, distort, distract, dismay, divide)
+T0002 - Facilitate State Propaganda
+T0003 - Leverage Existing Narratives
+T0027 - Adapt existing narratives
+T0028 - Create competing narratives
 T0006 - Create Master Narratives
 T0009 - Create fake experts
 T0008 - Create fake or imposter news sites
 T0013 - Create fake websites
-T0014 - Create funding campaigns</t>
+T0014 - Create funding campaigns
+T0021 - Memes 
+T0025 - Leak altered documents
+T0024 - Create fake videos and images
+T0026 - Create fake research
+T0056 - Dedicated channels disseminate information pollution
+T0051 - Fabricate social media comment
+T0044 - Seed distortions
+T0045 - Use fake experts</t>
   </si>
   <si>
     <t xml:space="preserve">C00009</t>
@@ -19806,7 +19816,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19942,7 +19952,7 @@
         <v>726</v>
       </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="59" t="s">
         <v>727</v>
       </c>
       <c r="O3" s="24" t="str">

--- a/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_TTPs_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Dropbox/SJT_Projects_current/CogSecCollab/CODE_AND_DATA/github_cogseccollab_AMITT/AMITT_MASTER_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D3322-8020-A649-A18B-2CBEC2BCCBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D11CE8-455E-6E44-A503-DD69F4ED2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6360" yWindow="-22820" windowWidth="45520" windowHeight="18980" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6060" yWindow="-23640" windowWidth="45520" windowHeight="18980" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN_README" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="2121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="2122">
   <si>
     <t>MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -7610,35 +7610,6 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">T0019 - Generate information pollution
-T0010 - Cultivate ignorant agents
-T0044 - Seed distortions
-T0021 - Memes
-T0022 - Conspiracy narratives
-T0023 - Distort facts
-T0027 - Adapt existing narratives
-T0039 - Bait legitimate influencers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T0055 - Use hashtag
-T0049 - Flooding
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">T0016 - Clickbait 
 T0019 - Generate information pollution
 T0056 - Dedicated channels disseminate information pollution
@@ -7837,6 +7808,44 @@
   </si>
   <si>
     <t xml:space="preserve">Search for repeated content (text, images, videos etc); check for misinformation, rate-limit or delete repeats. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T0019 - Generate information pollution
+T0010 - Cultivate ignorant agents
+T0044 - Seed distortions
+T0021 - Memes
+T0022 - Conspiracy narratives
+T0023 - Distort facts
+T0027 - Adapt existing narratives
+T0039 - Bait legitimate influencers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0055 - Use hashtag
+T0049 - Flooding
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TA01 - Strategic planning
+TA02 - Objective planning
+TA03 - develop people
+TA04 - develop networks
+TA05 - microtargeting
+TA06 - develop content
+TA07 - channel selection
+TA08 - pump priming
+TA09 - exposure
+TA10 - go physical
+TA11 - persistence
+TA12 - measure effectiveness</t>
   </si>
 </sst>
 </file>
@@ -8137,7 +8146,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8407,6 +8416,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22940,8 +22952,8 @@
   </sheetPr>
   <dimension ref="A1:AMI142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23917,7 +23929,7 @@
         <v>679</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>718</v>
@@ -24332,8 +24344,8 @@
         <v>693</v>
       </c>
       <c r="L38" s="20"/>
-      <c r="M38" s="83" t="s">
-        <v>389</v>
+      <c r="M38" s="91" t="s">
+        <v>2121</v>
       </c>
       <c r="N38" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24545,7 +24557,7 @@
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="81" t="s">
-        <v>2108</v>
+        <v>2120</v>
       </c>
       <c r="N44" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24584,7 +24596,7 @@
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="81" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="N45" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24602,7 +24614,7 @@
         <v>805</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>844</v>
@@ -24621,7 +24633,7 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="81" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="N46" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24827,7 +24839,7 @@
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="80" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="N52" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24862,7 +24874,7 @@
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="80" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="N53" s="24" t="str">
         <f t="shared" si="1"/>
@@ -24897,7 +24909,7 @@
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="81" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="N54" s="24" t="str">
         <f t="shared" si="1"/>
@@ -25037,7 +25049,7 @@
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="81" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="N58" s="24" t="str">
         <f t="shared" si="1"/>
@@ -25072,7 +25084,7 @@
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="81" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="N59" s="24" t="str">
         <f t="shared" si="1"/>
@@ -25111,7 +25123,7 @@
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="81" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="N60" s="24" t="str">
         <f t="shared" si="1"/>
@@ -26086,7 +26098,7 @@
       </c>
       <c r="L87" s="20"/>
       <c r="M87" s="81" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="N87" s="24" t="str">
         <f t="shared" si="2"/>
@@ -26853,7 +26865,7 @@
       </c>
       <c r="L108" s="20"/>
       <c r="M108" s="80" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="N108" s="24" t="str">
         <f t="shared" si="3"/>
@@ -28111,7 +28123,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057EA134-8119-C141-96AC-8F3F758DF5E6}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
